--- a/examples/99_tower_gbf/15mw/60m/outputs_mono/mono_turb_output.xlsx
+++ b/examples/99_tower_gbf/15mw/60m/outputs_mono/mono_turb_output.xlsx
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[12.91161888]</t>
+          <t>[12.]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5611,7 +5611,8 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[[0.077 0.077 0.077 0.077 0.077 0.077 0.077]]</t>
+          <t>[[0.077      0.09463231 0.13       0.09173222 0.10071154 0.077
+  0.09043702]]</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -5634,8 +5635,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.77214171 11.88077769 11.44458563
- 11.05777113]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[11.03279711]</t>
+          <t>[12.]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[11.05777113]</t>
+          <t>[12.]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>[2.63015672]</t>
+          <t>[2.82927368]</t>
         </is>
       </c>
       <c r="E380" t="inlineStr"/>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 10.42327969  5.999     ]</t>
+          <t>[12.         12.         12.          9.56023698  5.999     ]</t>
         </is>
       </c>
       <c r="E391" t="inlineStr"/>
@@ -10162,7 +10162,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>[[0.10002487 0.05882939 0.01576194 0.00960431 0.01320408]]</t>
+          <t>[[0.04       0.04       0.01549125 0.015      0.015     ]]</t>
         </is>
       </c>
       <c r="E413" t="inlineStr"/>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 10.42327969  5.999     ]</t>
+          <t>[12.         12.         12.          9.56023698  5.999     ]</t>
         </is>
       </c>
       <c r="E414" t="inlineStr"/>
@@ -13844,7 +13844,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>[1149.31597848]</t>
+          <t>[1089.967065]</t>
         </is>
       </c>
       <c r="E526" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[3496.93128798]</t>
+          <t>[3579.52512827]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13967,7 +13967,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[1149.31597848]</t>
+          <t>[1089.967065]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -14048,7 +14048,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[1504.64115995]</t>
+          <t>[1084.12221188]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -14183,7 +14183,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[2763.45607127]</t>
+          <t>[3352.0531438]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -14210,7 +14210,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[6963886.28323875]</t>
+          <t>[8224393.8875664]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>[89.21793624]</t>
+          <t>[89.51033145]</t>
         </is>
       </c>
       <c r="E543" t="inlineStr"/>
@@ -18257,8 +18257,8 @@
         <is>
           <t>[   0.            0.            0.            0.            0.
     0.            0.            0.            0.            0.
-    0.            0.            0.          777.10164601  906.89706306
-  988.0864902  1014.05822739 1035.34876847 1052.87419939]</t>
+    0.            0.            0.          794.61388077  939.92646878
+ 1038.43875671 1078.88882725 1115.3698522  1148.71116563]</t>
         </is>
       </c>
       <c r="E715" t="inlineStr"/>
@@ -18402,10 +18402,10 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          17734.54919991
-  19037.5338827   23149.01700337  30727.62810066  42699.80635211
-  61065.38653636  88807.23626633  99214.95112891 111034.61275205
- 124542.43715559      0.              0.              0.
+          <t>[     0.              0.              0.          15323.38852087
+  16450.58580019  20006.18431181  26563.4182924   37201.47746339
+  53640.36964699  78643.669866    92005.852428   107912.48247064
+ 126971.18758834      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -18656,10 +18656,8 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.91161888 12.91161888 12.91161888
- 12.91161888 12.86512649 12.8186341  12.77214171 12.47502037 12.17789903
- 11.88077769 11.73538034 11.58998298 11.44458563 11.31564746 11.1867093
- 11.05777113]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12.
+ 12.]</t>
         </is>
       </c>
       <c r="E731" t="inlineStr"/>
@@ -18826,11 +18824,11 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          17734.54919991
-  19037.5338827   23149.01700337  30727.62810066  42699.80635211
-  61065.38653636  88807.23626633  99214.95112891 111034.61275205
- 124542.43715559    777.10164601    906.89706306    988.0864902
-   1014.05822739   1035.34876847   1052.87419939]</t>
+          <t>[     0.              0.              0.          15323.38852087
+  16450.58580019  20006.18431181  26563.4182924   37201.47746339
+  53640.36964699  78643.669866    92005.852428   107912.48247064
+ 126971.18758834    794.61388077    939.92646878   1038.43875671
+   1078.88882725   1115.3698522    1148.71116563]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr"/>
@@ -18972,11 +18970,11 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -17734.54919991
-  -19037.5338827   -23149.01700337  -30727.62810066  -42699.80635211
-  -61065.38653636  -88807.23626633  -99214.95112891 -111034.61275205
- -124542.43715559    -777.10164601    -906.89706306    -988.0864902
-   -1014.05822739   -1035.34876847   -1052.87419939]</t>
+          <t>[      0.               0.               0.          -15323.38852087
+  -16450.58580019  -20006.18431181  -26563.4182924   -37201.47746339
+  -53640.36964699  -78643.669866    -92005.852428   -107912.48247064
+ -126971.18758834    -794.61388077    -939.92646878   -1038.43875671
+   -1078.88882725   -1115.3698522    -1148.71116563]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr"/>
@@ -19026,8 +19024,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.77214171 11.88077769 11.44458563
- 11.05777113]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr"/>
@@ -19050,7 +19047,7 @@
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.08581616 0.11231616 0.11086611 0.09622188 0.08885577 0.08371851]</t>
         </is>
       </c>
       <c r="E747" t="inlineStr"/>
@@ -19116,8 +19113,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.77214171 11.88077769 11.44458563
- 11.05777113]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E750" t="inlineStr"/>
@@ -19140,7 +19136,7 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.08581616 0.11231616 0.11086611 0.09622188 0.08885577 0.08371851]</t>
         </is>
       </c>
       <c r="E751" t="inlineStr"/>
@@ -19403,8 +19399,9 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077
- 0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.08581616 0.08581616 0.08581616 0.11231616 0.11231616 0.11231616
+ 0.11086611 0.11086611 0.11086611 0.09622188 0.09622188 0.09622188
+ 0.08885577 0.08885577 0.08885577 0.08371851 0.08371851 0.08371851]</t>
         </is>
       </c>
       <c r="E762" t="inlineStr"/>
@@ -19568,7 +19565,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>[2663456.07126732]</t>
+          <t>[3252053.14379521]</t>
         </is>
       </c>
       <c r="E769" t="inlineStr"/>
@@ -19591,7 +19588,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>[6463886.28323875]</t>
+          <t>[7724393.8875664]</t>
         </is>
       </c>
       <c r="E770" t="inlineStr"/>
@@ -19614,7 +19611,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>[51.6045125]</t>
+          <t>[53.15894069]</t>
         </is>
       </c>
       <c r="E771" t="inlineStr"/>
@@ -19637,7 +19634,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>[9.53977558e+09 9.53977558e+09 1.05604184e+08 0.00000000e+00
+          <t>[1.19603242e+10 1.19603242e+10 1.15124994e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -19661,7 +19658,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>[1504641.15995228]</t>
+          <t>[1084122.21188047]</t>
         </is>
       </c>
       <c r="E773" t="inlineStr"/>
@@ -19684,7 +19681,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>[3958705.18781011]</t>
+          <t>[3068471.48551362]</t>
         </is>
       </c>
       <c r="E774" t="inlineStr"/>
@@ -19731,26 +19728,26 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>[[2.32411620e+10 6.10356153e+12 2.32411620e+10 6.10356153e+12
-  1.61054221e+10 2.00899507e+11]
- [2.11662147e+10 4.44105979e+12 2.11662147e+10 4.44105979e+12
-  1.49854221e+10 2.00899507e+11]
- [1.90912673e+10 3.13253336e+12 1.90912673e+10 3.13253336e+12
-  1.38654221e+10 2.00899507e+11]
- [1.70163199e+10 2.13373533e+12 1.70163199e+10 2.13373533e+12
-  1.27454221e+10 2.00899507e+11]
- [1.49413726e+10 1.40041877e+12 1.49413726e+10 1.40041877e+12
-  1.16254221e+10 2.00899507e+11]
- [1.28664252e+10 8.88336788e+11 1.28664252e+10 8.88336788e+11
-  1.05054221e+10 2.00899507e+11]
- [1.07914778e+10 5.53242457e+11 1.07914778e+10 5.53242457e+11
-  9.38542214e+09 2.00899507e+11]
- [8.71653047e+09 3.50888867e+11 8.71653047e+09 3.50888867e+11
-  8.26542214e+09 2.00899507e+11]
- [6.64158310e+09 2.37029105e+11 6.64158310e+09 2.37029105e+11
-  7.14542214e+09 2.00899507e+11]
- [4.56663573e+09 1.67416256e+11 4.56663573e+09 1.67416256e+11
-  6.02542214e+09 2.00899507e+11]]</t>
+          <t>[[2.29187368e+10 5.99424000e+12 2.29187368e+10 5.99424000e+12
+  1.56800000e+10 1.61280000e+11]
+ [2.08437895e+10 4.34021663e+12 2.08437895e+10 4.34021663e+12
+  1.45600000e+10 1.61280000e+11]
+ [1.87688421e+10 3.04016856e+12 1.87688421e+10 3.04016856e+12
+  1.34400000e+10 1.61280000e+11]
+ [1.66938947e+10 2.04984889e+12 1.66938947e+10 2.04984889e+12
+  1.23200000e+10 1.61280000e+11]
+ [1.46189474e+10 1.32501070e+12 1.46189474e+10 1.32501070e+12
+  1.12000000e+10 1.61280000e+11]
+ [1.25440000e+10 8.21407078e+11 1.25440000e+10 8.21407078e+11
+  1.00800000e+10 1.61280000e+11]
+ [1.04690526e+10 4.94791111e+11 1.04690526e+10 4.94791111e+11
+  8.96000000e+09 1.61280000e+11]
+ [8.39410526e+09 3.00915885e+11 8.39410526e+09 3.00915885e+11
+  7.84000000e+09 1.61280000e+11]
+ [6.31915789e+09 1.95534486e+11 6.31915789e+09 1.95534486e+11
+  6.72000000e+09 1.61280000e+11]
+ [4.24421053e+09 1.34400000e+11 4.24421053e+09 1.34400000e+11
+  5.60000000e+09 1.61280000e+11]]</t>
         </is>
       </c>
       <c r="E776" t="inlineStr"/>
@@ -19773,9 +19770,9 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>[3.32205909 3.32205909 3.32205909 3.32205909 3.32205909 3.32205909
- 3.31604214 3.30400824 3.29197435 3.24750458 3.17059893 3.09369329
- 3.03642344 2.9987894  2.96115535 2.92565143 2.89227761 2.85890379]</t>
+          <t>[3.43690084 3.43690084 3.43690084 4.48820956 4.48820956 4.48820956
+ 4.43080545 4.43080545 4.43080545 3.85028008 3.85028008 3.85028008
+ 3.55772829 3.55772829 3.55772829 3.35348125 3.35348125 3.35348125]</t>
         </is>
       </c>
       <c r="E777" t="inlineStr"/>
@@ -19798,9 +19795,9 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>[1.89022248 1.89022248 1.89022248 1.89022248 1.89022248 1.89022248
- 1.88680824 1.87997976 1.87315129 1.84791753 1.80427858 1.76063976
- 1.72814304 1.70678834 1.68543368 1.66528774 1.64635052 1.62741333]</t>
+          <t>[1.95664225 1.95664225 1.95664225 2.55780878 2.55780878 2.55780878
+ 2.52494988 2.52494988 2.52494988 2.19286886 2.19286886 2.19286886
+ 2.02566887 2.02566887 2.02566887 1.90899593 1.90899593 1.90899593]</t>
         </is>
       </c>
       <c r="E778" t="inlineStr"/>
@@ -19823,9 +19820,9 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>[1.89022248 1.89022248 1.89022248 1.89022248 1.89022248 1.89022248
- 1.88680824 1.87997976 1.87315129 1.84791753 1.80427858 1.76063976
- 1.72814304 1.70678834 1.68543368 1.66528774 1.64635052 1.62741333]</t>
+          <t>[1.95664225 1.95664225 1.95664225 2.55780878 2.55780878 2.55780878
+ 2.52494988 2.52494988 2.52494988 2.19286886 2.19286886 2.19286886
+ 2.02566887 2.02566887 2.02566887 1.90899593 1.90899593 1.90899593]</t>
         </is>
       </c>
       <c r="E779" t="inlineStr"/>
@@ -19848,9 +19845,9 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>[68.40674886 68.40674886 68.40674886 68.40674886 68.40674886 68.40674886
- 68.03573355 67.29773235 66.56508747 63.90383686 59.47060392 55.24729894
- 52.23564704 50.31741771 48.44673505 46.72498378 45.14418429 43.59944799]</t>
+          <t>[60.98571794 60.98571794 60.98571794 79.2896313  79.2896313  79.2896313
+ 78.29443463 78.29443463 78.29443463 68.20250999 68.20250999 68.20250999
+ 63.09775744 63.09775744 63.09775744 59.5262932  59.5262932  59.5262932 ]</t>
         </is>
       </c>
       <c r="E780" t="inlineStr"/>
@@ -19873,9 +19870,9 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>[68.40674886 68.40674886 68.40674886 68.40674886 68.40674886 68.40674886
- 68.03573355 67.29773235 66.56508747 63.90383686 59.47060392 55.24729894
- 52.23564704 50.31741771 48.44673505 46.72498378 45.14418429 43.59944799]</t>
+          <t>[60.98571794 60.98571794 60.98571794 79.2896313  79.2896313  79.2896313
+ 78.29443463 78.29443463 78.29443463 68.20250999 68.20250999 68.20250999
+ 63.09775744 63.09775744 63.09775744 59.5262932  59.5262932  59.5262932 ]</t>
         </is>
       </c>
       <c r="E781" t="inlineStr"/>
@@ -19898,10 +19895,10 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>[136.81349772 136.81349772 136.81349772 136.81349772 136.81349772
- 136.81349772 136.07146709 134.5954647  133.13017494 127.80767371
- 118.94120785 110.49459789 104.47129409 100.63483541  96.89347011
-  93.44996756  90.28836857  87.19889598]</t>
+          <t>[121.97143588 121.97143588 121.97143588 158.5792626  158.5792626
+ 158.5792626  156.58886926 156.58886926 156.58886926 136.40501998
+ 136.40501998 136.40501998 126.19551488 126.19551488 126.19551488
+ 119.0525864  119.0525864  119.0525864 ]</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
@@ -20096,8 +20093,8 @@
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>[2.92449099 2.92449099 2.92449099 1.37850083 1.37850083 1.37850083
- 0.46550464 0.45684251 0.44818038 0.37087427 0.31433897 0.25780367]</t>
+          <t>[1.60814358 1.60814358 1.60814358 1.11661658 1.11661658 1.11661658
+ 0.59335848 0.55168064 0.5100028  0.45136752 0.39151196 0.33165639]</t>
         </is>
       </c>
       <c r="E789" t="inlineStr"/>
@@ -20120,8 +20117,8 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>[1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E790" t="inlineStr"/>
@@ -20144,8 +20141,8 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>[1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E791" t="inlineStr"/>
@@ -20168,8 +20165,8 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>[43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E792" t="inlineStr"/>
@@ -20192,8 +20189,8 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>[43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E793" t="inlineStr"/>
@@ -20216,8 +20213,8 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>[87.72202461 87.72202461 87.72202461 41.66602941 41.66602941 41.66602941
- 13.87371518 13.11354997 12.38167179  8.67808658  5.28370768  2.91482043]</t>
+          <t>[57.50850094 57.50850094 57.50850094 40.0127394  40.0127394  40.0127394
+ 19.88540996 15.98256326 12.62702454  9.04237114  5.90101752  3.58721635]</t>
         </is>
       </c>
       <c r="E794" t="inlineStr"/>
@@ -20311,8 +20308,8 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711
- 11.03279711 10.82962464 10.62645216 10.42327969  8.94851979  7.4737599
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         11.18674566 10.37349132  9.56023698  8.37315799  7.18607899
   5.999     ]</t>
         </is>
       </c>
@@ -20336,8 +20333,8 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>[0.07942713 0.07942713 0.07942713 0.03729566 0.03729566 0.03729566
- 0.01268313 0.01268313 0.01268313 0.0114042  0.0114042  0.0114042 ]</t>
+          <t>[0.04       0.04       0.04       0.02774562 0.02774562 0.02774562
+ 0.01524562 0.01524562 0.01524562 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E799" t="inlineStr"/>
@@ -20494,7 +20491,7 @@
         <is>
           <t>[[ 2.93771262e+06]
  [ 8.73815973e+03]
- [-2.18116909e+07]]</t>
+ [-1.76985806e+07]]</t>
         </is>
       </c>
       <c r="E805" t="inlineStr"/>
@@ -20517,8 +20514,8 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>[[-1.97210989e+06]
- [ 4.12817427e+08]
+          <t>[[-1.97582117e+06]
+ [ 4.13705661e+08]
  [ 6.20262840e+06]]</t>
         </is>
       </c>
@@ -20542,8 +20539,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>[1528428.77960717 1528428.77960717 3056857.55921434       0.
-       0.               0.        ]</t>
+          <t>[1800000. 1800000. 3600000.       0.       0.       0.]</t>
         </is>
       </c>
       <c r="E807" t="inlineStr"/>
@@ -20635,7 +20631,7 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>[2453036.36220593]</t>
+          <t>[2032517.41413412]</t>
         </is>
       </c>
       <c r="E811" t="inlineStr"/>
@@ -20658,7 +20654,7 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>[-2.61290457e+00 -3.70622434e-02  8.91387722e+01]</t>
+          <t>[-3.15350308e+00 -4.47302592e-02  1.03638935e+02]</t>
         </is>
       </c>
       <c r="E812" t="inlineStr"/>
@@ -20681,7 +20677,7 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>[2.84280241e+10 2.82970912e+10 3.10609423e+08 5.41253437e+02
+          <t>[2.83811696e+10 2.82502367e+10 3.02588701e+08 5.41253437e+02
  1.42357768e+07 1.69892134e+05]</t>
         </is>
       </c>
@@ -20860,22 +20856,22 @@
           <t>[[      0.        ]
  [      0.        ]
  [      0.        ]
- [ -17734.54919991]
- [ -19037.5338827 ]
- [ -23149.01700337]
- [ -30727.62810066]
- [ -42699.80635211]
- [ -61065.38653636]
- [ -88807.23626633]
- [ -99214.95112891]
- [-111034.61275205]
- [-124542.43715559]
- [   -777.10164601]
- [   -906.89706306]
- [   -988.0864902 ]
- [  -1014.05822739]
- [  -1035.34876847]
- [  -1052.87419939]]</t>
+ [ -15323.38852087]
+ [ -16450.58580019]
+ [ -20006.18431181]
+ [ -26563.4182924 ]
+ [ -37201.47746339]
+ [ -53640.36964699]
+ [ -78643.669866  ]
+ [ -92005.852428  ]
+ [-107912.48247064]
+ [-126971.18758834]
+ [   -794.61388077]
+ [   -939.92646878]
+ [  -1038.43875671]
+ [  -1078.88882725]
+ [  -1115.3698522 ]
+ [  -1148.71116563]]</t>
         </is>
       </c>
       <c r="E819" t="inlineStr"/>
@@ -20968,18 +20964,18 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>[[-1050.39289116]
- [-1210.38582946]
- [-1325.57806587]
- [-1417.92251632]
- [-1526.37603706]
- [-1617.13258034]
- [-1695.94911499]
- [-1700.99067951]
- [-1701.7246277 ]
- [-1698.74684974]
- [-1457.94811764]
- [-1230.05477913]
+          <t>[[-1148.71116563]
+ [-1328.13546587]
+ [-1457.99309682]
+ [-1562.45872905]
+ [-1685.52442411]
+ [-1788.79538042]
+ [-1878.67520451]
+ [-1768.05191007]
+ [-1654.64775701]
+ [-1539.88760941]
+ [-1359.19878774]
+ [-1183.1166981 ]
  [-1007.39469272]]</t>
         </is>
       </c>
@@ -21003,24 +20999,24 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>[[-49615064.1406835 ]
- [-47074042.04435225]
- [-44445233.93470439]
- [-42176030.68271604]
- [-39884492.74713404]
- [-37544733.15871998]
- [-35128161.79161146]
- [-32594117.81773811]
- [-29877551.11655378]
- [-28739315.9119685 ]
- [-27584013.72958774]
- [-26406529.45285802]
- [-25425571.78850358]
- [-24658208.1543592 ]
- [-23900091.72284073]
- [-23525471.23734758]
- [-23155066.30946707]
- [-22788883.90738817]]</t>
+          <t>[[-50892720.15489136]
+ [-48263856.32779001]
+ [-45559141.72968551]
+ [-42567237.95239984]
+ [-39556017.64606138]
+ [-36503081.90759405]
+ [-33415805.45342501]
+ [-30216836.58372872]
+ [-26846918.62614182]
+ [-25583661.9211571 ]
+ [-24272111.67624529]
+ [-22902868.64076083]
+ [-21784960.37287499]
+ [-20875003.68825125]
+ [-19964644.69246417]
+ [-19535388.4309229 ]
+ [-19106068.70118142]
+ [-18676691.36807182]]</t>
         </is>
       </c>
       <c r="E823" t="inlineStr"/>
@@ -21043,24 +21039,24 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>[[ -5352484.42729612]
- [-11788124.56823869]
- [-11187022.94009279]
- [  2938575.4342779 ]
- [  2938994.38119643]
- [  2939421.08556151]
- [  2939870.80542292]
- [  2940369.06541219]
- [  2940960.93749461]
- [  2939205.23302106]
- [  2939298.44795733]
- [  2939404.69977469]
- [  2939297.77281438]
- [  2938923.75395819]
- [  2938962.48761233]
- [  2938350.23180464]
- [  2938356.56720662]
- [  2938362.87905392]]</t>
+          <t>[[ -5716710.4666885 ]
+ [-12696789.19483876]
+ [-11937606.35340011]
+ [  2938902.82788935]
+ [  2939375.71912394]
+ [  2939849.17763188]
+ [  2940309.52665176]
+ [  2940834.21422443]
+ [  2941428.14669844]
+ [  2939228.62986859]
+ [  2939358.35434649]
+ [  2939503.73628996]
+ [  2939341.60185533]
+ [  2939010.62009718]
+ [  2939061.15411385]
+ [  2938366.39633658]
+ [  2938378.52210911]
+ [  2938390.49153151]]</t>
         </is>
       </c>
       <c r="E824" t="inlineStr"/>
@@ -21083,24 +21079,24 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>[[-22489.58419338]
- [-49920.94794412]
- [-48789.37765654]
- [  8741.74276944]
- [  8743.52365259]
- [  8745.358809  ]
- [  8747.31516772]
- [  8749.50564085]
- [  8752.13054689]
- [  8744.61129885]
- [  8745.0352334 ]
- [  8745.52019171]
- [  8745.07950052]
- [  8743.4664053 ]
- [  8743.65714042]
- [  8740.97244873]
- [  8741.00617966]
- [  8741.04011907]]</t>
+          <t>[[-24008.41910354]
+ [-53721.8434581 ]
+ [-51962.26166266]
+ [  8743.11004658]
+ [  8745.12039905]
+ [  8747.15741796]
+ [  8749.16479672]
+ [  8751.47419436]
+ [  8754.11321643]
+ [  8744.69932186]
+ [  8745.28143236]
+ [  8745.93521732]
+ [  8745.25374417]
+ [  8743.8319398 ]
+ [  8744.0732307 ]
+ [  8741.03390243]
+ [  8741.09262389]
+ [  8741.15086874]]</t>
         </is>
       </c>
       <c r="E825" t="inlineStr"/>
@@ -21123,24 +21119,24 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>[[ -334908.61675215]
- [-1219416.97160749]
- [-2198860.93443937]
- [-2513054.30107122]
- [-2438588.12645768]
- [-2363717.72376995]
- [-2288515.95396343]
- [-2213055.01085999]
- [-2137410.45713912]
- [-2107150.54520427]
- [-2076880.18350945]
- [-2046600.07801992]
- [-2016313.15960152]
- [-1986013.67444088]
- [-1955694.41195035]
- [-1940532.61164971]
- [-1925366.41054605]
- [-1910195.70694006]]</t>
+          <t>[[ -324567.30546799]
+ [-1234272.0768309 ]
+ [-2234931.08937303]
+ [-2509381.40724483]
+ [-2434921.61609974]
+ [-2360156.13305502]
+ [-2285161.10069078]
+ [-2210011.5333863 ]
+ [-2134789.02355894]
+ [-2104730.7559804 ]
+ [-2074673.63074064]
+ [-2044623.16084485]
+ [-2014584.76060844]
+ [-1984552.18056659]
+ [-1954520.9626191 ]
+ [-1939511.72147625]
+ [-1924503.2780096 ]
+ [-1909496.03157005]]</t>
         </is>
       </c>
       <c r="E826" t="inlineStr"/>
@@ -21163,24 +21159,24 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>[[8.07394330e+07]
- [2.92290083e+08]
- [5.22682007e+08]
- [5.90952168e+08]
- [5.66077379e+08]
- [5.41109367e+08]
- [5.16066505e+08]
- [4.90966764e+08]
- [4.65828626e+08]
- [4.55774203e+08]
- [4.45718158e+08]
- [4.35660743e+08]
- [4.25602703e+08]
- [4.15542779e+08]
- [4.05479381e+08]
- [4.00447588e+08]
- [3.95415075e+08]
- [3.90381830e+08]]</t>
+          <t>[[7.82703602e+07]
+ [2.95926845e+08]
+ [5.31339501e+08]
+ [5.90100752e+08]
+ [5.65227540e+08]
+ [5.40284156e+08]
+ [5.15289491e+08]
+ [4.90261909e+08]
+ [4.65220961e+08]
+ [4.55212760e+08]
+ [4.45205490e+08]
+ [4.35200435e+08]
+ [4.25198822e+08]
+ [4.15199264e+08]
+ [4.05200733e+08]
+ [4.00203177e+08]
+ [3.95205989e+08]
+ [3.90209259e+08]]</t>
         </is>
       </c>
       <c r="E827" t="inlineStr"/>
@@ -21203,24 +21199,24 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>[[1023023.13193147]
- [2235498.08306039]
- [3861976.66018119]
- [6203675.03503468]
- [6203621.58949924]
- [6203567.61885943]
- [6203514.11789224]
- [6203460.119842  ]
- [6203402.93621325]
- [6203348.09829341]
- [6203337.47089578]
- [6203325.88354192]
- [6203308.70177697]
- [6203291.64848973]
- [6203279.80488188]
- [6203267.4383149 ]
- [6203264.67965868]
- [6203261.9720371 ]]</t>
+          <t>[[1062435.52297004]
+ [2302037.95108071]
+ [3925534.53088195]
+ [6203422.47703471]
+ [6203370.32339805]
+ [6203317.83392904]
+ [6203272.86165662]
+ [6203218.35094856]
+ [6203161.86914631]
+ [6203173.8386235 ]
+ [6203148.17154557]
+ [6203121.5234555 ]
+ [6203131.96806114]
+ [6203107.38676763]
+ [6203087.37819253]
+ [6203094.0980195 ]
+ [6203084.08447534]
+ [6203074.06948294]]</t>
         </is>
       </c>
       <c r="E828" t="inlineStr"/>
@@ -21272,11 +21268,11 @@
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.91161888 12.91161888 12.91161888
- 12.91161888 12.86512649 12.8186341  12.77214171 12.47502037 12.17789903
- 11.88077769 11.73538034 11.58998298 11.44458563 11.31564746 11.1867093
- 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711
- 11.03279711 10.82962464 10.62645216 10.42327969  8.94851979  7.4737599
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         11.18674566 10.37349132  9.56023698  8.37315799  7.18607899
   5.999     ]</t>
         </is>
       </c>
@@ -21300,11 +21296,11 @@
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t>[0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.07942713 0.07942713 0.07942713 0.03729566 0.03729566 0.03729566
- 0.01268313 0.01268313 0.01268313 0.0114042  0.0114042  0.0114042 ]</t>
+          <t>[0.08581616 0.08581616 0.08581616 0.11231616 0.11231616 0.11231616
+ 0.11086611 0.11086611 0.11086611 0.09622188 0.09622188 0.09622188
+ 0.08885577 0.08885577 0.08885577 0.08371851 0.08371851 0.08371851
+ 0.04       0.04       0.04       0.02774562 0.02774562 0.02774562
+ 0.01524562 0.01524562 0.01524562 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E831" t="inlineStr"/>
@@ -21452,11 +21448,11 @@
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>[3.32205909 3.32205909 3.32205909 3.32205909 3.32205909 3.32205909
- 3.31604214 3.30400824 3.29197435 3.24750458 3.17059893 3.09369329
- 3.03642344 2.9987894  2.96115535 2.92565143 2.89227761 2.85890379
- 2.92449099 2.92449099 2.92449099 1.37850083 1.37850083 1.37850083
- 0.46550464 0.45684251 0.44818038 0.37087427 0.31433897 0.25780367]</t>
+          <t>[3.43690084 3.43690084 3.43690084 4.48820956 4.48820956 4.48820956
+ 4.43080545 4.43080545 4.43080545 3.85028008 3.85028008 3.85028008
+ 3.55772829 3.55772829 3.55772829 3.35348125 3.35348125 3.35348125
+ 1.60814358 1.60814358 1.60814358 1.11661658 1.11661658 1.11661658
+ 0.59335848 0.55168064 0.5100028  0.45136752 0.39151196 0.33165639]</t>
         </is>
       </c>
       <c r="E837" t="inlineStr"/>
@@ -21479,11 +21475,11 @@
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>[1.89022248 1.89022248 1.89022248 1.89022248 1.89022248 1.89022248
- 1.88680824 1.87997976 1.87315129 1.84791753 1.80427858 1.76063976
- 1.72814304 1.70678834 1.68543368 1.66528774 1.64635052 1.62741333
- 1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[1.95664225 1.95664225 1.95664225 2.55780878 2.55780878 2.55780878
+ 2.52494988 2.52494988 2.52494988 2.19286886 2.19286886 2.19286886
+ 2.02566887 2.02566887 2.02566887 1.90899593 1.90899593 1.90899593
+ 0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E838" t="inlineStr"/>
@@ -21506,11 +21502,11 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>[1.89022248 1.89022248 1.89022248 1.89022248 1.89022248 1.89022248
- 1.88680824 1.87997976 1.87315129 1.84791753 1.80427858 1.76063976
- 1.72814304 1.70678834 1.68543368 1.66528774 1.64635052 1.62741333
- 1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[1.95664225 1.95664225 1.95664225 2.55780878 2.55780878 2.55780878
+ 2.52494988 2.52494988 2.52494988 2.19286886 2.19286886 2.19286886
+ 2.02566887 2.02566887 2.02566887 1.90899593 1.90899593 1.90899593
+ 0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E839" t="inlineStr"/>
@@ -21533,11 +21529,11 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>[68.40674886 68.40674886 68.40674886 68.40674886 68.40674886 68.40674886
- 68.03573355 67.29773235 66.56508747 63.90383686 59.47060392 55.24729894
- 52.23564704 50.31741771 48.44673505 46.72498378 45.14418429 43.59944799
- 43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[60.98571794 60.98571794 60.98571794 79.2896313  79.2896313  79.2896313
+ 78.29443463 78.29443463 78.29443463 68.20250999 68.20250999 68.20250999
+ 63.09775744 63.09775744 63.09775744 59.5262932  59.5262932  59.5262932
+ 28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
@@ -21560,11 +21556,11 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>[68.40674886 68.40674886 68.40674886 68.40674886 68.40674886 68.40674886
- 68.03573355 67.29773235 66.56508747 63.90383686 59.47060392 55.24729894
- 52.23564704 50.31741771 48.44673505 46.72498378 45.14418429 43.59944799
- 43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[60.98571794 60.98571794 60.98571794 79.2896313  79.2896313  79.2896313
+ 78.29443463 78.29443463 78.29443463 68.20250999 68.20250999 68.20250999
+ 63.09775744 63.09775744 63.09775744 59.5262932  59.5262932  59.5262932
+ 28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E841" t="inlineStr"/>
@@ -21587,12 +21583,12 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>[136.81349772 136.81349772 136.81349772 136.81349772 136.81349772
- 136.81349772 136.07146709 134.5954647  133.13017494 127.80767371
- 118.94120785 110.49459789 104.47129409 100.63483541  96.89347011
-  93.44996756  90.28836857  87.19889598  87.72202461  87.72202461
-  87.72202461  41.66602941  41.66602941  41.66602941  13.87371518
-  13.11354997  12.38167179   8.67808658   5.28370768   2.91482043]</t>
+          <t>[121.97143588 121.97143588 121.97143588 158.5792626  158.5792626
+ 158.5792626  156.58886926 156.58886926 156.58886926 136.40501998
+ 136.40501998 136.40501998 126.19551488 126.19551488 126.19551488
+ 119.0525864  119.0525864  119.0525864   57.50850094  57.50850094
+  57.50850094  40.0127394   40.0127394   40.0127394   19.88540996
+  15.98256326  12.62702454   9.04237114   5.90101752   3.58721635]</t>
         </is>
       </c>
       <c r="E842" t="inlineStr"/>
@@ -21615,36 +21611,36 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>[[-4.96150641e+07]
- [-4.70740420e+07]
- [-4.44452339e+07]
- [-4.21760307e+07]
- [-3.98844927e+07]
- [-3.75447332e+07]
- [-3.51281618e+07]
- [-3.25941178e+07]
- [-2.98775511e+07]
- [-2.87393159e+07]
- [-2.75840137e+07]
- [-2.64065295e+07]
- [-2.54255718e+07]
- [-2.46582082e+07]
- [-2.39000917e+07]
- [-2.35254712e+07]
- [-2.31550663e+07]
- [-2.27888839e+07]
- [-1.91983500e+07]
- [-1.65875437e+07]
- [-1.39751554e+07]
- [-1.22033177e+07]
- [-1.04298310e+07]
- [-8.65470839e+06]
- [-8.28395048e+06]
- [-7.91937468e+06]
- [-7.56136574e+06]
- [-7.28217086e+06]
- [-7.04427309e+06]
- [ 1.90630089e-09]]</t>
+          <t>[[-5.08927202e+07]
+ [-4.82638563e+07]
+ [-4.55591417e+07]
+ [-4.25672380e+07]
+ [-3.95560176e+07]
+ [-3.65030819e+07]
+ [-3.34158055e+07]
+ [-3.02168366e+07]
+ [-2.68469186e+07]
+ [-2.55836619e+07]
+ [-2.42721117e+07]
+ [-2.29028686e+07]
+ [-2.17849604e+07]
+ [-2.08750037e+07]
+ [-1.99646447e+07]
+ [-1.95353884e+07]
+ [-1.91060687e+07]
+ [-1.86766914e+07]
+ [-1.62543459e+07]
+ [-1.48116020e+07]
+ [-1.33670802e+07]
+ [-1.19252973e+07]
+ [-1.04816459e+07]
+ [-9.03613567e+06]
+ [-8.56628426e+06]
+ [-8.12826835e+06]
+ [-7.72308963e+06]
+ [-7.38764043e+06]
+ [-7.09608549e+06]
+ [-2.01835064e-08]]</t>
         </is>
       </c>
       <c r="E843" t="inlineStr"/>
@@ -21667,36 +21663,36 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>[[-5.35248443e+06]
- [-1.17881246e+07]
- [-1.11870229e+07]
- [ 2.93857543e+06]
- [ 2.93899438e+06]
- [ 2.93942109e+06]
- [ 2.93987081e+06]
- [ 2.94036907e+06]
- [ 2.94096094e+06]
- [ 2.93920523e+06]
- [ 2.93929845e+06]
- [ 2.93940470e+06]
- [ 2.93929777e+06]
- [ 2.93892375e+06]
- [ 2.93896249e+06]
- [ 2.93835023e+06]
- [ 2.93835657e+06]
- [ 2.93836288e+06]
- [ 2.94272280e+06]
- [ 2.94333795e+06]
- [ 2.94389527e+06]
- [ 2.94257714e+06]
- [ 2.94341200e+06]
- [ 2.94407178e+06]
- [ 2.93919776e+06]
- [ 2.93931533e+06]
- [ 2.93939196e+06]
- [ 2.93908469e+06]
- [ 2.93891286e+06]
- [ 9.64804682e+02]]</t>
+          <t>[[-5.71671047e+06]
+ [-1.26967892e+07]
+ [-1.19376064e+07]
+ [ 2.93890283e+06]
+ [ 2.93937572e+06]
+ [ 2.93984918e+06]
+ [ 2.94030953e+06]
+ [ 2.94083421e+06]
+ [ 2.94142815e+06]
+ [ 2.93922863e+06]
+ [ 2.93935835e+06]
+ [ 2.93950374e+06]
+ [ 2.93934160e+06]
+ [ 2.93901062e+06]
+ [ 2.93906115e+06]
+ [ 2.93836640e+06]
+ [ 2.93837852e+06]
+ [ 2.93839049e+06]
+ [ 2.94029991e+06]
+ [ 2.94081882e+06]
+ [ 2.94129025e+06]
+ [ 2.94191530e+06]
+ [ 2.94262530e+06]
+ [ 2.94318732e+06]
+ [ 2.93965223e+06]
+ [ 2.93965237e+06]
+ [ 2.93961515e+06]
+ [ 2.93935837e+06]
+ [ 2.93917618e+06]
+ [ 1.21940660e+03]]</t>
         </is>
       </c>
       <c r="E844" t="inlineStr"/>
@@ -21719,36 +21715,36 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>[[-2.24895842e+04]
- [-4.99209479e+04]
- [-4.87893777e+04]
- [ 8.74174277e+03]
- [ 8.74352365e+03]
- [ 8.74535881e+03]
- [ 8.74731517e+03]
- [ 8.74950564e+03]
- [ 8.75213055e+03]
- [ 8.74461130e+03]
- [ 8.74503523e+03]
- [ 8.74552019e+03]
- [ 8.74507950e+03]
- [ 8.74346641e+03]
- [ 8.74365714e+03]
- [ 8.74097245e+03]
- [ 8.74100618e+03]
- [ 8.74104012e+03]
- [ 8.76054647e+03]
- [ 8.76366985e+03]
- [ 8.76662337e+03]
- [ 8.76121156e+03]
- [ 8.76632391e+03]
- [ 8.77091177e+03]
- [ 8.74623082e+03]
- [ 8.74751124e+03]
- [ 8.74868338e+03]
- [ 8.74751018e+03]
- [ 8.74745502e+03]
- [ 8.20094373e+00]]</t>
+          <t>[[-2.40084191e+04]
+ [-5.37218435e+04]
+ [-5.19622617e+04]
+ [ 8.74311005e+03]
+ [ 8.74512040e+03]
+ [ 8.74715742e+03]
+ [ 8.74916480e+03]
+ [ 8.75147419e+03]
+ [ 8.75411322e+03]
+ [ 8.74469932e+03]
+ [ 8.74528143e+03]
+ [ 8.74593522e+03]
+ [ 8.74525374e+03]
+ [ 8.74383194e+03]
+ [ 8.74407323e+03]
+ [ 8.74103390e+03]
+ [ 8.74109262e+03]
+ [ 8.74115087e+03]
+ [ 8.74971208e+03]
+ [ 8.75234670e+03]
+ [ 8.75484421e+03]
+ [ 8.75834789e+03]
+ [ 8.76269237e+03]
+ [ 8.76659492e+03]
+ [ 8.74867213e+03]
+ [ 8.74925984e+03]
+ [ 8.74979886e+03]
+ [ 8.74912052e+03]
+ [ 8.74917038e+03]
+ [ 9.98251067e+00]]</t>
         </is>
       </c>
       <c r="E845" t="inlineStr"/>
@@ -21771,36 +21767,36 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>[[-3.34908617e+05]
- [-1.21941697e+06]
- [-2.19886093e+06]
- [-2.51305430e+06]
- [-2.43858813e+06]
- [-2.36371772e+06]
- [-2.28851595e+06]
- [-2.21305501e+06]
- [-2.13741046e+06]
- [-2.10715055e+06]
- [-2.07688018e+06]
- [-2.04660008e+06]
- [-2.01631316e+06]
- [-1.98601367e+06]
- [-1.95569441e+06]
- [-1.94053261e+06]
- [-1.92536641e+06]
- [-1.91019571e+06]
- [-1.80437530e+06]
- [-1.69853895e+06]
- [-1.59286197e+06]
- [-1.44186427e+06]
- [-1.29046357e+06]
- [-1.13910818e+06]
- [-1.04837108e+06]
- [-9.57160721e+05]
- [-8.65546469e+05]
- [-7.79660559e+05]
- [-6.93202234e+05]
- [-1.75665368e-04]]</t>
+          <t>[[-3.24567305e+05]
+ [-1.23427208e+06]
+ [-2.23493109e+06]
+ [-2.50938141e+06]
+ [-2.43492162e+06]
+ [-2.36015613e+06]
+ [-2.28516110e+06]
+ [-2.21001153e+06]
+ [-2.13478902e+06]
+ [-2.10473076e+06]
+ [-2.07467363e+06]
+ [-2.04462316e+06]
+ [-2.01458476e+06]
+ [-1.98455218e+06]
+ [-1.95452096e+06]
+ [-1.93951172e+06]
+ [-1.92450328e+06]
+ [-1.90949603e+06]
+ [-1.80472660e+06]
+ [-1.69953466e+06]
+ [-1.59408186e+06]
+ [-1.44290580e+06]
+ [-1.29121122e+06]
+ [-1.13939958e+06]
+ [-1.04838905e+06]
+ [-9.57088944e+05]
+ [-8.65462747e+05]
+ [-7.79595083e+05]
+ [-6.93235530e+05]
+ [-2.19419097e-04]]</t>
         </is>
       </c>
       <c r="E846" t="inlineStr"/>
@@ -21823,36 +21819,36 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>[[ 8.07394330e+07]
- [ 2.92290083e+08]
- [ 5.22682007e+08]
- [ 5.90952168e+08]
- [ 5.66077379e+08]
- [ 5.41109367e+08]
- [ 5.16066505e+08]
- [ 4.90966764e+08]
- [ 4.65828626e+08]
- [ 4.55774203e+08]
- [ 4.45718158e+08]
- [ 4.35660743e+08]
- [ 4.25602703e+08]
- [ 4.15542779e+08]
- [ 4.05479381e+08]
- [ 4.00447588e+08]
- [ 3.95415075e+08]
- [ 3.90381830e+08]
- [ 3.55293578e+08]
- [ 3.20216135e+08]
- [ 2.85187693e+08]
- [ 2.35177579e+08]
- [ 1.85138251e+08]
- [ 1.35160452e+08]
- [ 1.05226945e+08]
- [ 7.52594865e+07]
- [ 4.52774992e+07]
- [ 1.72941791e+07]
- [-1.06802295e+07]
- [ 2.06672425e-02]]</t>
+          <t>[[ 7.82703602e+07]
+ [ 2.95926845e+08]
+ [ 5.31339501e+08]
+ [ 5.90100752e+08]
+ [ 5.65227540e+08]
+ [ 5.40284156e+08]
+ [ 5.15289491e+08]
+ [ 4.90261909e+08]
+ [ 4.65220961e+08]
+ [ 4.55212760e+08]
+ [ 4.45205490e+08]
+ [ 4.35200435e+08]
+ [ 4.25198822e+08]
+ [ 4.15199264e+08]
+ [ 4.05200733e+08]
+ [ 4.00203177e+08]
+ [ 3.95205989e+08]
+ [ 3.90209259e+08]
+ [ 3.55355699e+08]
+ [ 3.20426176e+08]
+ [ 2.85457494e+08]
+ [ 2.35427467e+08]
+ [ 1.85342877e+08]
+ [ 1.35287642e+08]
+ [ 1.05301768e+08]
+ [ 7.53043860e+07]
+ [ 4.53024558e+07]
+ [ 1.73058334e+07]
+ [-1.06754905e+07]
+ [ 2.68030852e-02]]</t>
         </is>
       </c>
       <c r="E847" t="inlineStr"/>
@@ -21875,36 +21871,36 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>[[1023023.13193147]
- [2235498.08306039]
- [3861976.66018119]
- [6203675.03503468]
- [6203621.58949924]
- [6203567.61885943]
- [6203514.11789224]
- [6203460.119842  ]
- [6203402.93621325]
- [6203348.09829341]
- [6203337.47089578]
- [6203325.88354192]
- [6203308.70177697]
- [6203291.64848973]
- [6203279.80488188]
- [6203267.4383149 ]
- [6203264.67965868]
- [6203261.9720371 ]
- [6203211.73333005]
- [6203141.91762902]
- [6203072.07927869]
- [6203421.46679421]
- [6203320.90721105]
- [6203220.25730427]
- [6204082.96780968]
- [6204047.04598757]
- [6204010.81552753]
- [6204223.50326527]
- [6204440.96248133]
- [      0.        ]]</t>
+          <t>[[1.06243552e+06]
+ [2.30203795e+06]
+ [3.92553453e+06]
+ [6.20342248e+06]
+ [6.20337032e+06]
+ [6.20331783e+06]
+ [6.20327286e+06]
+ [6.20321835e+06]
+ [6.20316187e+06]
+ [6.20317384e+06]
+ [6.20314817e+06]
+ [6.20312152e+06]
+ [6.20313197e+06]
+ [6.20310739e+06]
+ [6.20308738e+06]
+ [6.20309410e+06]
+ [6.20308408e+06]
+ [6.20307407e+06]
+ [6.20348923e+06]
+ [6.20341909e+06]
+ [6.20334890e+06]
+ [6.20356489e+06]
+ [6.20346386e+06]
+ [6.20336271e+06]
+ [6.20381979e+06]
+ [6.20384317e+06]
+ [6.20387526e+06]
+ [6.20396702e+06]
+ [6.20410468e+06]
+ [3.31967076e-09]]</t>
         </is>
       </c>
       <c r="E848" t="inlineStr"/>
@@ -22049,7 +22045,7 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>[12.91161888]</t>
+          <t>[12.]</t>
         </is>
       </c>
       <c r="E853" t="inlineStr"/>
@@ -27187,7 +27183,7 @@
       </c>
       <c r="D1002" t="inlineStr">
         <is>
-          <t>[3958705.18781011]</t>
+          <t>[3068471.48551362]</t>
         </is>
       </c>
       <c r="E1002" t="inlineStr"/>
@@ -27210,7 +27206,7 @@
       </c>
       <c r="D1003" t="inlineStr">
         <is>
-          <t>[1504641.15995228]</t>
+          <t>[1084122.21188047]</t>
         </is>
       </c>
       <c r="E1003" t="inlineStr"/>
@@ -27233,7 +27229,7 @@
       </c>
       <c r="D1004" t="inlineStr">
         <is>
-          <t>[17239739.67725421]</t>
+          <t>[16349505.97495772]</t>
         </is>
       </c>
       <c r="E1004" t="inlineStr"/>
@@ -27256,7 +27252,7 @@
       </c>
       <c r="D1005" t="inlineStr">
         <is>
-          <t>[1149.31597848]</t>
+          <t>[1089.967065]</t>
         </is>
       </c>
       <c r="E1005" t="inlineStr"/>
@@ -27279,7 +27275,7 @@
       </c>
       <c r="D1006" t="inlineStr">
         <is>
-          <t>[2453036.36220594]</t>
+          <t>[2032517.41413412]</t>
         </is>
       </c>
       <c r="E1006" t="inlineStr"/>
@@ -27348,7 +27344,7 @@
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>[3958705.18781011]</t>
+          <t>[3068471.48551362]</t>
         </is>
       </c>
       <c r="E1009" t="inlineStr"/>
@@ -27371,7 +27367,7 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>[3958705.18781011]</t>
+          <t>[3068471.48551362]</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr"/>
@@ -27421,7 +27417,7 @@
       </c>
       <c r="D1012" t="inlineStr">
         <is>
-          <t>[0.32842121]</t>
+          <t>[0.30815896]</t>
         </is>
       </c>
       <c r="E1012" t="inlineStr"/>
@@ -27569,9 +27565,9 @@
       </c>
       <c r="D1017" t="inlineStr">
         <is>
-          <t>[1050.39289116 1210.38582946 1325.57806587 1417.92251632 1526.37603706
- 1617.13258034 1695.94911499 1700.99067951 1701.7246277  1698.74684974
- 1457.94811764 1230.05477913 1007.39469272]</t>
+          <t>[1148.71116563 1328.13546587 1457.99309682 1562.45872905 1685.52442411
+ 1788.79538042 1878.67520451 1768.05191007 1654.64775701 1539.88760941
+ 1359.19878774 1183.1166981  1007.39469272]</t>
         </is>
       </c>
       <c r="E1017" t="inlineStr"/>
@@ -27809,8 +27805,8 @@
       </c>
       <c r="D1027" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711
- 11.03279711 10.82962464 10.62645216 10.42327969  8.94851979  7.4737599
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         11.18674566 10.37349132  9.56023698  8.37315799  7.18607899
   5.999     ]</t>
         </is>
       </c>
@@ -27905,9 +27901,9 @@
       </c>
       <c r="D1031" t="inlineStr">
         <is>
-          <t>[1050.39289116 1210.38582946 1325.57806587 1417.92251632 1526.37603706
- 1617.13258034 1695.94911499 1700.99067951 1701.7246277  1698.74684974
- 1457.94811764 1230.05477913 1007.39469272]</t>
+          <t>[1148.71116563 1328.13546587 1457.99309682 1562.45872905 1685.52442411
+ 1788.79538042 1878.67520451 1768.05191007 1654.64775701 1539.88760941
+ 1359.19878774 1183.1166981  1007.39469272]</t>
         </is>
       </c>
       <c r="E1031" t="inlineStr"/>
@@ -28047,9 +28043,9 @@
       </c>
       <c r="D1037" t="inlineStr">
         <is>
-          <t>[-1050.39289116 -1210.38582946 -1325.57806587 -1417.92251632
- -1526.37603706 -1617.13258034 -1695.94911499 -1700.99067951
- -1701.7246277  -1698.74684974 -1457.94811764 -1230.05477913
+          <t>[-1148.71116563 -1328.13546587 -1457.99309682 -1562.45872905
+ -1685.52442411 -1788.79538042 -1878.67520451 -1768.05191007
+ -1654.64775701 -1539.88760941 -1359.19878774 -1183.1166981
  -1007.39469272]</t>
         </is>
       </c>
@@ -28098,7 +28094,7 @@
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 10.42327969  5.999     ]</t>
+          <t>[12.         12.         12.          9.56023698  5.999     ]</t>
         </is>
       </c>
       <c r="E1039" t="inlineStr"/>
@@ -28121,7 +28117,7 @@
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>[0.07942713 0.03729566 0.01268313 0.0114042 ]</t>
+          <t>[0.04       0.02774562 0.01524562 0.015     ]</t>
         </is>
       </c>
       <c r="E1040" t="inlineStr"/>
@@ -28186,7 +28182,7 @@
       </c>
       <c r="D1043" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 10.42327969  5.999     ]</t>
+          <t>[12.         12.         12.          9.56023698  5.999     ]</t>
         </is>
       </c>
       <c r="E1043" t="inlineStr"/>
@@ -28209,7 +28205,7 @@
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t>[0.07942713 0.03729566 0.01268313 0.0114042 ]</t>
+          <t>[0.04       0.02774562 0.01524562 0.015     ]</t>
         </is>
       </c>
       <c r="E1044" t="inlineStr"/>
@@ -28445,8 +28441,8 @@
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>[0.07942713 0.07942713 0.07942713 0.03729566 0.03729566 0.03729566
- 0.01268313 0.01268313 0.01268313 0.0114042  0.0114042  0.0114042 ]</t>
+          <t>[0.04       0.04       0.04       0.02774562 0.02774562 0.02774562
+ 0.01524562 0.01524562 0.01524562 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E1054" t="inlineStr"/>
@@ -28629,8 +28625,8 @@
       </c>
       <c r="D1062" t="inlineStr">
         <is>
-          <t>[2.92449099 2.92449099 2.92449099 1.37850083 1.37850083 1.37850083
- 0.46550464 0.45684251 0.44818038 0.37087427 0.31433897 0.25780367]</t>
+          <t>[1.60814358 1.60814358 1.60814358 1.11661658 1.11661658 1.11661658
+ 0.59335848 0.55168064 0.5100028  0.45136752 0.39151196 0.33165639]</t>
         </is>
       </c>
       <c r="E1062" t="inlineStr"/>
@@ -28653,8 +28649,8 @@
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>[1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E1063" t="inlineStr"/>
@@ -28677,8 +28673,8 @@
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>[1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E1064" t="inlineStr"/>
@@ -28701,8 +28697,8 @@
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>[43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E1065" t="inlineStr"/>
@@ -28725,8 +28721,8 @@
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>[43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E1066" t="inlineStr"/>
@@ -28749,8 +28745,8 @@
       </c>
       <c r="D1067" t="inlineStr">
         <is>
-          <t>[87.72202461 87.72202461 87.72202461 41.66602941 41.66602941 41.66602941
- 13.87371518 13.11354997 12.38167179  8.67808658  5.28370768  2.91482043]</t>
+          <t>[57.50850094 57.50850094 57.50850094 40.0127394  40.0127394  40.0127394
+ 19.88540996 15.98256326 12.62702454  9.04237114  5.90101752  3.58721635]</t>
         </is>
       </c>
       <c r="E1067" t="inlineStr"/>
@@ -28844,17 +28840,17 @@
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>[[-19200884.56658714]
- [-16588496.29511826]
- [-13974914.98100317]
- [-12201428.29302493]
- [-10426305.63728906]
- [ -8649790.40250703]
- [ -8278619.28923894]
- [ -7914015.03375374]
- [ -7556017.14997785]
- [ -7277943.37059999]
- [ -7042201.05474167]
+          <t>[[-16255836.67088758]
+ [-14811314.84752207]
+ [-13365445.9962467 ]
+ [-11921794.54946671]
+ [-10476284.36510738]
+ [ -9029187.97380585]
+ [ -8559438.76846769]
+ [ -8122526.72482949]
+ [ -7718472.25223763]
+ [ -7384381.78730863]
+ [ -7094467.58694298]
  [ -6848706.78611806]]</t>
         </is>
       </c>
@@ -28878,18 +28874,18 @@
       </c>
       <c r="D1072" t="inlineStr">
         <is>
-          <t>[[2938088.71945346]
- [2938743.75768961]
- [2939340.00657367]
- [2939546.96487083]
- [2940470.38693755]
- [2941220.37770496]
- [2938630.47894641]
- [2938792.5914129 ]
- [2938916.75756008]
- [2938747.23819505]
- [2938665.17190088]
- [2938534.07530458]]</t>
+          <t>[[2938035.03288327]
+ [2938589.0370327 ]
+ [2939093.84671089]
+ [2939780.45865182]
+ [2940566.49114502]
+ [2941205.26651194]
+ [2939036.14820727]
+ [2939106.96086187]
+ [2939149.06558093]
+ [2939012.90644397]
+ [2938925.8195683 ]
+ [2938783.37385564]]</t>
         </is>
       </c>
       <c r="E1072" t="inlineStr"/>
@@ -28912,18 +28908,18 @@
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>[[8739.92153723]
- [8743.15713582]
- [8746.21838116]
- [8747.54814923]
- [8752.92207028]
- [8757.77842956]
- [8743.57578164]
- [8745.00419577]
- [8746.33829596]
- [8745.77147501]
- [8746.06062194]
- [8746.51191761]]</t>
+          <t>[[8739.66161522]
+ [8742.39710793]
+ [8744.98755512]
+ [8748.68143431]
+ [8753.25132685]
+ [8757.38187016]
+ [8745.76142884]
+ [8746.62178933]
+ [8747.47257685]
+ [8747.31080229]
+ [8747.73509848]
+ [8748.27082173]]</t>
         </is>
       </c>
       <c r="E1073" t="inlineStr"/>
@@ -28946,18 +28942,18 @@
       </c>
       <c r="D1074" t="inlineStr">
         <is>
-          <t>[[-1870292.33928048]
- [-1767960.13418595]
- [-1665293.05360305]
- [-1517873.7814143 ]
- [-1369536.79432359]
- [-1220746.19935835]
- [-1131247.62555041]
- [-1041173.16850882]
- [ -950593.5712912 ]
- [ -865574.23787668]
- [ -779868.28104305]
- [ -693050.77993561]]</t>
+          <t>[[-1873917.02643752]
+ [-1771330.38020754]
+ [-1668226.77643573]
+ [-1520029.1733912 ]
+ [-1370929.15949923]
+ [-1221341.77166423]
+ [-1131448.96080266]
+ [-1041169.43216824]
+ [ -950463.73893231]
+ [ -865357.00074737]
+ [ -779648.49535753]
+ [ -693050.83436847]]</t>
         </is>
       </c>
       <c r="E1074" t="inlineStr"/>
@@ -28980,18 +28976,18 @@
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>[[ 3.78628563e+08]
- [ 3.44335928e+08]
- [ 3.09979413e+08]
- [ 2.60762866e+08]
- [ 2.11395879e+08]
- [ 1.61974760e+08]
- [ 1.32305619e+08]
- [ 1.02574888e+08]
- [ 7.28024318e+07]
- [ 4.49877574e+07]
- [ 1.71492280e+07]
- [-1.06981123e+07]]</t>
+          <t>[[ 3.79497804e+08]
+ [ 3.45152124e+08]
+ [ 3.10706891e+08]
+ [ 2.61334571e+08]
+ [ 2.11815583e+08]
+ [ 1.62238610e+08]
+ [ 1.32489148e+08]
+ [ 1.02703008e+08]
+ [ 7.28858660e+07]
+ [ 4.50351112e+07]
+ [ 1.71684951e+07]
+ [-1.06981122e+07]]</t>
         </is>
       </c>
       <c r="E1075" t="inlineStr"/>
@@ -29014,18 +29010,18 @@
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t>[[6203211.82535237]
- [6203141.98542791]
- [6203072.10476045]
- [6203421.45314834]
- [6203320.79997881]
- [6203220.05723166]
- [6204082.14106868]
- [6204046.13280307]
- [6204009.87973581]
- [6204222.37466996]
- [6204439.90993631]
- [6204765.7334559 ]]</t>
+          <t>[[6203489.35084322]
+ [6203419.15965161]
+ [6203348.88355277]
+ [6203564.77381977]
+ [6203463.61939681]
+ [6203362.33804012]
+ [6203818.87108396]
+ [6203842.19816935]
+ [6203874.37607398]
+ [6203966.22244155]
+ [6204104.02540711]
+ [6204302.00193764]]</t>
         </is>
       </c>
       <c r="E1076" t="inlineStr"/>
@@ -29319,18 +29315,18 @@
       </c>
       <c r="D1087" t="inlineStr">
         <is>
-          <t>[[-1050.39289116]
- [-1210.38582946]
- [-1325.57806587]
- [-1417.92251632]
- [-1526.37603706]
- [-1617.13258034]
- [-1695.94911499]
- [-1700.99067951]
- [-1701.7246277 ]
- [-1698.74684974]
- [-1457.94811764]
- [-1230.05477913]
+          <t>[[-1148.71116563]
+ [-1328.13546587]
+ [-1457.99309682]
+ [-1562.45872905]
+ [-1685.52442411]
+ [-1788.79538042]
+ [-1878.67520451]
+ [-1768.05191007]
+ [-1654.64775701]
+ [-1539.88760941]
+ [-1359.19878774]
+ [-1183.1166981 ]
  [-1007.39469272]]</t>
         </is>
       </c>
@@ -29354,7 +29350,7 @@
       </c>
       <c r="D1088" t="inlineStr">
         <is>
-          <t>[1504641.15995228]</t>
+          <t>[1084122.21188047]</t>
         </is>
       </c>
       <c r="E1088" t="inlineStr"/>
@@ -29377,7 +29373,7 @@
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t>[43.24877531]</t>
+          <t>[52.63352884]</t>
         </is>
       </c>
       <c r="E1089" t="inlineStr"/>
@@ -29400,7 +29396,7 @@
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>[4.53174235e+09 4.53174235e+09 4.43033177e+07 0.00000000e+00
+          <t>[4.48488792e+09 4.48488792e+09 3.62825958e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -30535,7 +30531,7 @@
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>[0.08921794]</t>
+          <t>[0.08951033]</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr">
@@ -30612,7 +30608,7 @@
       </c>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>[-219.11361532]</t>
+          <t>[-220.41533122]</t>
         </is>
       </c>
       <c r="E1125" t="inlineStr">
@@ -30639,7 +30635,7 @@
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>[-0.04921794]</t>
+          <t>[-0.04951033]</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr">
@@ -30666,7 +30662,7 @@
       </c>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>[0.12021794]</t>
+          <t>[0.12051033]</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr">
@@ -30689,7 +30685,7 @@
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>[0.44834034]</t>
+          <t>[0.44687579]</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr">
@@ -30712,7 +30708,7 @@
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>[2.23044841]</t>
+          <t>[2.23775829]</t>
         </is>
       </c>
       <c r="E1129" t="inlineStr">
@@ -30735,7 +30731,7 @@
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>[-0.55165966]</t>
+          <t>[-0.55312421]</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
@@ -30758,7 +30754,7 @@
       <c r="C1131" t="inlineStr"/>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>[-1.23044841]</t>
+          <t>[-1.23775829]</t>
         </is>
       </c>
       <c r="E1131" t="inlineStr">
@@ -30785,7 +30781,7 @@
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>[0.15836184]</t>
+          <t>[0.15888084]</t>
         </is>
       </c>
       <c r="E1132" t="inlineStr">
@@ -30812,7 +30808,7 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>[7.79908773e+08]</t>
+          <t>[8.29465077e+08]</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
@@ -30839,7 +30835,7 @@
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>[2.09815877e+09]</t>
+          <t>[2.14771508e+09]</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr">
@@ -30866,7 +30862,7 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>[3496.93128798]</t>
+          <t>[3579.52512827]</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr">
@@ -33846,8 +33842,8 @@
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>[20183054.4501616  29311051.53610573 17956081.90455442        0.
- 12072774.27973052   170465.68251562]</t>
+          <t>[ 2.01830545e+07  2.93110515e+07  1.79560819e+07 -5.82076609e-11
+  1.20727743e+07  1.70465683e+05]</t>
         </is>
       </c>
       <c r="E1268" t="inlineStr"/>
@@ -34058,17 +34054,17 @@
       </c>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>[[15133044.79996401]
- [16443738.54062174]
- [17924691.70558137]
- [19671378.0359428 ]
- [21791946.31879951]
- [24413177.24006073]
- [27672106.78274571]
- [31652878.78418845]
- [36152722.59578996]
+          <t>[[15133044.79996403]
+ [16443738.54062173]
+ [17924691.7055814 ]
+ [19671378.03594278]
+ [21791946.31879954]
+ [24413177.24006078]
+ [27672106.78274573]
+ [31652878.78418851]
+ [36152722.59578992]
  [40141585.61140601]
- [41684736.58128897]
+ [41684736.58128898]
  [22562408.18779118]
  [22934263.02721984]
  [ 8414811.21324994]
@@ -34095,17 +34091,17 @@
       </c>
       <c r="D1278" t="inlineStr">
         <is>
-          <t>[[ 9411266.71327286]
+          <t>[[ 9411266.71327287]
  [ 7187031.32300797]
- [ 4891520.49578787]
+ [ 4891520.49578788]
  [ 2868457.9925917 ]
- [ 6303590.58501307]
- [10596799.6570123 ]
+ [ 6303590.58501308]
+ [10596799.65701233]
  [16116353.4184942 ]
- [23283333.17630203]
- [32322905.05704065]
+ [23283333.17630208]
+ [32322905.05704056]
  [42382227.91307   ]
- [50055577.43174936]
+ [50055577.43174925]
  [26439553.38080154]
  [15050532.29385312]
  [14286544.01424126]
@@ -34132,15 +34128,15 @@
       </c>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>[[ 5921121.08569219]
+          <t>[[ 5921121.08569216]
  [ 6701289.26775222]
  [ 7650305.27620352]
- [ 8816020.68033227]
- [10259964.77622665]
- [12083055.86120681]
- [14454793.3596514 ]
- [17625087.80521488]
- [21778513.06784954]
+ [ 8816020.68033213]
+ [10259964.77622651]
+ [12083055.86120621]
+ [14454793.35965358]
+ [17625087.80522383]
+ [21778513.06785512]
  [26361160.0461743 ]
  [29565352.31016183]
  [       0.        ]
@@ -34423,11 +34419,11 @@
       </c>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          17734.54919991
-  19037.5338827   23149.01700337  30727.62810066  42699.80635211
-  61065.38653636  88807.23626633  99214.95112891 111034.61275205
- 124542.43715559    777.10164601    906.89706306    988.0864902
-   1014.05822739   1035.34876847   1052.87419939]</t>
+          <t>[     0.              0.              0.          15323.38852087
+  16450.58580019  20006.18431181  26563.4182924   37201.47746339
+  53640.36964699  78643.669866    92005.852428   107912.48247064
+ 126971.18758834    794.61388077    939.92646878   1038.43875671
+   1078.88882725   1115.3698522    1148.71116563]</t>
         </is>
       </c>
       <c r="E1291" t="inlineStr"/>
@@ -34677,10 +34673,10 @@
       </c>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          17734.54919991
-  19037.5338827   23149.01700337  30727.62810066  42699.80635211
-  61065.38653636  88807.23626633  99214.95112891 111034.61275205
- 124542.43715559      0.              0.              0.
+          <t>[     0.              0.              0.          15323.38852087
+  16450.58580019  20006.18431181  26563.4182924   37201.47746339
+  53640.36964699  78643.669866    92005.852428   107912.48247064
+ 126971.18758834      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -34880,8 +34876,8 @@
         <is>
           <t>[   0.            0.            0.            0.            0.
     0.            0.            0.            0.            0.
-    0.            0.            0.          777.10164601  906.89706306
-  988.0864902  1014.05822739 1035.34876847 1052.87419939]</t>
+    0.            0.            0.          794.61388077  939.92646878
+ 1038.43875671 1078.88882725 1115.3698522  1148.71116563]</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr"/>
@@ -35071,11 +35067,11 @@
       </c>
       <c r="D1317" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -17734.54919991
-  -19037.5338827   -23149.01700337  -30727.62810066  -42699.80635211
-  -61065.38653636  -88807.23626633  -99214.95112891 -111034.61275205
- -124542.43715559    -777.10164601    -906.89706306    -988.0864902
-   -1014.05822739   -1035.34876847   -1052.87419939]</t>
+          <t>[      0.               0.               0.          -15323.38852087
+  -16450.58580019  -20006.18431181  -26563.4182924   -37201.47746339
+  -53640.36964699  -78643.669866    -92005.852428   -107912.48247064
+ -126971.18758834    -794.61388077    -939.92646878   -1038.43875671
+   -1078.88882725   -1115.3698522    -1148.71116563]</t>
         </is>
       </c>
       <c r="E1317" t="inlineStr"/>
@@ -35121,8 +35117,8 @@
       <c r="C1319" t="inlineStr"/>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>[167.68336204 167.68336204 166.77766618 160.08389224 151.46339818
- 146.11919973]</t>
+          <t>[139.83381023 106.84126383 108.23866656 124.71175674 135.05031553
+ 143.33748074]</t>
         </is>
       </c>
       <c r="E1319" t="inlineStr"/>
@@ -35141,7 +35137,7 @@
       <c r="C1320" t="inlineStr"/>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>[1.         1.         0.98919755 0.93021029 0.9632859  0.96620109]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E1320" t="inlineStr"/>
@@ -35160,7 +35156,7 @@
       <c r="C1321" t="inlineStr"/>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>[1.         1.         0.98919755 0.93021029 0.9632859  0.96620109]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E1321" t="inlineStr"/>
@@ -35179,7 +35175,7 @@
       <c r="C1322" t="inlineStr"/>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1.]</t>
+          <t>[1.30879966 0.98708962 0.86791069 0.92344662 0.94218424]</t>
         </is>
       </c>
       <c r="E1322" t="inlineStr"/>
@@ -35223,10 +35219,7 @@
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>[6.45580944 6.45580944 6.45580944 6.45580944 6.45580944 6.45580944
- 6.45580944 6.43256324 6.40931705 6.38607086 6.23751019 6.08894952
- 5.94038885 5.86769017 5.79499149 5.72229281 5.65782373 5.59335465
- 5.52888557]</t>
+          <t>[6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6.]</t>
         </is>
       </c>
       <c r="E1324" t="inlineStr"/>
@@ -35249,7 +35242,7 @@
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>[  0.          0.        -45.4901346]</t>
+          <t>[  0.   0. -45.]</t>
         </is>
       </c>
       <c r="E1325" t="inlineStr"/>
@@ -35272,7 +35265,7 @@
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>[11633.32590231]</t>
+          <t>[10178.76019763]</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr"/>
@@ -35295,7 +35288,7 @@
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>[1.16932239e+08]</t>
+          <t>[1.02311689e+08]</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr"/>
@@ -35337,7 +35330,7 @@
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>[110.86121156]</t>
+          <t>[113.09733553]</t>
         </is>
       </c>
       <c r="E1329" t="inlineStr"/>
@@ -35360,7 +35353,7 @@
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>[978.02369556]</t>
+          <t>[1017.87601976]</t>
         </is>
       </c>
       <c r="E1330" t="inlineStr"/>
@@ -35383,7 +35376,7 @@
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>[978.02369556]</t>
+          <t>[1017.87601976]</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr"/>
@@ -35406,8 +35399,8 @@
       </c>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>[1.19241590e+07 1.19241590e+07 3.67717848e+05 7.92147690e+09
- 7.92147690e+09 0.00000000e+00]</t>
+          <t>[1.04332292e+07 1.04332292e+07 2.95200000e+05 7.04278538e+09
+ 7.04278538e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E1332" t="inlineStr"/>
@@ -35479,10 +35472,8 @@
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.91161888 12.91161888 12.91161888
- 12.91161888 12.86512649 12.8186341  12.77214171 12.47502037 12.17789903
- 11.88077769 11.73538034 11.58998298 11.44458563 11.31564746 11.1867093
- 11.05777113]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12.
+ 12.]</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr"/>
@@ -35736,8 +35727,8 @@
       </c>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>[25912.06086472 25912.06086472 25771.26429095 24730.67166287
- 23390.55730362 22559.76535385]</t>
+          <t>[26807.82654494 35008.03454417 34560.28248872 30032.18464168
+ 27750.28062811 26157.1537854 ]</t>
         </is>
       </c>
       <c r="E1346" t="inlineStr">
@@ -35764,8 +35755,8 @@
       </c>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>[533572.64109777 533572.64109779 524922.31232597 463870.710607
- 392475.85811185 352124.63742444]</t>
+          <t>[475688.59994995 618459.12412061 610696.59012598 531979.5779036
+ 492162.50804015 464305.08697723]</t>
         </is>
       </c>
       <c r="E1347" t="inlineStr">
@@ -35792,8 +35783,8 @@
       </c>
       <c r="D1348" t="inlineStr">
         <is>
-          <t>[533572.64109777 533572.64109779 524922.31232597 463870.710607
- 392475.85811185 352124.63742444]</t>
+          <t>[475688.59994995 618459.12412061 610696.59012598 531979.5779036
+ 492162.50804015 464305.08697723]</t>
         </is>
       </c>
       <c r="E1348" t="inlineStr">
@@ -35820,8 +35811,8 @@
       </c>
       <c r="D1349" t="inlineStr">
         <is>
-          <t>[1.27863082e+13 1.27863082e+13 1.25790154e+13 1.11160007e+13
- 9.40512480e+12 8.43816529e+12]</t>
+          <t>[1.13991996e+13 1.48204918e+13 1.46344738e+13 1.27481327e+13
+ 1.17939734e+13 1.11264099e+13]</t>
         </is>
       </c>
       <c r="E1349" t="inlineStr">
@@ -35848,8 +35839,8 @@
       </c>
       <c r="D1350" t="inlineStr">
         <is>
-          <t>[1.27863082e+13 1.27863082e+13 1.25790154e+13 1.11160007e+13
- 9.40512480e+12 8.43816529e+12]</t>
+          <t>[1.13991996e+13 1.48204918e+13 1.46344738e+13 1.27481327e+13
+ 1.17939734e+13 1.11264099e+13]</t>
         </is>
       </c>
       <c r="E1350" t="inlineStr">
@@ -35876,8 +35867,8 @@
       </c>
       <c r="D1351" t="inlineStr">
         <is>
-          <t>[1.01395424e+13 1.01395424e+13 9.97515921e+12 8.81498858e+12
- 7.45826397e+12 6.69146507e+12]</t>
+          <t>[9.03956529e+12 1.17526500e+13 1.16051377e+13 1.01092692e+13
+ 9.35262087e+12 8.82324309e+12]</t>
         </is>
       </c>
       <c r="E1351" t="inlineStr">
@@ -35904,8 +35895,8 @@
       </c>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>[6.20945623e+11 6.20945623e+11 6.17571634e+11 5.92635314e+11
- 5.60521383e+11 5.40612637e+11]</t>
+          <t>[6.42411372e+11 8.38917674e+11 8.28187934e+11 7.19678520e+11
+ 6.64995941e+11 6.26818926e+11]</t>
         </is>
       </c>
       <c r="E1352" t="inlineStr">
@@ -36013,12 +36004,12 @@
       </c>
       <c r="D1356" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.32208939 0.10098004 0.10098004 0.        ]
- [0.         0.         0.32208939 0.10098004 0.10098004 0.        ]
- [0.         0.         0.32384907 0.10208971 0.10208971 0.        ]
- [0.         0.         0.33747567 0.11088934 0.11088934 0.        ]
- [0.         0.         0.35681065 0.12400348 0.12400348 0.        ]
- [0.         0.         0.36995066 0.13333679 0.13333679 0.        ]]</t>
+          <t>[[0.         0.         0.31132699 0.10527055 0.10527055 0.        ]
+ [0.         0.         0.23840242 0.08096897 0.08096897 0.        ]
+ [0.         0.         0.24149108 0.08199817 0.08199817 0.        ]
+ [0.         0.         0.27790186 0.09413143 0.09413143 0.        ]
+ [0.         0.         0.30075372 0.10174688 0.10174688 0.        ]
+ [0.         0.         0.31907141 0.1078515  0.1078515  0.        ]]</t>
         </is>
       </c>
       <c r="E1356" t="inlineStr"/>
@@ -36041,12 +36032,12 @@
       </c>
       <c r="D1357" t="inlineStr">
         <is>
-          <t>[[0.52903825 0.52903825 0.         0.         0.         0.05049002]
- [0.52903825 0.52903825 0.         0.         0.         0.05049002]
- [0.53192062 0.53192062 0.         0.         0.         0.05104485]
- [0.55423814 0.55423814 0.         0.         0.         0.05544467]
- [0.58589573 0.58589573 0.         0.         0.         0.06200174]
- [0.60740407 0.60740407 0.         0.         0.         0.06666839]]</t>
+          <t>[[0.51107963 0.51107963 0.         0.         0.         0.05263527]
+ [0.39095964 0.39095964 0.         0.         0.         0.04048449]
+ [0.39604747 0.39604747 0.         0.         0.         0.04099908]
+ [0.45602362 0.45602362 0.         0.         0.         0.04706572]
+ [0.4936641  0.4936641  0.         0.         0.         0.05087344]
+ [0.52383558 0.52383558 0.         0.         0.         0.05392575]]</t>
         </is>
       </c>
       <c r="E1357" t="inlineStr"/>
@@ -36069,7 +36060,7 @@
       </c>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>[1299.90820532]</t>
+          <t>[1380.32352866]</t>
         </is>
       </c>
       <c r="E1358" t="inlineStr"/>
@@ -36092,7 +36083,7 @@
       </c>
       <c r="D1359" t="inlineStr">
         <is>
-          <t>[6463886.28323875]</t>
+          <t>[7724393.8875664]</t>
         </is>
       </c>
       <c r="E1359" t="inlineStr"/>
@@ -36115,7 +36106,7 @@
       </c>
       <c r="D1360" t="inlineStr">
         <is>
-          <t>[2663456.07126732]</t>
+          <t>[3252053.14379521]</t>
         </is>
       </c>
       <c r="E1360" t="inlineStr"/>
@@ -36138,7 +36129,7 @@
       </c>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>[51.6045125]</t>
+          <t>[53.15894069]</t>
         </is>
       </c>
       <c r="E1361" t="inlineStr"/>
@@ -36161,7 +36152,7 @@
       </c>
       <c r="D1362" t="inlineStr">
         <is>
-          <t>[9.53977558e+09 9.53977558e+09 1.05604184e+08 0.00000000e+00
+          <t>[1.19603242e+10 1.19603242e+10 1.15124994e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36185,9 +36176,7 @@
       </c>
       <c r="D1363" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.91161888 12.91161888 12.91161888
- 12.88837268 12.8418803  12.79538791 12.62358104 12.3264597  12.02933836
- 11.80807901 11.66268166 11.51728431 11.38011655 11.25117838 11.12224021]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E1363" t="inlineStr"/>
@@ -36210,8 +36199,9 @@
       </c>
       <c r="D1364" t="inlineStr">
         <is>
-          <t>[0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239
- 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239]</t>
+          <t>[0.09182329 0.09182329 0.09182329 0.12017829 0.12017829 0.12017829
+ 0.11862674 0.11862674 0.11862674 0.10295741 0.10295741 0.10295741
+ 0.09507568 0.09507568 0.09507568 0.0895788  0.0895788  0.0895788 ]</t>
         </is>
       </c>
       <c r="E1364" t="inlineStr"/>
@@ -36259,7 +36249,7 @@
       </c>
       <c r="D1366" t="inlineStr">
         <is>
-          <t>[2763456.07126732]</t>
+          <t>[3352053.14379521]</t>
         </is>
       </c>
       <c r="E1366" t="inlineStr"/>
@@ -36282,7 +36272,7 @@
       </c>
       <c r="D1367" t="inlineStr">
         <is>
-          <t>[6963886.28323875]</t>
+          <t>[8224393.8875664]</t>
         </is>
       </c>
       <c r="E1367" t="inlineStr"/>
@@ -36305,7 +36295,7 @@
       </c>
       <c r="D1368" t="inlineStr">
         <is>
-          <t>[53.53671211]</t>
+          <t>[54.70548716]</t>
         </is>
       </c>
       <c r="E1368" t="inlineStr"/>
@@ -36328,7 +36318,7 @@
       </c>
       <c r="D1369" t="inlineStr">
         <is>
-          <t>[1.06438040e+10 1.06438040e+10 1.08661042e+08 0.00000000e+00
+          <t>[1.30646242e+10 1.30646242e+10 1.18724994e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36352,7 +36342,7 @@
       </c>
       <c r="D1370" t="inlineStr">
         <is>
-          <t>[4268097.2312196]</t>
+          <t>[4436175.35567568]</t>
         </is>
       </c>
       <c r="E1370" t="inlineStr"/>
@@ -36375,7 +36365,7 @@
       </c>
       <c r="D1371" t="inlineStr">
         <is>
-          <t>[10922591.47104886]</t>
+          <t>[11292865.37308002]</t>
         </is>
       </c>
       <c r="E1371" t="inlineStr"/>
@@ -36425,7 +36415,7 @@
       </c>
       <c r="D1373" t="inlineStr">
         <is>
-          <t>[0.23108586]</t>
+          <t>[0.23164349]</t>
         </is>
       </c>
       <c r="E1373" t="inlineStr"/>
@@ -36448,7 +36438,7 @@
       </c>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>[0.23213331]</t>
+          <t>[0.2327064]</t>
         </is>
       </c>
       <c r="E1374" t="inlineStr"/>
@@ -36471,7 +36461,7 @@
       </c>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>[0.23108586 0.23213331 0.89701883 0.95709265 0.99967561 1.6754272 ]</t>
+          <t>[0.23164349 0.2327064  0.97991474 1.02670483 1.05119663 1.73257517]</t>
         </is>
       </c>
       <c r="E1375" t="inlineStr"/>
@@ -36494,7 +36484,7 @@
       </c>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>[0.23213331 0.95709265 1.8563626 ]</t>
+          <t>[0.2327064  1.05119663 1.9039901 ]</t>
         </is>
       </c>
       <c r="E1376" t="inlineStr"/>
@@ -36517,7 +36507,7 @@
       </c>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>[0.23108586 0.89701883 1.6754272 ]</t>
+          <t>[0.23164349 0.97991474 1.73257517]</t>
         </is>
       </c>
       <c r="E1377" t="inlineStr"/>
@@ -36540,7 +36530,7 @@
       </c>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>[4.2769315 0.        0.       ]</t>
+          <t>[4.34142321 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1378" t="inlineStr"/>
@@ -36559,9 +36549,9 @@
       <c r="C1379" t="inlineStr"/>
       <c r="D1379" t="inlineStr">
         <is>
-          <t>[[  0.95588415   0.71337875  -2.89699511   3.81967768  -1.59194548]
- [ -3.11877979   1.01936994   7.03036193  -6.87709944   2.94614737]
- [ -8.07582177  10.83210919   9.67189618  10.70192781 -22.1301114 ]]</t>
+          <t>[[ 0.8741875  -0.21933553  0.57160021  0.02740957 -0.25386176]
+ [-3.16548495  1.34195253  7.81095197 -8.80791187  3.82049232]
+ [-6.95713019  9.05260313 15.96738344 -7.12229314 -9.94056325]]</t>
         </is>
       </c>
       <c r="E1379" t="inlineStr"/>
@@ -36580,9 +36570,9 @@
       <c r="C1380" t="inlineStr"/>
       <c r="D1380" t="inlineStr">
         <is>
-          <t>[[  0.94867548   0.70927012  -2.86300746   3.76436213  -1.55930027]
- [ -3.12125892   0.71145264   7.99661917  -9.07464937   4.48783648]
- [ -6.12316539   7.59236312   4.07200834  13.20354483 -17.7447509 ]]</t>
+          <t>[[  0.86795781  -0.22048754   0.59362434  -0.01379542  -0.22729919]
+ [ -3.14622545   1.05090588   8.45810599 -10.63814371   5.27535729]
+ [ -5.59392798   6.61994501  10.02574626  -1.08359541  -8.96816787]]</t>
         </is>
       </c>
       <c r="E1380" t="inlineStr"/>
@@ -36601,9 +36591,9 @@
       <c r="C1381" t="inlineStr"/>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>[[ -0.46047174   6.55146136 -32.58651558  51.62348148 -24.12795552]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[-1.87349571  6.46572878 -9.23063277 10.57847481 -4.94007511]
+ [ 0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
       </c>
       <c r="E1381" t="inlineStr"/>
@@ -36622,9 +36612,12 @@
       <c r="C1382" t="inlineStr"/>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>[[  0.58334271   1.95393295  -4.85748913   5.65657098  -2.33635752]
- [ -0.08455237   2.99307692  -6.77421144   8.06176072  -3.19607383]
- [  4.72556071  -5.69381982  20.99691355 -23.35993979   4.33128534]]</t>
+          <t>[[ 9.31878217e-01  1.47361383e+00 -4.31916302e+00  4.75376550e+00
+  -1.84009453e+00]
+ [-1.15989087e-02  3.14574127e+00 -6.75559903e+00  7.25311309e+00
+  -2.63165642e+00]
+ [ 5.27192423e+00 -6.53875925e+00  1.55226922e+01 -1.63591867e+01
+   3.10332958e+00]]</t>
         </is>
       </c>
       <c r="E1382" t="inlineStr"/>
@@ -36643,9 +36636,9 @@
       <c r="C1383" t="inlineStr"/>
       <c r="D1383" t="inlineStr">
         <is>
-          <t>[[ 0.57255457  1.97276496 -4.9030085   5.70276601 -2.34507704]
- [-0.16216814  3.14511405 -7.23392351  8.48764086 -3.23666327]
- [ 2.36075828 -1.5537503   7.63717068 -7.47367738  0.02949872]]</t>
+          <t>[[ 0.9200493   1.49536836 -4.35983481  4.79115384 -1.84673669]
+ [-0.13949118  3.38953827 -7.32008535  7.76217271 -2.69213445]
+ [ 2.8948074  -2.25486253  5.7827493  -5.55675802  0.13406385]]</t>
         </is>
       </c>
       <c r="E1383" t="inlineStr"/>
@@ -36664,9 +36657,9 @@
       <c r="C1384" t="inlineStr"/>
       <c r="D1384" t="inlineStr">
         <is>
-          <t>[[ -3.42266995  27.56593106 -75.52872352  90.15006712 -37.76460471]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[  -5.98956548   47.19407974 -128.39887812  149.60096607  -61.40660221]
+ [   0.            0.            0.            0.            0.        ]
+ [   0.            0.            0.            0.            0.        ]]</t>
         </is>
       </c>
       <c r="E1384" t="inlineStr"/>
@@ -36689,37 +36682,37 @@
       </c>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>[[2.30303142e-04]
- [3.78211766e-04]
- [5.56701148e-05]
- [3.09314100e-03]
- [9.43092864e-03]
- [1.87690335e-02]
- [3.09810792e-02]
- [4.59478954e-02]
- [6.35636851e-02]
- [8.37272182e-02]
- [9.24893133e-02]
- [1.01663979e-01]
- [1.11272572e-01]
- [1.21333153e-01]
- [1.31855886e-01]
- [1.42847180e-01]
- [1.48520506e-01]
- [1.54315384e-01]
- [1.60234517e-01]
- [2.04819263e-01]
- [2.54866648e-01]
- [3.09837149e-01]
- [4.00922469e-01]
- [5.07544911e-01]
- [6.26398111e-01]
- [7.06135200e-01]
- [7.93613858e-01]
- [8.86954243e-01]
- [9.78213622e-01]
- [1.07174918e+00]
- [1.16320130e+00]]</t>
+          <t>[[2.49435163e-04]
+ [4.18130607e-04]
+ [7.24792748e-05]
+ [3.50498706e-03]
+ [1.01355820e-02]
+ [1.93507666e-02]
+ [3.10415281e-02]
+ [4.51149608e-02]
+ [6.14738038e-02]
+ [8.00069764e-02]
+ [8.80359401e-02]
+ [9.64357062e-02]
+ [1.05198114e-01]
+ [1.14333986e-01]
+ [1.23844223e-01]
+ [1.33720029e-01]
+ [1.38796826e-01]
+ [1.43966999e-01]
+ [1.49229381e-01]
+ [1.90906637e-01]
+ [2.40918812e-01]
+ [2.98446333e-01]
+ [3.95156539e-01]
+ [5.08063362e-01]
+ [6.33720497e-01]
+ [7.15898315e-01]
+ [8.03988628e-01]
+ [8.97384838e-01]
+ [9.88455264e-01]
+ [1.08159076e+00]
+ [1.17304445e+00]]</t>
         </is>
       </c>
       <c r="E1385" t="inlineStr"/>
@@ -36742,7 +36735,7 @@
       </c>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>[1.1632013]</t>
+          <t>[1.17304445]</t>
         </is>
       </c>
       <c r="E1386" t="inlineStr"/>
@@ -36765,24 +36758,24 @@
       </c>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>[[-49615064.1406835 ]
- [-47074042.04435225]
- [-44445233.93470439]
- [-42176030.68271604]
- [-39884492.74713404]
- [-37544733.15871998]
- [-35128161.79161146]
- [-32594117.81773811]
- [-29877551.11655378]
- [-28739315.9119685 ]
- [-27584013.72958774]
- [-26406529.45285802]
- [-25425571.78850358]
- [-24658208.1543592 ]
- [-23900091.72284073]
- [-23525471.23734758]
- [-23155066.30946707]
- [-22788883.90738817]]</t>
+          <t>[[-50892720.15489136]
+ [-48263856.32779001]
+ [-45559141.72968551]
+ [-42567237.95239984]
+ [-39556017.64606138]
+ [-36503081.90759405]
+ [-33415805.45342501]
+ [-30216836.58372872]
+ [-26846918.62614182]
+ [-25583661.9211571 ]
+ [-24272111.67624529]
+ [-22902868.64076083]
+ [-21784960.37287499]
+ [-20875003.68825125]
+ [-19964644.69246417]
+ [-19535388.4309229 ]
+ [-19106068.70118142]
+ [-18676691.36807182]]</t>
         </is>
       </c>
       <c r="E1387" t="inlineStr"/>
@@ -36805,24 +36798,24 @@
       </c>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>[[ -5352484.42729612]
- [-11788124.56823869]
- [-11187022.94009279]
- [  2938575.4342779 ]
- [  2938994.38119643]
- [  2939421.08556151]
- [  2939870.80542292]
- [  2940369.06541219]
- [  2940960.93749461]
- [  2939205.23302106]
- [  2939298.44795733]
- [  2939404.69977469]
- [  2939297.77281438]
- [  2938923.75395819]
- [  2938962.48761233]
- [  2938350.23180464]
- [  2938356.56720662]
- [  2938362.87905392]]</t>
+          <t>[[ -5716710.4666885 ]
+ [-12696789.19483876]
+ [-11937606.35340011]
+ [  2938902.82788935]
+ [  2939375.71912394]
+ [  2939849.17763188]
+ [  2940309.52665176]
+ [  2940834.21422443]
+ [  2941428.14669844]
+ [  2939228.62986859]
+ [  2939358.35434649]
+ [  2939503.73628996]
+ [  2939341.60185533]
+ [  2939010.62009718]
+ [  2939061.15411385]
+ [  2938366.39633658]
+ [  2938378.52210911]
+ [  2938390.49153151]]</t>
         </is>
       </c>
       <c r="E1388" t="inlineStr"/>
@@ -36845,24 +36838,24 @@
       </c>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>[[-22489.58419338]
- [-49920.94794412]
- [-48789.37765654]
- [  8741.74276944]
- [  8743.52365259]
- [  8745.358809  ]
- [  8747.31516772]
- [  8749.50564085]
- [  8752.13054689]
- [  8744.61129885]
- [  8745.0352334 ]
- [  8745.52019171]
- [  8745.07950052]
- [  8743.4664053 ]
- [  8743.65714042]
- [  8740.97244873]
- [  8741.00617966]
- [  8741.04011907]]</t>
+          <t>[[-24008.41910354]
+ [-53721.8434581 ]
+ [-51962.26166266]
+ [  8743.11004658]
+ [  8745.12039905]
+ [  8747.15741796]
+ [  8749.16479672]
+ [  8751.47419436]
+ [  8754.11321643]
+ [  8744.69932186]
+ [  8745.28143236]
+ [  8745.93521732]
+ [  8745.25374417]
+ [  8743.8319398 ]
+ [  8744.0732307 ]
+ [  8741.03390243]
+ [  8741.09262389]
+ [  8741.15086874]]</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr"/>
@@ -36885,24 +36878,24 @@
       </c>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>[[ -334908.61675215]
- [-1219416.97160749]
- [-2198860.93443937]
- [-2513054.30107122]
- [-2438588.12645768]
- [-2363717.72376995]
- [-2288515.95396343]
- [-2213055.01085999]
- [-2137410.45713912]
- [-2107150.54520427]
- [-2076880.18350945]
- [-2046600.07801992]
- [-2016313.15960152]
- [-1986013.67444088]
- [-1955694.41195035]
- [-1940532.61164971]
- [-1925366.41054605]
- [-1910195.70694006]]</t>
+          <t>[[ -324567.30546799]
+ [-1234272.0768309 ]
+ [-2234931.08937303]
+ [-2509381.40724483]
+ [-2434921.61609974]
+ [-2360156.13305502]
+ [-2285161.10069078]
+ [-2210011.5333863 ]
+ [-2134789.02355894]
+ [-2104730.7559804 ]
+ [-2074673.63074064]
+ [-2044623.16084485]
+ [-2014584.76060844]
+ [-1984552.18056659]
+ [-1954520.9626191 ]
+ [-1939511.72147625]
+ [-1924503.2780096 ]
+ [-1909496.03157005]]</t>
         </is>
       </c>
       <c r="E1390" t="inlineStr"/>
@@ -36925,24 +36918,24 @@
       </c>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>[[8.07394330e+07]
- [2.92290083e+08]
- [5.22682007e+08]
- [5.90952168e+08]
- [5.66077379e+08]
- [5.41109367e+08]
- [5.16066505e+08]
- [4.90966764e+08]
- [4.65828626e+08]
- [4.55774203e+08]
- [4.45718158e+08]
- [4.35660743e+08]
- [4.25602703e+08]
- [4.15542779e+08]
- [4.05479381e+08]
- [4.00447588e+08]
- [3.95415075e+08]
- [3.90381830e+08]]</t>
+          <t>[[7.82703602e+07]
+ [2.95926845e+08]
+ [5.31339501e+08]
+ [5.90100752e+08]
+ [5.65227540e+08]
+ [5.40284156e+08]
+ [5.15289491e+08]
+ [4.90261909e+08]
+ [4.65220961e+08]
+ [4.55212760e+08]
+ [4.45205490e+08]
+ [4.35200435e+08]
+ [4.25198822e+08]
+ [4.15199264e+08]
+ [4.05200733e+08]
+ [4.00203177e+08]
+ [3.95205989e+08]
+ [3.90209259e+08]]</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr"/>
@@ -36965,24 +36958,24 @@
       </c>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>[[1023023.13193147]
- [2235498.08306039]
- [3861976.66018119]
- [6203675.03503468]
- [6203621.58949924]
- [6203567.61885943]
- [6203514.11789224]
- [6203460.119842  ]
- [6203402.93621325]
- [6203348.09829341]
- [6203337.47089578]
- [6203325.88354192]
- [6203308.70177697]
- [6203291.64848973]
- [6203279.80488188]
- [6203267.4383149 ]
- [6203264.67965868]
- [6203261.9720371 ]]</t>
+          <t>[[1062435.52297004]
+ [2302037.95108071]
+ [3925534.53088195]
+ [6203422.47703471]
+ [6203370.32339805]
+ [6203317.83392904]
+ [6203272.86165662]
+ [6203218.35094856]
+ [6203161.86914631]
+ [6203173.8386235 ]
+ [6203148.17154557]
+ [6203121.5234555 ]
+ [6203131.96806114]
+ [6203107.38676763]
+ [6203087.37819253]
+ [6203094.0980195 ]
+ [6203084.08447534]
+ [6203074.06948294]]</t>
         </is>
       </c>
       <c r="E1392" t="inlineStr"/>
@@ -37005,9 +36998,9 @@
       </c>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>[[ 2.93857543e+06]
- [ 8.74174277e+03]
- [-4.44452339e+07]]</t>
+          <t>[[ 2.93890283e+06]
+ [ 8.74311005e+03]
+ [-4.55591417e+07]]</t>
         </is>
       </c>
       <c r="E1393" t="inlineStr"/>
@@ -37030,9 +37023,9 @@
       </c>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>[[-2.58704205e+06]
- [ 6.15714789e+08]
- [ 6.20367504e+06]]</t>
+          <t>[[-2.58345583e+06]
+ [ 6.14883772e+08]
+ [ 6.20342248e+06]]</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr"/>
@@ -37084,11 +37077,11 @@
       </c>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.91161888 12.91161888 12.91161888
- 12.91161888 12.86512649 12.8186341  12.77214171 12.47502037 12.17789903
- 11.88077769 11.73538034 11.58998298 11.44458563 11.31564746 11.1867093
- 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711
- 11.03279711 10.82962464 10.62645216 10.42327969  8.94851979  7.4737599
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         11.18674566 10.37349132  9.56023698  8.37315799  7.18607899
   5.999     ]</t>
         </is>
       </c>
@@ -37112,11 +37105,11 @@
       </c>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>[0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.07942713 0.07942713 0.07942713 0.03729566 0.03729566 0.03729566
- 0.01268313 0.01268313 0.01268313 0.0114042  0.0114042  0.0114042 ]</t>
+          <t>[0.08581616 0.08581616 0.08581616 0.11231616 0.11231616 0.11231616
+ 0.11086611 0.11086611 0.11086611 0.09622188 0.09622188 0.09622188
+ 0.08885577 0.08885577 0.08885577 0.08371851 0.08371851 0.08371851
+ 0.04       0.04       0.04       0.02774562 0.02774562 0.02774562
+ 0.01524562 0.01524562 0.01524562 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr"/>
@@ -37215,11 +37208,11 @@
       </c>
       <c r="D1401" t="inlineStr">
         <is>
-          <t>[3.32205909 3.32205909 3.32205909 3.32205909 3.32205909 3.32205909
- 3.31604214 3.30400824 3.29197435 3.24750458 3.17059893 3.09369329
- 3.03642344 2.9987894  2.96115535 2.92565143 2.89227761 2.85890379
- 2.92449099 2.92449099 2.92449099 1.37850083 1.37850083 1.37850083
- 0.46550464 0.45684251 0.44818038 0.37087427 0.31433897 0.25780367]</t>
+          <t>[3.43690084 3.43690084 3.43690084 4.48820956 4.48820956 4.48820956
+ 4.43080545 4.43080545 4.43080545 3.85028008 3.85028008 3.85028008
+ 3.55772829 3.55772829 3.55772829 3.35348125 3.35348125 3.35348125
+ 1.60814358 1.60814358 1.60814358 1.11661658 1.11661658 1.11661658
+ 0.59335848 0.55168064 0.5100028  0.45136752 0.39151196 0.33165639]</t>
         </is>
       </c>
       <c r="E1401" t="inlineStr"/>
@@ -37242,11 +37235,11 @@
       </c>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>[1.89022248 1.89022248 1.89022248 1.89022248 1.89022248 1.89022248
- 1.88680824 1.87997976 1.87315129 1.84791753 1.80427858 1.76063976
- 1.72814304 1.70678834 1.68543368 1.66528774 1.64635052 1.62741333
- 1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[1.95664225 1.95664225 1.95664225 2.55780878 2.55780878 2.55780878
+ 2.52494988 2.52494988 2.52494988 2.19286886 2.19286886 2.19286886
+ 2.02566887 2.02566887 2.02566887 1.90899593 1.90899593 1.90899593
+ 0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E1402" t="inlineStr"/>
@@ -37269,11 +37262,11 @@
       </c>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>[1.89022248 1.89022248 1.89022248 1.89022248 1.89022248 1.89022248
- 1.88680824 1.87997976 1.87315129 1.84791753 1.80427858 1.76063976
- 1.72814304 1.70678834 1.68543368 1.66528774 1.64635052 1.62741333
- 1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[1.95664225 1.95664225 1.95664225 2.55780878 2.55780878 2.55780878
+ 2.52494988 2.52494988 2.52494988 2.19286886 2.19286886 2.19286886
+ 2.02566887 2.02566887 2.02566887 1.90899593 1.90899593 1.90899593
+ 0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E1403" t="inlineStr"/>
@@ -37296,12 +37289,12 @@
       </c>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>[136.81349772 136.81349772 136.81349772 136.81349772 136.81349772
- 136.81349772 136.07146709 134.5954647  133.13017494 127.80767371
- 118.94120785 110.49459789 104.47129409 100.63483541  96.89347011
-  93.44996756  90.28836857  87.19889598  87.72202461  87.72202461
-  87.72202461  41.66602941  41.66602941  41.66602941  13.87371518
-  13.11354997  12.38167179   8.67808658   5.28370768   2.91482043]</t>
+          <t>[121.97143588 121.97143588 121.97143588 158.5792626  158.5792626
+ 158.5792626  156.58886926 156.58886926 156.58886926 136.40501998
+ 136.40501998 136.40501998 126.19551488 126.19551488 126.19551488
+ 119.0525864  119.0525864  119.0525864   57.50850094  57.50850094
+  57.50850094  40.0127394   40.0127394   40.0127394   19.88540996
+  15.98256326  12.62702454   9.04237114   5.90101752   3.58721635]</t>
         </is>
       </c>
       <c r="E1404" t="inlineStr"/>
@@ -37324,11 +37317,11 @@
       </c>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>[68.40674886 68.40674886 68.40674886 68.40674886 68.40674886 68.40674886
- 68.03573355 67.29773235 66.56508747 63.90383686 59.47060392 55.24729894
- 52.23564704 50.31741771 48.44673505 46.72498378 45.14418429 43.59944799
- 43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[60.98571794 60.98571794 60.98571794 79.2896313  79.2896313  79.2896313
+ 78.29443463 78.29443463 78.29443463 68.20250999 68.20250999 68.20250999
+ 63.09775744 63.09775744 63.09775744 59.5262932  59.5262932  59.5262932
+ 28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E1405" t="inlineStr"/>
@@ -37351,11 +37344,11 @@
       </c>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>[68.40674886 68.40674886 68.40674886 68.40674886 68.40674886 68.40674886
- 68.03573355 67.29773235 66.56508747 63.90383686 59.47060392 55.24729894
- 52.23564704 50.31741771 48.44673505 46.72498378 45.14418429 43.59944799
- 43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[60.98571794 60.98571794 60.98571794 79.2896313  79.2896313  79.2896313
+ 78.29443463 78.29443463 78.29443463 68.20250999 68.20250999 68.20250999
+ 63.09775744 63.09775744 63.09775744 59.5262932  59.5262932  59.5262932
+ 28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr"/>
@@ -37480,36 +37473,36 @@
       </c>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>[[-4.96150641e+07]
- [-4.70740420e+07]
- [-4.44452339e+07]
- [-4.21760307e+07]
- [-3.98844927e+07]
- [-3.75447332e+07]
- [-3.51281618e+07]
- [-3.25941178e+07]
- [-2.98775511e+07]
- [-2.87393159e+07]
- [-2.75840137e+07]
- [-2.64065295e+07]
- [-2.54255718e+07]
- [-2.46582082e+07]
- [-2.39000917e+07]
- [-2.35254712e+07]
- [-2.31550663e+07]
- [-2.27888839e+07]
- [-1.91983500e+07]
- [-1.65875437e+07]
- [-1.39751554e+07]
- [-1.22033177e+07]
- [-1.04298310e+07]
- [-8.65470839e+06]
- [-8.28395048e+06]
- [-7.91937468e+06]
- [-7.56136574e+06]
- [-7.28217086e+06]
- [-7.04427309e+06]
- [ 1.90630089e-09]]</t>
+          <t>[[-5.08927202e+07]
+ [-4.82638563e+07]
+ [-4.55591417e+07]
+ [-4.25672380e+07]
+ [-3.95560176e+07]
+ [-3.65030819e+07]
+ [-3.34158055e+07]
+ [-3.02168366e+07]
+ [-2.68469186e+07]
+ [-2.55836619e+07]
+ [-2.42721117e+07]
+ [-2.29028686e+07]
+ [-2.17849604e+07]
+ [-2.08750037e+07]
+ [-1.99646447e+07]
+ [-1.95353884e+07]
+ [-1.91060687e+07]
+ [-1.86766914e+07]
+ [-1.62543459e+07]
+ [-1.48116020e+07]
+ [-1.33670802e+07]
+ [-1.19252973e+07]
+ [-1.04816459e+07]
+ [-9.03613567e+06]
+ [-8.56628426e+06]
+ [-8.12826835e+06]
+ [-7.72308963e+06]
+ [-7.38764043e+06]
+ [-7.09608549e+06]
+ [-2.01835064e-08]]</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr"/>
@@ -37532,36 +37525,36 @@
       </c>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>[[-5.35248443e+06]
- [-1.17881246e+07]
- [-1.11870229e+07]
- [ 2.93857543e+06]
- [ 2.93899438e+06]
- [ 2.93942109e+06]
- [ 2.93987081e+06]
- [ 2.94036907e+06]
- [ 2.94096094e+06]
- [ 2.93920523e+06]
- [ 2.93929845e+06]
- [ 2.93940470e+06]
- [ 2.93929777e+06]
- [ 2.93892375e+06]
- [ 2.93896249e+06]
- [ 2.93835023e+06]
- [ 2.93835657e+06]
- [ 2.93836288e+06]
- [ 2.94272280e+06]
- [ 2.94333795e+06]
- [ 2.94389527e+06]
- [ 2.94257714e+06]
- [ 2.94341200e+06]
- [ 2.94407178e+06]
- [ 2.93919776e+06]
- [ 2.93931533e+06]
- [ 2.93939196e+06]
- [ 2.93908469e+06]
- [ 2.93891286e+06]
- [ 9.64804682e+02]]</t>
+          <t>[[-5.71671047e+06]
+ [-1.26967892e+07]
+ [-1.19376064e+07]
+ [ 2.93890283e+06]
+ [ 2.93937572e+06]
+ [ 2.93984918e+06]
+ [ 2.94030953e+06]
+ [ 2.94083421e+06]
+ [ 2.94142815e+06]
+ [ 2.93922863e+06]
+ [ 2.93935835e+06]
+ [ 2.93950374e+06]
+ [ 2.93934160e+06]
+ [ 2.93901062e+06]
+ [ 2.93906115e+06]
+ [ 2.93836640e+06]
+ [ 2.93837852e+06]
+ [ 2.93839049e+06]
+ [ 2.94029991e+06]
+ [ 2.94081882e+06]
+ [ 2.94129025e+06]
+ [ 2.94191530e+06]
+ [ 2.94262530e+06]
+ [ 2.94318732e+06]
+ [ 2.93965223e+06]
+ [ 2.93965237e+06]
+ [ 2.93961515e+06]
+ [ 2.93935837e+06]
+ [ 2.93917618e+06]
+ [ 1.21940660e+03]]</t>
         </is>
       </c>
       <c r="E1411" t="inlineStr"/>
@@ -37584,36 +37577,36 @@
       </c>
       <c r="D1412" t="inlineStr">
         <is>
-          <t>[[-2.24895842e+04]
- [-4.99209479e+04]
- [-4.87893777e+04]
- [ 8.74174277e+03]
- [ 8.74352365e+03]
- [ 8.74535881e+03]
- [ 8.74731517e+03]
- [ 8.74950564e+03]
- [ 8.75213055e+03]
- [ 8.74461130e+03]
- [ 8.74503523e+03]
- [ 8.74552019e+03]
- [ 8.74507950e+03]
- [ 8.74346641e+03]
- [ 8.74365714e+03]
- [ 8.74097245e+03]
- [ 8.74100618e+03]
- [ 8.74104012e+03]
- [ 8.76054647e+03]
- [ 8.76366985e+03]
- [ 8.76662337e+03]
- [ 8.76121156e+03]
- [ 8.76632391e+03]
- [ 8.77091177e+03]
- [ 8.74623082e+03]
- [ 8.74751124e+03]
- [ 8.74868338e+03]
- [ 8.74751018e+03]
- [ 8.74745502e+03]
- [ 8.20094373e+00]]</t>
+          <t>[[-2.40084191e+04]
+ [-5.37218435e+04]
+ [-5.19622617e+04]
+ [ 8.74311005e+03]
+ [ 8.74512040e+03]
+ [ 8.74715742e+03]
+ [ 8.74916480e+03]
+ [ 8.75147419e+03]
+ [ 8.75411322e+03]
+ [ 8.74469932e+03]
+ [ 8.74528143e+03]
+ [ 8.74593522e+03]
+ [ 8.74525374e+03]
+ [ 8.74383194e+03]
+ [ 8.74407323e+03]
+ [ 8.74103390e+03]
+ [ 8.74109262e+03]
+ [ 8.74115087e+03]
+ [ 8.74971208e+03]
+ [ 8.75234670e+03]
+ [ 8.75484421e+03]
+ [ 8.75834789e+03]
+ [ 8.76269237e+03]
+ [ 8.76659492e+03]
+ [ 8.74867213e+03]
+ [ 8.74925984e+03]
+ [ 8.74979886e+03]
+ [ 8.74912052e+03]
+ [ 8.74917038e+03]
+ [ 9.98251067e+00]]</t>
         </is>
       </c>
       <c r="E1412" t="inlineStr"/>
@@ -37636,36 +37629,36 @@
       </c>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>[[-3.34908617e+05]
- [-1.21941697e+06]
- [-2.19886093e+06]
- [-2.51305430e+06]
- [-2.43858813e+06]
- [-2.36371772e+06]
- [-2.28851595e+06]
- [-2.21305501e+06]
- [-2.13741046e+06]
- [-2.10715055e+06]
- [-2.07688018e+06]
- [-2.04660008e+06]
- [-2.01631316e+06]
- [-1.98601367e+06]
- [-1.95569441e+06]
- [-1.94053261e+06]
- [-1.92536641e+06]
- [-1.91019571e+06]
- [-1.80437530e+06]
- [-1.69853895e+06]
- [-1.59286197e+06]
- [-1.44186427e+06]
- [-1.29046357e+06]
- [-1.13910818e+06]
- [-1.04837108e+06]
- [-9.57160721e+05]
- [-8.65546469e+05]
- [-7.79660559e+05]
- [-6.93202234e+05]
- [-1.75665368e-04]]</t>
+          <t>[[-3.24567305e+05]
+ [-1.23427208e+06]
+ [-2.23493109e+06]
+ [-2.50938141e+06]
+ [-2.43492162e+06]
+ [-2.36015613e+06]
+ [-2.28516110e+06]
+ [-2.21001153e+06]
+ [-2.13478902e+06]
+ [-2.10473076e+06]
+ [-2.07467363e+06]
+ [-2.04462316e+06]
+ [-2.01458476e+06]
+ [-1.98455218e+06]
+ [-1.95452096e+06]
+ [-1.93951172e+06]
+ [-1.92450328e+06]
+ [-1.90949603e+06]
+ [-1.80472660e+06]
+ [-1.69953466e+06]
+ [-1.59408186e+06]
+ [-1.44290580e+06]
+ [-1.29121122e+06]
+ [-1.13939958e+06]
+ [-1.04838905e+06]
+ [-9.57088944e+05]
+ [-8.65462747e+05]
+ [-7.79595083e+05]
+ [-6.93235530e+05]
+ [-2.19419097e-04]]</t>
         </is>
       </c>
       <c r="E1413" t="inlineStr"/>
@@ -37688,36 +37681,36 @@
       </c>
       <c r="D1414" t="inlineStr">
         <is>
-          <t>[[ 8.07394330e+07]
- [ 2.92290083e+08]
- [ 5.22682007e+08]
- [ 5.90952168e+08]
- [ 5.66077379e+08]
- [ 5.41109367e+08]
- [ 5.16066505e+08]
- [ 4.90966764e+08]
- [ 4.65828626e+08]
- [ 4.55774203e+08]
- [ 4.45718158e+08]
- [ 4.35660743e+08]
- [ 4.25602703e+08]
- [ 4.15542779e+08]
- [ 4.05479381e+08]
- [ 4.00447588e+08]
- [ 3.95415075e+08]
- [ 3.90381830e+08]
- [ 3.55293578e+08]
- [ 3.20216135e+08]
- [ 2.85187693e+08]
- [ 2.35177579e+08]
- [ 1.85138251e+08]
- [ 1.35160452e+08]
- [ 1.05226945e+08]
- [ 7.52594865e+07]
- [ 4.52774992e+07]
- [ 1.72941791e+07]
- [-1.06802295e+07]
- [ 2.06672425e-02]]</t>
+          <t>[[ 7.82703602e+07]
+ [ 2.95926845e+08]
+ [ 5.31339501e+08]
+ [ 5.90100752e+08]
+ [ 5.65227540e+08]
+ [ 5.40284156e+08]
+ [ 5.15289491e+08]
+ [ 4.90261909e+08]
+ [ 4.65220961e+08]
+ [ 4.55212760e+08]
+ [ 4.45205490e+08]
+ [ 4.35200435e+08]
+ [ 4.25198822e+08]
+ [ 4.15199264e+08]
+ [ 4.05200733e+08]
+ [ 4.00203177e+08]
+ [ 3.95205989e+08]
+ [ 3.90209259e+08]
+ [ 3.55355699e+08]
+ [ 3.20426176e+08]
+ [ 2.85457494e+08]
+ [ 2.35427467e+08]
+ [ 1.85342877e+08]
+ [ 1.35287642e+08]
+ [ 1.05301768e+08]
+ [ 7.53043860e+07]
+ [ 4.53024558e+07]
+ [ 1.73058334e+07]
+ [-1.06754905e+07]
+ [ 2.68030852e-02]]</t>
         </is>
       </c>
       <c r="E1414" t="inlineStr"/>
@@ -37740,36 +37733,36 @@
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>[[1023023.13193147]
- [2235498.08306039]
- [3861976.66018119]
- [6203675.03503468]
- [6203621.58949924]
- [6203567.61885943]
- [6203514.11789224]
- [6203460.119842  ]
- [6203402.93621325]
- [6203348.09829341]
- [6203337.47089578]
- [6203325.88354192]
- [6203308.70177697]
- [6203291.64848973]
- [6203279.80488188]
- [6203267.4383149 ]
- [6203264.67965868]
- [6203261.9720371 ]
- [6203211.73333005]
- [6203141.91762902]
- [6203072.07927869]
- [6203421.46679421]
- [6203320.90721105]
- [6203220.25730427]
- [6204082.96780968]
- [6204047.04598757]
- [6204010.81552753]
- [6204223.50326527]
- [6204440.96248133]
- [      0.        ]]</t>
+          <t>[[1.06243552e+06]
+ [2.30203795e+06]
+ [3.92553453e+06]
+ [6.20342248e+06]
+ [6.20337032e+06]
+ [6.20331783e+06]
+ [6.20327286e+06]
+ [6.20321835e+06]
+ [6.20316187e+06]
+ [6.20317384e+06]
+ [6.20314817e+06]
+ [6.20312152e+06]
+ [6.20313197e+06]
+ [6.20310739e+06]
+ [6.20308738e+06]
+ [6.20309410e+06]
+ [6.20308408e+06]
+ [6.20307407e+06]
+ [6.20348923e+06]
+ [6.20341909e+06]
+ [6.20334890e+06]
+ [6.20356489e+06]
+ [6.20346386e+06]
+ [6.20336271e+06]
+ [6.20381979e+06]
+ [6.20384317e+06]
+ [6.20387526e+06]
+ [6.20396702e+06]
+ [6.20410468e+06]
+ [3.31967076e-09]]</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr"/>
@@ -37792,24 +37785,24 @@
       </c>
       <c r="D1416" t="inlineStr">
         <is>
-          <t>[[-7315275.53273358]
- [13414645.62662302]
- [35949137.84617224]
- [43075196.04814825]
- [41417451.90320286]
- [39765425.58666959]
- [38287698.66816422]
- [36979054.9923009 ]
- [35696248.07805783]
- [36167698.7775389 ]
- [37492518.52789398]
- [38894485.97890621]
- [39731618.60052069]
- [39935538.41835566]
- [40126837.92719478]
- [40725029.65799715]
- [41268942.21470458]
- [41822696.21929786]]</t>
+          <t>[[-7107142.86312147]
+ [15071786.12222226]
+ [39019724.39024423]
+ [35170234.93316156]
+ [33958941.87027063]
+ [32751633.2720369 ]
+ [31947279.79460518]
+ [30751298.12427562]
+ [29592874.33495794]
+ [33402373.98383842]
+ [32862636.24160267]
+ [32338077.44114348]
+ [34309562.2928921 ]
+ [33614465.06581324]
+ [32919578.65688145]
+ [34513865.24019904]
+ [34138190.39843135]
+ [33762578.91098329]]</t>
         </is>
       </c>
       <c r="E1416" t="inlineStr"/>
@@ -37832,24 +37825,24 @@
       </c>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>[[2879967.33236727]
- [6341911.05200166]
- [6100654.19693649]
- [1847358.09599434]
- [1847577.21483146]
- [1847800.41294381]
- [1851916.59540202]
- [1859988.85025377]
- [1868177.77767729]
- [1896909.80369051]
- [1950519.62564005]
- [2007189.01998722]
- [2051419.98988449]
- [2081363.640129  ]
- [2112428.07882885]
- [2142187.42766783]
- [2171283.87240229]
- [2201163.61667815]]</t>
+          <t>[[2973983.20758036]
+ [6602369.92175837]
+ [6294229.54076693]
+ [1383709.97221091]
+ [1383892.88183418]
+ [1384076.00056198]
+ [1402197.47416175]
+ [1402403.1884652 ]
+ [1402636.25177722]
+ [1613220.46066353]
+ [1613278.48960898]
+ [1613343.61564282]
+ [1745983.44149172]
+ [1745818.8775906 ]
+ [1745842.87335131]
+ [1851850.58878103]
+ [1851856.43609401]
+ [1851862.20143184]]</t>
         </is>
       </c>
       <c r="E1417" t="inlineStr"/>
@@ -37874,22 +37867,22 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-2.52552598e+07]
- [-4.70291439e+07]
- [-4.00859163e+07]
- [-3.31860968e+07]
- [-2.62944384e+07]
- [-1.94691243e+07]
- [-1.28035027e+07]
- [-8.14693846e+06]
- [-5.50511128e+06]
- [-3.01996479e+06]
- [-9.13656465e+05]
- [-7.76060689e+03]
- [-8.72325808e+03]
- [-9.20799565e+03]
- [-9.42229293e+03]
- [-9.59845048e+03]]</t>
+ [-2.10355965e+07]
+ [-2.98627528e+07]
+ [-2.54539145e+07]
+ [-2.10726396e+07]
+ [-1.69476843e+07]
+ [-1.25942353e+07]
+ [-8.31263788e+06]
+ [-6.18544200e+06]
+ [-4.28105560e+06]
+ [-2.40685928e+06]
+ [-8.03902793e+05]
+ [-6.91405228e+03]
+ [-7.87046641e+03]
+ [-8.92846704e+03]
+ [-9.24168160e+03]
+ [-9.52436353e+03]]</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr"/>
@@ -37948,24 +37941,24 @@
       <c r="C1420" t="inlineStr"/>
       <c r="D1420" t="inlineStr">
         <is>
-          <t>[[0.04504065]
- [0.08819853]
- [0.2762797 ]
- [0.39740953]
- [0.35944246]
- [0.32223003]
- [0.2866078 ]
- [0.25316622]
- [0.22206526]
- [0.20849857]
- [0.20687153]
- [0.20672378]
- [0.20527381]
- [0.20399605]
- [0.20499237]
- [0.20804782]
- [0.21082707]
- [0.2136567 ]]</t>
+          <t>[[0.04465096]
+ [0.09624067]
+ [0.27416243]
+ [0.28707537]
+ [0.26291471]
+ [0.23928364]
+ [0.21910459]
+ [0.19684921]
+ [0.17597746]
+ [0.18817574]
+ [0.17961892]
+ [0.17154331]
+ [0.1772802 ]
+ [0.17170331]
+ [0.16818541]
+ [0.17634969]
+ [0.17444773]
+ [0.1725462 ]]</t>
         </is>
       </c>
       <c r="E1420" t="inlineStr"/>
@@ -37984,24 +37977,24 @@
       <c r="C1421" t="inlineStr"/>
       <c r="D1421" t="inlineStr">
         <is>
-          <t>[[0.08478384]
- [0.10316333]
- [0.44462107]
- [0.61531803]
- [0.52844871]
- [0.44217189]
- [0.35589014]
- [0.27058411]
- [0.18793204]
- [0.06552853]
- [0.05652309]
- [0.0495379 ]
- [0.04397803]
- [0.04186925]
- [0.041093  ]
- [0.03714248]
- [0.03695307]
- [0.03676986]]</t>
+          <t>[[0.07595721]
+ [0.09248834]
+ [0.31721216]
+ [0.22995517]
+ [0.19731205]
+ [0.16495547]
+ [0.13696367]
+ [0.10469466]
+ [0.07350745]
+ [0.04003783]
+ [0.03436002]
+ [0.02971882]
+ [0.03047639]
+ [0.0288563 ]
+ [0.02783969]
+ [0.02696402]
+ [0.02647556]
+ [0.02598868]]</t>
         </is>
       </c>
       <c r="E1421" t="inlineStr"/>
@@ -38020,24 +38013,24 @@
       <c r="C1422" t="inlineStr"/>
       <c r="D1422" t="inlineStr">
         <is>
-          <t>[[0.13720501]
- [0.24506893]
- [0.36258616]
- [0.39437256]
- [0.3765498 ]
- [0.3586029 ]
- [0.34163791]
- [0.32541841]
- [0.30861216]
- [0.30866728]
- [0.31458755]
- [0.32228111]
- [0.32688619]
- [0.32743909]
- [0.32793583]
- [0.33225547]
- [0.33617213]
- [0.34020386]]</t>
+          <t>[[0.11979299]
+ [0.21967424]
+ [0.32769764]
+ [0.26867307]
+ [0.25565488]
+ [0.24257388]
+ [0.2323943 ]
+ [0.21895544]
+ [0.20530692]
+ [0.22982751]
+ [0.22360752]
+ [0.21730549]
+ [0.22862946]
+ [0.22256614]
+ [0.21650584]
+ [0.22642915]
+ [0.22326151]
+ [0.22009485]]</t>
         </is>
       </c>
       <c r="E1422" t="inlineStr"/>
@@ -38060,36 +38053,36 @@
       </c>
       <c r="D1423" t="inlineStr">
         <is>
-          <t>[[-7.31527553e+06]
- [ 1.34146456e+07]
- [ 3.59491378e+07]
- [ 4.30751960e+07]
- [ 4.14174519e+07]
- [ 3.97654256e+07]
- [ 3.82876987e+07]
- [ 3.69790550e+07]
- [ 3.56962481e+07]
- [ 3.61676988e+07]
- [ 3.74925185e+07]
- [ 3.88944860e+07]
- [ 3.97316186e+07]
- [ 3.99355384e+07]
- [ 4.01268379e+07]
- [ 4.07250297e+07]
- [ 4.12689422e+07]
- [ 4.17667923e+07]
- [ 3.81211609e+07]
- [ 3.46022007e+07]
- [ 3.10899469e+07]
- [ 5.34215183e+07]
- [ 4.14580989e+07]
- [ 2.95122182e+07]
- [ 6.51176292e+07]
- [ 4.42388437e+07]
- [ 2.16232774e+07]
- [-3.12935698e+05]
- [-5.77727668e+06]
- [ 4.77653604e-02]]</t>
+          <t>[[-7.10714286e+06]
+ [ 1.50717861e+07]
+ [ 3.90197244e+07]
+ [ 3.51702349e+07]
+ [ 3.39589419e+07]
+ [ 3.27516333e+07]
+ [ 3.19472798e+07]
+ [ 3.07512981e+07]
+ [ 2.95928743e+07]
+ [ 3.34023740e+07]
+ [ 3.28626362e+07]
+ [ 3.23380774e+07]
+ [ 3.43095623e+07]
+ [ 3.36144651e+07]
+ [ 3.29195787e+07]
+ [ 3.45138652e+07]
+ [ 3.41381904e+07]
+ [ 3.37625789e+07]
+ [ 6.40436615e+07]
+ [ 5.76522323e+07]
+ [ 5.12537418e+07]
+ [ 5.99272297e+07]
+ [ 4.61995395e+07]
+ [ 3.24823846e+07]
+ [ 4.69579743e+07]
+ [ 3.60626951e+07]
+ [ 2.06217920e+07]
+ [ 8.11168771e+05]
+ [-4.02112696e+06]
+ [ 4.92599505e-02]]</t>
         </is>
       </c>
       <c r="E1423" t="inlineStr"/>
@@ -38112,36 +38105,36 @@
       </c>
       <c r="D1424" t="inlineStr">
         <is>
-          <t>[[2.87996733e+06]
- [6.34191105e+06]
- [6.10065420e+06]
- [1.84735810e+06]
- [1.84757721e+06]
- [1.84780041e+06]
- [1.85191660e+06]
- [1.85998885e+06]
- [1.86817778e+06]
- [1.89690980e+06]
- [1.95051963e+06]
- [2.00718902e+06]
- [2.05141999e+06]
- [2.08136364e+06]
- [2.11242808e+06]
- [2.14218743e+06]
- [2.17128387e+06]
- [2.20071946e+06]
- [2.15753792e+06]
- [2.15790300e+06]
- [2.15823335e+06]
- [4.57732881e+06]
- [4.57838115e+06]
- [4.57921000e+06]
- [1.35650820e+07]
- [1.38698935e+07]
- [1.41881865e+07]
- [1.74202523e+07]
- [2.12867719e+07]
- [6.59020798e+03]]</t>
+          <t>[[2.97398321e+06]
+ [6.60236992e+06]
+ [6.29422954e+06]
+ [1.38370997e+06]
+ [1.38389288e+06]
+ [1.38407600e+06]
+ [1.40219747e+06]
+ [1.40240319e+06]
+ [1.40263625e+06]
+ [1.61322046e+06]
+ [1.61327849e+06]
+ [1.61334362e+06]
+ [1.74598344e+06]
+ [1.74581888e+06]
+ [1.74584287e+06]
+ [1.85185059e+06]
+ [1.85185644e+06]
+ [1.85186220e+06]
+ [3.86446489e+06]
+ [3.86502536e+06]
+ [3.86553388e+06]
+ [5.56835342e+06]
+ [5.56945764e+06]
+ [5.57032855e+06]
+ [1.05338654e+07]
+ [1.14764154e+07]
+ [1.25988757e+07]
+ [1.45433232e+07]
+ [1.73077350e+07]
+ [6.47284708e+03]]</t>
         </is>
       </c>
       <c r="E1424" t="inlineStr"/>
@@ -38166,34 +38159,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-2.52552598e+07]
- [-4.70291439e+07]
- [-4.00859163e+07]
- [-3.31860968e+07]
- [-2.62944384e+07]
- [-1.94691243e+07]
- [-1.28035027e+07]
- [-8.14693846e+06]
- [-5.50511128e+06]
- [-3.01996479e+06]
- [-9.13656465e+05]
- [-7.76060689e+03]
- [-8.72325808e+03]
- [-9.20799565e+03]
- [-9.42229293e+03]
- [-9.58759912e+03]
- [-1.00484378e+04]
- [-1.12262387e+04]
- [-1.20987864e+04]
- [-2.76412591e+04]
- [-2.93797601e+04]
- [-3.08396641e+04]
- [-9.30837260e+04]
- [-9.33699868e+04]
- [-9.34525277e+04]
- [-9.73786478e+04]
- [-8.38730316e+04]
- [-6.98330266e+04]]</t>
+ [-2.10355965e+07]
+ [-2.98627528e+07]
+ [-2.54539145e+07]
+ [-2.10726396e+07]
+ [-1.69476843e+07]
+ [-1.25942353e+07]
+ [-8.31263788e+06]
+ [-6.18544200e+06]
+ [-4.28105560e+06]
+ [-2.40685928e+06]
+ [-8.03902793e+05]
+ [-6.91405228e+03]
+ [-7.87046641e+03]
+ [-8.92846704e+03]
+ [-9.24168160e+03]
+ [-9.52436353e+03]
+ [-2.17866703e+04]
+ [-2.43403368e+04]
+ [-2.62321641e+04]
+ [-4.04559656e+04]
+ [-4.30004495e+04]
+ [-4.51371765e+04]
+ [-8.21162467e+04]
+ [-7.80352317e+04]
+ [-7.35991782e+04]
+ [-6.85037392e+04]
+ [-6.03831940e+04]
+ [-5.19286554e+04]]</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr"/>
@@ -38264,36 +38257,36 @@
       <c r="C1427" t="inlineStr"/>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>[[4.50406529e-02]
- [8.81985295e-02]
- [2.76279695e-01]
- [3.97409527e-01]
- [3.59442460e-01]
- [3.22230026e-01]
- [2.86607802e-01]
- [2.53166220e-01]
- [2.22065264e-01]
- [2.08498571e-01]
- [2.06871534e-01]
- [2.06723776e-01]
- [2.05273811e-01]
- [2.03996054e-01]
- [2.04992374e-01]
- [2.08047817e-01]
- [2.10827067e-01]
- [2.13373116e-01]
- [1.94875653e-01]
- [1.77072164e-01]
- [1.59322878e-01]
- [2.74798871e-01]
- [2.14792339e-01]
- [1.55530284e-01]
- [3.52376311e-01]
- [2.56290564e-01]
- [1.66671358e-01]
- [1.53494014e-01]
- [1.89810931e-01]
- [3.59951960e-04]]</t>
+          <t>[[4.46509642e-02]
+ [9.62406738e-02]
+ [2.74162434e-01]
+ [2.87075369e-01]
+ [2.62914710e-01]
+ [2.39283643e-01]
+ [2.19104588e-01]
+ [1.96849206e-01]
+ [1.75977463e-01]
+ [1.88175740e-01]
+ [1.79618920e-01]
+ [1.71543311e-01]
+ [1.77280198e-01]
+ [1.71703311e-01]
+ [1.68185408e-01]
+ [1.76349690e-01]
+ [1.74447734e-01]
+ [1.72546204e-01]
+ [3.27616928e-01]
+ [2.95306437e-01]
+ [2.63006883e-01]
+ [3.08871630e-01]
+ [2.40190685e-01]
+ [1.72481525e-01]
+ [2.56465413e-01]
+ [2.09645727e-01]
+ [1.52860841e-01]
+ [1.28211792e-01]
+ [1.53841826e-01]
+ [2.70245304e-04]]</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr"/>
@@ -38312,36 +38305,36 @@
       <c r="C1428" t="inlineStr"/>
       <c r="D1428" t="inlineStr">
         <is>
-          <t>[[0.08478384]
- [0.10316333]
- [0.44462107]
- [0.61531803]
- [0.52844871]
- [0.44217189]
- [0.35589014]
- [0.27058411]
- [0.18793204]
- [0.06552853]
- [0.05652309]
- [0.0495379 ]
- [0.04397803]
- [0.04186925]
- [0.041093  ]
- [0.03714248]
- [0.03695307]
- [0.0367933 ]
- [0.0389205 ]
- [0.03542982]
- [0.03202071]
- [0.12779718]
- [0.11986401]
- [0.1120493 ]
- [1.00873216]
- [0.99384029]
- [0.97960619]
- [1.21746051]
- [1.24040669]
- [0.01320053]]</t>
+          <t>[[0.07595721]
+ [0.09248834]
+ [0.31721216]
+ [0.22995517]
+ [0.19731205]
+ [0.16495547]
+ [0.13696367]
+ [0.10469466]
+ [0.07350745]
+ [0.04003783]
+ [0.03436002]
+ [0.02971882]
+ [0.03047639]
+ [0.0288563 ]
+ [0.02783969]
+ [0.02696402]
+ [0.02647556]
+ [0.02598868]
+ [0.11559999]
+ [0.10979214]
+ [0.1040025 ]
+ [0.23270141]
+ [0.22096604]
+ [0.20924389]
+ [0.66870714]
+ [0.660597  ]
+ [0.65598717]
+ [0.66810786]
+ [0.68230917]
+ [0.00646641]]</t>
         </is>
       </c>
       <c r="E1428" t="inlineStr"/>
@@ -38360,36 +38353,36 @@
       <c r="C1429" t="inlineStr"/>
       <c r="D1429" t="inlineStr">
         <is>
-          <t>[[2.66539664e-01]
- [4.48375468e-01]
- [6.44746361e-01]
- [6.95038776e-01]
- [6.61341982e-01]
- [6.27562653e-01]
- [5.96209091e-01]
- [5.66028882e-01]
- [5.34671071e-01]
- [5.35325218e-01]
- [5.47488218e-01]
- [5.60286720e-01]
- [5.67023137e-01]
- [5.67085790e-01]
- [5.67053206e-01]
- [5.74129665e-01]
- [5.80528946e-01]
- [5.86804266e-01]
- [5.14116486e-01]
- [4.56583334e-01]
- [3.99817961e-01]
- [7.24304962e-01]
- [5.73585212e-01]
- [4.26123461e-01]
- [1.13336618e+00]
- [9.12302582e-01]
- [6.72438340e-01]
- [5.78754466e-01]
- [7.94199172e-01]
- [4.18141464e-10]]</t>
+          <t>[[2.12434948e-01]
+ [3.00767785e-01]
+ [3.95486177e-01]
+ [3.10021930e-01]
+ [2.92700173e-01]
+ [2.75329446e-01]
+ [2.61357166e-01]
+ [2.43480652e-01]
+ [2.25195336e-01]
+ [2.51699379e-01]
+ [2.43390406e-01]
+ [2.34906271e-01]
+ [2.46363458e-01]
+ [2.38897174e-01]
+ [2.31447274e-01]
+ [2.41967714e-01]
+ [2.38116593e-01]
+ [2.34270042e-01]
+ [4.47949293e-01]
+ [4.02964249e-01]
+ [3.58413055e-01]
+ [4.40388773e-01]
+ [3.55823955e-01]
+ [2.72680942e-01]
+ [4.67147335e-01]
+ [4.57013160e-01]
+ [4.35474194e-01]
+ [4.38236037e-01]
+ [5.97590822e-01]
+ [2.01329882e-10]]</t>
         </is>
       </c>
       <c r="E1429" t="inlineStr"/>
@@ -38431,7 +38424,7 @@
       <c r="C1431" t="inlineStr"/>
       <c r="D1431" t="inlineStr">
         <is>
-          <t>[0.9977415]</t>
+          <t>[1.]</t>
         </is>
       </c>
       <c r="E1431" t="inlineStr"/>
@@ -38478,26 +38471,26 @@
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t>[[2.32411620e+10 6.10356153e+12 2.32411620e+10 6.10356153e+12
-  1.61054221e+10 2.00899507e+11]
- [2.11662147e+10 4.44105979e+12 2.11662147e+10 4.44105979e+12
-  1.49854221e+10 2.00899507e+11]
- [1.90912673e+10 3.13253336e+12 1.90912673e+10 3.13253336e+12
-  1.38654221e+10 2.00899507e+11]
- [1.70163199e+10 2.13373533e+12 1.70163199e+10 2.13373533e+12
-  1.27454221e+10 2.00899507e+11]
- [1.49413726e+10 1.40041877e+12 1.49413726e+10 1.40041877e+12
-  1.16254221e+10 2.00899507e+11]
- [1.28664252e+10 8.88336788e+11 1.28664252e+10 8.88336788e+11
-  1.05054221e+10 2.00899507e+11]
- [1.07914778e+10 5.53242457e+11 1.07914778e+10 5.53242457e+11
-  9.38542214e+09 2.00899507e+11]
- [8.71653047e+09 3.50888867e+11 8.71653047e+09 3.50888867e+11
-  8.26542214e+09 2.00899507e+11]
- [6.64158310e+09 2.37029105e+11 6.64158310e+09 2.37029105e+11
-  7.14542214e+09 2.00899507e+11]
- [4.56663573e+09 1.67416256e+11 4.56663573e+09 1.67416256e+11
-  6.02542214e+09 2.00899507e+11]]</t>
+          <t>[[2.29187368e+10 5.99424000e+12 2.29187368e+10 5.99424000e+12
+  1.56800000e+10 1.61280000e+11]
+ [2.08437895e+10 4.34021663e+12 2.08437895e+10 4.34021663e+12
+  1.45600000e+10 1.61280000e+11]
+ [1.87688421e+10 3.04016856e+12 1.87688421e+10 3.04016856e+12
+  1.34400000e+10 1.61280000e+11]
+ [1.66938947e+10 2.04984889e+12 1.66938947e+10 2.04984889e+12
+  1.23200000e+10 1.61280000e+11]
+ [1.46189474e+10 1.32501070e+12 1.46189474e+10 1.32501070e+12
+  1.12000000e+10 1.61280000e+11]
+ [1.25440000e+10 8.21407078e+11 1.25440000e+10 8.21407078e+11
+  1.00800000e+10 1.61280000e+11]
+ [1.04690526e+10 4.94791111e+11 1.04690526e+10 4.94791111e+11
+  8.96000000e+09 1.61280000e+11]
+ [8.39410526e+09 3.00915885e+11 8.39410526e+09 3.00915885e+11
+  7.84000000e+09 1.61280000e+11]
+ [6.31915789e+09 1.95534486e+11 6.31915789e+09 1.95534486e+11
+  6.72000000e+09 1.61280000e+11]
+ [4.24421053e+09 1.34400000e+11 4.24421053e+09 1.34400000e+11
+  5.60000000e+09 1.61280000e+11]]</t>
         </is>
       </c>
       <c r="E1433" t="inlineStr"/>
@@ -43309,7 +43302,7 @@
       <c r="C1593" t="inlineStr"/>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>[-0.00160994]</t>
+          <t>[-0.02389841]</t>
         </is>
       </c>
       <c r="E1593" t="inlineStr">
@@ -43332,7 +43325,7 @@
       <c r="C1594" t="inlineStr"/>
       <c r="D1594" t="inlineStr">
         <is>
-          <t>[-0.17462133]</t>
+          <t>[-0.15638531]</t>
         </is>
       </c>
       <c r="E1594" t="inlineStr">
@@ -43355,7 +43348,7 @@
       <c r="C1595" t="inlineStr"/>
       <c r="D1595" t="inlineStr">
         <is>
-          <t>[1.05456417]</t>
+          <t>[1.07295054]</t>
         </is>
       </c>
       <c r="E1595" t="inlineStr"/>
@@ -43378,7 +43371,7 @@
       </c>
       <c r="D1596" t="inlineStr">
         <is>
-          <t>[28.22092365]</t>
+          <t>[27.73732221]</t>
         </is>
       </c>
       <c r="E1596" t="inlineStr"/>
@@ -43401,9 +43394,9 @@
       </c>
       <c r="D1597" t="inlineStr">
         <is>
-          <t>[1050.39289116 1210.38582946 1325.57806587 1417.92251632 1526.37603706
- 1617.13258034 1695.94911499 1700.99067951 1701.7246277  1698.74684974
- 1457.94811764 1230.05477913 1007.39469272]</t>
+          <t>[1148.71116563 1328.13546587 1457.99309682 1562.45872905 1685.52442411
+ 1788.79538042 1878.67520451 1768.05191007 1654.64775701 1539.88760941
+ 1359.19878774 1183.1166981  1007.39469272]</t>
         </is>
       </c>
       <c r="E1597" t="inlineStr"/>
@@ -43522,9 +43515,9 @@
       </c>
       <c r="D1602" t="inlineStr">
         <is>
-          <t>[1050.39289116 1210.38582946 1325.57806587 1417.92251632 1526.37603706
- 1617.13258034 1695.94911499 1700.99067951 1701.7246277  1698.74684974
- 1457.94811764 1230.05477913 1007.39469272]</t>
+          <t>[1148.71116563 1328.13546587 1457.99309682 1562.45872905 1685.52442411
+ 1788.79538042 1878.67520451 1768.05191007 1654.64775701 1539.88760941
+ 1359.19878774 1183.1166981  1007.39469272]</t>
         </is>
       </c>
       <c r="E1602" t="inlineStr"/>
@@ -43712,9 +43705,9 @@
       </c>
       <c r="D1610" t="inlineStr">
         <is>
-          <t>[-1050.39289116 -1210.38582946 -1325.57806587 -1417.92251632
- -1526.37603706 -1617.13258034 -1695.94911499 -1700.99067951
- -1701.7246277  -1698.74684974 -1457.94811764 -1230.05477913
+          <t>[-1148.71116563 -1328.13546587 -1457.99309682 -1562.45872905
+ -1685.52442411 -1788.79538042 -1878.67520451 -1768.05191007
+ -1654.64775701 -1539.88760941 -1359.19878774 -1183.1166981
  -1007.39469272]</t>
         </is>
       </c>
@@ -43759,7 +43752,7 @@
       <c r="C1612" t="inlineStr"/>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>[138.90463949 295.81983528 845.85132944 720.01031712]</t>
+          <t>[300.         432.50064497 707.09594696 518.64123265]</t>
         </is>
       </c>
       <c r="E1612" t="inlineStr"/>
@@ -43778,7 +43771,7 @@
       <c r="C1613" t="inlineStr"/>
       <c r="D1613" t="inlineStr">
         <is>
-          <t>[1.         1.         0.94475404 0.57553862]</t>
+          <t>[1.         1.         0.79668641 0.62749491]</t>
         </is>
       </c>
       <c r="E1613" t="inlineStr"/>
@@ -43797,7 +43790,7 @@
       <c r="C1614" t="inlineStr"/>
       <c r="D1614" t="inlineStr">
         <is>
-          <t>[1.         1.         0.94475404 0.57553862]</t>
+          <t>[1.         1.         0.79668641 0.62749491]</t>
         </is>
       </c>
       <c r="E1614" t="inlineStr"/>
@@ -43816,7 +43809,7 @@
       <c r="C1615" t="inlineStr"/>
       <c r="D1615" t="inlineStr">
         <is>
-          <t>[0.46955823 0.3400697  0.89916304]</t>
+          <t>[0.69364058 0.54947849 0.98388893]</t>
         </is>
       </c>
       <c r="E1615" t="inlineStr"/>
@@ -43859,8 +43852,8 @@
       </c>
       <c r="D1617" t="inlineStr">
         <is>
-          <t>[5.51639855 5.51639855 5.51639855 5.51639855 5.51639855 5.51639855
- 5.51639855 5.41481232 5.31322608 5.21163985 4.4742599  3.73687995
+          <t>[6.         6.         6.         6.         6.         6.
+ 6.         5.59337283 5.18674566 4.78011849 4.18657899 3.5930395
  2.9995    ]</t>
         </is>
       </c>
@@ -44112,8 +44105,8 @@
       </c>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711
- 11.03279711 10.82962464 10.62645216 10.42327969  8.94851979  7.4737599
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         11.18674566 10.37349132  9.56023698  8.37315799  7.18607899
   5.999     ]</t>
         </is>
       </c>
@@ -44367,7 +44360,7 @@
       </c>
       <c r="D1639" t="inlineStr">
         <is>
-          <t>[22811.02971899 10752.30645192  3563.37157345  2451.84399527]</t>
+          <t>[12543.51992603  8709.60933668  4303.10897648  3053.79327166]</t>
         </is>
       </c>
       <c r="E1639" t="inlineStr">
@@ -44394,7 +44387,7 @@
       </c>
       <c r="D1640" t="inlineStr">
         <is>
-          <t>[342115.89598252 162497.51471768  51142.84487303  20606.45995496]</t>
+          <t>[224283.15368546 156049.68364629  62331.99672015  23013.96833567]</t>
         </is>
       </c>
       <c r="E1640" t="inlineStr">
@@ -44421,7 +44414,7 @@
       </c>
       <c r="D1641" t="inlineStr">
         <is>
-          <t>[342115.89598252 162497.51471768  51142.84487303  20606.45995496]</t>
+          <t>[224283.15368546 156049.68364629  62331.99672015  23013.96833567]</t>
         </is>
       </c>
       <c r="E1641" t="inlineStr">
@@ -44448,7 +44441,7 @@
       </c>
       <c r="D1642" t="inlineStr">
         <is>
-          <t>[8.19832006e+12 3.89402144e+12 1.22556542e+12 4.93804456e+11]</t>
+          <t>[5.37462626e+12 3.73950835e+12 1.49369750e+12 5.51496965e+11]</t>
         </is>
       </c>
       <c r="E1642" t="inlineStr">
@@ -44475,7 +44468,7 @@
       </c>
       <c r="D1643" t="inlineStr">
         <is>
-          <t>[8.19832006e+12 3.89402144e+12 1.22556542e+12 4.93804456e+11]</t>
+          <t>[5.37462626e+12 3.73950835e+12 1.49369750e+12 5.51496965e+11]</t>
         </is>
       </c>
       <c r="E1643" t="inlineStr">
@@ -44502,7 +44495,7 @@
       </c>
       <c r="D1644" t="inlineStr">
         <is>
-          <t>[6.50126781e+12 3.08795900e+12 9.71873376e+11 3.91586934e+11]</t>
+          <t>[4.26207862e+12 2.96543013e+12 1.18450212e+12 4.37337093e+11]</t>
         </is>
       </c>
       <c r="E1644" t="inlineStr">
@@ -44529,7 +44522,7 @@
       </c>
       <c r="D1645" t="inlineStr">
         <is>
-          <t>[5.46633830e+11 2.57663706e+11 8.53911233e+10 5.87549484e+10]</t>
+          <t>[3.00587585e+11 2.08713380e+11 1.03117876e+11 7.31798052e+10]</t>
         </is>
       </c>
       <c r="E1645" t="inlineStr">
@@ -44637,10 +44630,10 @@
       </c>
       <c r="D1649" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.36587564 0.13457388 0.13457388 0.        ]
- [0.         0.         0.77620556 0.28332656 0.28332656 0.        ]
- [0.         0.         2.34216383 0.8753542  0.8753542  0.        ]
- [0.         0.         3.40396861 1.66283227 1.66283227 0.        ]]</t>
+          <t>[[0.         0.         0.66536347 0.22327134 0.22327134 0.        ]
+ [0.         0.         0.95825194 0.3208978  0.3208978  0.        ]
+ [0.         0.         1.93952792 0.72170694 0.72170694 0.        ]
+ [0.         0.         2.73299443 1.41063668 1.41063668 0.        ]]</t>
         </is>
       </c>
       <c r="E1649" t="inlineStr"/>
@@ -44663,10 +44656,10 @@
       </c>
       <c r="D1650" t="inlineStr">
         <is>
-          <t>[[0.60061423 0.60061423 0.         0.         0.         0.06728694]
- [1.27643434 1.27643434 0.         0.         0.         0.14166328]
- [3.85535871 3.85535871 0.         0.         0.         0.4376771 ]
- [5.60264886 5.60264886 0.         0.         0.         0.83141613]]</t>
+          <t>[[1.09418284 1.09418284 0.         0.         0.         0.11163567]
+ [1.57655606 1.57655606 0.         0.         0.         0.1604489 ]
+ [3.19226561 3.19226561 0.         0.         0.         0.36085347]
+ [4.49720555 4.49720555 0.         0.         0.         0.70531834]]</t>
         </is>
       </c>
       <c r="E1650" t="inlineStr"/>
@@ -44689,7 +44682,7 @@
       </c>
       <c r="D1651" t="inlineStr">
         <is>
-          <t>[642.32184126]</t>
+          <t>[590.65427329]</t>
         </is>
       </c>
       <c r="E1651" t="inlineStr"/>
@@ -44712,7 +44705,7 @@
       </c>
       <c r="D1652" t="inlineStr">
         <is>
-          <t>[3958705.18781011]</t>
+          <t>[3068471.48551362]</t>
         </is>
       </c>
       <c r="E1652" t="inlineStr"/>
@@ -44735,8 +44728,8 @@
       </c>
       <c r="D1653" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711
- 10.93121087 10.7280384  10.52486593  9.68589974  8.21113985  6.73637995]</t>
+          <t>[12.         12.         12.         12.         12.         12.
+ 11.59337283 10.78011849  9.96686415  8.96669748  7.77961849  6.5925395 ]</t>
         </is>
       </c>
       <c r="E1653" t="inlineStr"/>
@@ -44759,8 +44752,8 @@
       </c>
       <c r="D1654" t="inlineStr">
         <is>
-          <t>[0.08498703 0.08498703 0.08498703 0.03990636 0.03990636 0.03990636
- 0.01357094 0.01357094 0.01357094 0.01220249 0.01220249 0.01220249]</t>
+          <t>[0.0428     0.0428     0.0428     0.02968782 0.02968782 0.02968782
+ 0.01631282 0.01631282 0.01631282 0.01605    0.01605    0.01605   ]</t>
         </is>
       </c>
       <c r="E1654" t="inlineStr"/>
@@ -44807,18 +44800,18 @@
       </c>
       <c r="D1656" t="inlineStr">
         <is>
-          <t>[[41055139.46813223]
- [37635425.05285645]
- [34208086.27991602]
- [60197646.54002985]
- [48413428.41371191]
- [36615925.24894826]
- [86464281.20287213]
- [66596322.82593396]
- [45030636.47173151]
- [30597870.33093273]
- [ 4275073.92528693]
- [-1789582.22170946]]</t>
+          <t>[[69080351.14817077]
+ [62811854.04691735]
+ [56523424.23728012]
+ [67700022.96650548]
+ [54143605.98327789]
+ [40571262.91803915]
+ [62819772.47514618]
+ [54552724.2495819 ]
+ [42401570.62677491]
+ [28306445.50133147]
+ [ 4536754.71284128]
+ [ -947942.67121179]]</t>
         </is>
       </c>
       <c r="E1656" t="inlineStr"/>
@@ -44841,18 +44834,18 @@
       </c>
       <c r="D1657" t="inlineStr">
         <is>
-          <t>[[ 2154754.60508176]
- [ 2155143.64252418]
- [ 2155497.36752817]
- [ 4573460.94756288]
- [ 4574626.32435831]
- [ 4575570.31464521]
- [13562935.22433514]
- [13867877.75013631]
- [14186318.59361534]
- [17418649.09428837]
- [21285383.35144886]
- [27241206.17792994]]</t>
+          <t>[[ 3861986.6921338 ]
+ [ 3862585.55697595]
+ [ 3863130.58497958]
+ [ 5564987.67933126]
+ [ 5566211.75124646]
+ [ 5567203.64398175]
+ [10532036.50472287]
+ [11474674.01991882]
+ [12597265.9350835 ]
+ [14541975.00697876]
+ [17306608.65053175]
+ [21300272.09505483]]</t>
         </is>
       </c>
       <c r="E1657" t="inlineStr"/>
@@ -44875,18 +44868,18 @@
       </c>
       <c r="D1658" t="inlineStr">
         <is>
-          <t>[[-10048.43784112]
- [-11226.2386947 ]
- [-12098.78640626]
- [-27641.25905838]
- [-29379.76009637]
- [-30839.66406318]
- [-93083.72604706]
- [-93369.98679284]
- [-93452.52774633]
- [-97378.64776076]
- [-83873.0315931 ]
- [-69833.02661198]]</t>
+          <t>[[-21786.67030855]
+ [-24340.33678805]
+ [-26232.16411691]
+ [-40455.96558946]
+ [-43000.44947212]
+ [-45137.17647578]
+ [-82116.24666264]
+ [-78035.23169649]
+ [-73599.17817115]
+ [-68503.7392131 ]
+ [-60383.19399058]
+ [-51928.6553619 ]]</t>
         </is>
       </c>
       <c r="E1658" t="inlineStr"/>
@@ -44939,18 +44932,18 @@
       <c r="C1660" t="inlineStr"/>
       <c r="D1660" t="inlineStr">
         <is>
-          <t>[[0.20973233]
- [0.19241757]
- [0.17507895]
- [0.30893246]
- [0.24962732]
- [0.19065325]
- [0.45601348]
- [0.36035804]
- [0.2611611 ]
- [0.21876555]
- [0.18882441]
- [0.24018476]]</t>
+          <t>[[0.35310753]
+ [0.32139008]
+ [0.28960612]
+ [0.34796199]
+ [0.27986622]
+ [0.21224511]
+ [0.33296299]
+ [0.29553717]
+ [0.24274393]
+ [0.19287588]
+ [0.15424604]
+ [0.1877326 ]]</t>
         </is>
       </c>
       <c r="E1660" t="inlineStr"/>
@@ -44969,18 +44962,18 @@
       <c r="C1661" t="inlineStr"/>
       <c r="D1661" t="inlineStr">
         <is>
-          <t>[[0.0389075 ]
- [0.03541414]
- [0.03200285]
- [0.12772929]
- [0.11978993]
- [0.11197049]
- [1.00838434]
- [0.99349982]
- [0.97927554]
- [1.21714242]
- [1.24023779]
- [1.2931625 ]]</t>
+          <t>[[0.11557547]
+ [0.10976046]
+ [0.10396551]
+ [0.23259449]
+ [0.22084627]
+ [0.20911383]
+ [0.66842414]
+ [0.66035966]
+ [0.65579566]
+ [0.66796907]
+ [0.68223175]
+ [0.71052347]]</t>
         </is>
       </c>
       <c r="E1661" t="inlineStr"/>
@@ -44999,18 +44992,18 @@
       <c r="C1662" t="inlineStr"/>
       <c r="D1662" t="inlineStr">
         <is>
-          <t>[[0.63443489]
- [0.57176082]
- [0.50925766]
- [0.91595766]
- [0.74514985]
- [0.57533316]
- [1.47838735]
- [1.23738273]
- [0.97311809]
- [0.90839457]
- [0.71695719]
- [0.88936011]]</t>
+          <t>[[1.30418226]
+ [1.18407256]
+ [1.06412438]
+ [1.30320327]
+ [1.06485282]
+ [0.82763547]
+ [1.36096826]
+ [1.25846471]
+ [1.11465064]
+ [0.98832055]
+ [0.72640158]
+ [0.8154128 ]]</t>
         </is>
       </c>
       <c r="E1662" t="inlineStr"/>
@@ -45126,7 +45119,7 @@
       </c>
       <c r="D1667" t="inlineStr">
         <is>
-          <t>[0.32842121]</t>
+          <t>[0.30815896]</t>
         </is>
       </c>
       <c r="E1667" t="inlineStr"/>
@@ -45149,7 +45142,7 @@
       </c>
       <c r="D1668" t="inlineStr">
         <is>
-          <t>[0.333497]</t>
+          <t>[0.31184401]</t>
         </is>
       </c>
       <c r="E1668" t="inlineStr"/>
@@ -45172,7 +45165,7 @@
       </c>
       <c r="D1669" t="inlineStr">
         <is>
-          <t>[0.32842121 0.333497   0.87187572 1.0773667  1.26229167 3.06836429]</t>
+          <t>[0.30815896 0.31184401 0.91571451 1.1138868  1.3034187  3.15999586]</t>
         </is>
       </c>
       <c r="E1669" t="inlineStr"/>
@@ -45191,9 +45184,9 @@
       <c r="C1670" t="inlineStr"/>
       <c r="D1670" t="inlineStr">
         <is>
-          <t>[[   0.66061514    0.83706806   -2.02862454    2.59597534   -1.06503399]
- [   8.83611731   33.50624272 -112.76780727  138.39999488  -66.97454765]
- [ -58.54412632  156.42649895 -321.59997571  416.63052337 -191.91292028]]</t>
+          <t>[[   1.0194102     0.45788047   -1.85085243    2.18128461   -0.80772285]
+ [  28.12161256    5.11092024  -99.98352425  147.82877307  -80.07778162]
+ [ -71.89995375  208.7317214  -371.31629827  413.38969573 -177.90516512]]</t>
         </is>
       </c>
       <c r="E1670" t="inlineStr"/>
@@ -45212,9 +45205,9 @@
       <c r="C1671" t="inlineStr"/>
       <c r="D1671" t="inlineStr">
         <is>
-          <t>[[   0.65531639    0.77394381   -1.83334184    2.35336172   -0.94928008]
- [   4.62856846   22.51594586  -72.87531911   89.90614563  -43.17534083]
- [ -57.50287976  150.80898351 -308.77834344  400.6402868  -184.16804711]]</t>
+          <t>[[   1.00893024    0.43479868   -1.74859402    2.04261834   -0.73775323]
+ [  13.12440127    8.08829557  -62.38158728   88.60309575  -46.4342053 ]
+ [ -69.97807491  200.39873077 -354.77453386  394.33310183 -168.97922384]]</t>
         </is>
       </c>
       <c r="E1671" t="inlineStr"/>
@@ -45233,7 +45226,7 @@
       <c r="C1672" t="inlineStr"/>
       <c r="D1672" t="inlineStr">
         <is>
-          <t>[[  3.26938579 -12.98819714  24.28159034 -19.29309293   5.73031394]
+          <t>[[  5.77947363 -21.78571045  38.17796046 -30.28490022   9.11317658]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -45258,7 +45251,7 @@
       </c>
       <c r="D1673" t="inlineStr">
         <is>
-          <t>[0.333497   1.26229167 3.10893101]</t>
+          <t>[0.31184401 1.3034187  3.21471263]</t>
         </is>
       </c>
       <c r="E1673" t="inlineStr"/>
@@ -45281,7 +45274,7 @@
       </c>
       <c r="D1674" t="inlineStr">
         <is>
-          <t>[0.32842121 1.0773667  3.06836429]</t>
+          <t>[0.30815896 1.1138868  3.15999586]</t>
         </is>
       </c>
       <c r="E1674" t="inlineStr"/>
@@ -45304,7 +45297,7 @@
       </c>
       <c r="D1675" t="inlineStr">
         <is>
-          <t>[4.93063867 0.         0.        ]</t>
+          <t>[4.96743897 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1675" t="inlineStr"/>
@@ -45328,18 +45321,18 @@
       <c r="D1676" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00334491]
- [0.01251181]
- [0.02697324]
- [0.06128041]
- [0.11281561]
- [0.17831682]
- [0.22752398]
- [0.28646383]
- [0.35339146]
- [0.42239573]
- [0.49731728]
- [0.57599562]]</t>
+ [0.00518963]
+ [0.01928099]
+ [0.04146819]
+ [0.08898557]
+ [0.1544826 ]
+ [0.23455181]
+ [0.29060012]
+ [0.3540817 ]
+ [0.42479433]
+ [0.49702061]
+ [0.57466493]
+ [0.65547837]]</t>
         </is>
       </c>
       <c r="E1676" t="inlineStr"/>
@@ -45362,7 +45355,7 @@
       </c>
       <c r="D1677" t="inlineStr">
         <is>
-          <t>[0.57599562]</t>
+          <t>[0.65547837]</t>
         </is>
       </c>
       <c r="E1677" t="inlineStr"/>
@@ -45385,17 +45378,17 @@
       </c>
       <c r="D1678" t="inlineStr">
         <is>
-          <t>[[-19200884.56658714]
- [-16588496.29511826]
- [-13974914.98100317]
- [-12201428.29302493]
- [-10426305.63728906]
- [ -8649790.40250703]
- [ -8278619.28923894]
- [ -7914015.03375374]
- [ -7556017.14997785]
- [ -7277943.37059999]
- [ -7042201.05474167]
+          <t>[[-16255836.67088758]
+ [-14811314.84752207]
+ [-13365445.9962467 ]
+ [-11921794.54946671]
+ [-10476284.36510738]
+ [ -9029187.97380585]
+ [ -8559438.76846769]
+ [ -8122526.72482949]
+ [ -7718472.25223763]
+ [ -7384381.78730863]
+ [ -7094467.58694298]
  [ -6848706.78611806]]</t>
         </is>
       </c>
@@ -45419,18 +45412,18 @@
       </c>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>[[2938088.71945346]
- [2938743.75768961]
- [2939340.00657367]
- [2939546.96487083]
- [2940470.38693755]
- [2941220.37770496]
- [2938630.47894641]
- [2938792.5914129 ]
- [2938916.75756008]
- [2938747.23819505]
- [2938665.17190088]
- [2938534.07530458]]</t>
+          <t>[[2938035.03288327]
+ [2938589.0370327 ]
+ [2939093.84671089]
+ [2939780.45865182]
+ [2940566.49114502]
+ [2941205.26651194]
+ [2939036.14820727]
+ [2939106.96086187]
+ [2939149.06558093]
+ [2939012.90644397]
+ [2938925.8195683 ]
+ [2938783.37385564]]</t>
         </is>
       </c>
       <c r="E1679" t="inlineStr"/>
@@ -45453,18 +45446,18 @@
       </c>
       <c r="D1680" t="inlineStr">
         <is>
-          <t>[[8739.92153723]
- [8743.15713582]
- [8746.21838116]
- [8747.54814923]
- [8752.92207028]
- [8757.77842956]
- [8743.57578164]
- [8745.00419577]
- [8746.33829596]
- [8745.77147501]
- [8746.06062194]
- [8746.51191761]]</t>
+          <t>[[8739.66161522]
+ [8742.39710793]
+ [8744.98755512]
+ [8748.68143431]
+ [8753.25132685]
+ [8757.38187016]
+ [8745.76142884]
+ [8746.62178933]
+ [8747.47257685]
+ [8747.31080229]
+ [8747.73509848]
+ [8748.27082173]]</t>
         </is>
       </c>
       <c r="E1680" t="inlineStr"/>
@@ -45487,18 +45480,18 @@
       </c>
       <c r="D1681" t="inlineStr">
         <is>
-          <t>[[-1870292.33928048]
- [-1767960.13418595]
- [-1665293.05360305]
- [-1517873.7814143 ]
- [-1369536.79432359]
- [-1220746.19935835]
- [-1131247.62555041]
- [-1041173.16850882]
- [ -950593.5712912 ]
- [ -865574.23787668]
- [ -779868.28104305]
- [ -693050.77993561]]</t>
+          <t>[[-1873917.02643752]
+ [-1771330.38020754]
+ [-1668226.77643573]
+ [-1520029.1733912 ]
+ [-1370929.15949923]
+ [-1221341.77166423]
+ [-1131448.96080266]
+ [-1041169.43216824]
+ [ -950463.73893231]
+ [ -865357.00074737]
+ [ -779648.49535753]
+ [ -693050.83436847]]</t>
         </is>
       </c>
       <c r="E1681" t="inlineStr"/>
@@ -45521,18 +45514,18 @@
       </c>
       <c r="D1682" t="inlineStr">
         <is>
-          <t>[[ 3.78628563e+08]
- [ 3.44335928e+08]
- [ 3.09979413e+08]
- [ 2.60762866e+08]
- [ 2.11395879e+08]
- [ 1.61974760e+08]
- [ 1.32305619e+08]
- [ 1.02574888e+08]
- [ 7.28024318e+07]
- [ 4.49877574e+07]
- [ 1.71492280e+07]
- [-1.06981123e+07]]</t>
+          <t>[[ 3.79497804e+08]
+ [ 3.45152124e+08]
+ [ 3.10706891e+08]
+ [ 2.61334571e+08]
+ [ 2.11815583e+08]
+ [ 1.62238610e+08]
+ [ 1.32489148e+08]
+ [ 1.02703008e+08]
+ [ 7.28858660e+07]
+ [ 4.50351112e+07]
+ [ 1.71684951e+07]
+ [-1.06981122e+07]]</t>
         </is>
       </c>
       <c r="E1682" t="inlineStr"/>
@@ -45555,18 +45548,18 @@
       </c>
       <c r="D1683" t="inlineStr">
         <is>
-          <t>[[6203211.82535237]
- [6203141.98542791]
- [6203072.10476045]
- [6203421.45314834]
- [6203320.79997881]
- [6203220.05723166]
- [6204082.14106868]
- [6204046.13280307]
- [6204009.87973581]
- [6204222.37466996]
- [6204439.90993631]
- [6204765.7334559 ]]</t>
+          <t>[[6203489.35084322]
+ [6203419.15965161]
+ [6203348.88355277]
+ [6203564.77381977]
+ [6203463.61939681]
+ [6203362.33804012]
+ [6203818.87108396]
+ [6203842.19816935]
+ [6203874.37607398]
+ [6203966.22244155]
+ [6204104.02540711]
+ [6204302.00193764]]</t>
         </is>
       </c>
       <c r="E1683" t="inlineStr"/>
@@ -45591,7 +45584,7 @@
         <is>
           <t>[[ 2.93771262e+06]
  [ 8.73815973e+03]
- [-2.18116909e+07]]</t>
+ [-1.76985806e+07]]</t>
         </is>
       </c>
       <c r="E1684" t="inlineStr"/>
@@ -45614,8 +45607,8 @@
       </c>
       <c r="D1685" t="inlineStr">
         <is>
-          <t>[[-1.97210989e+06]
- [ 4.12817427e+08]
+          <t>[[-1.97582117e+06]
+ [ 4.13705661e+08]
  [ 6.20262840e+06]]</t>
         </is>
       </c>
@@ -45639,7 +45632,7 @@
       </c>
       <c r="D1686" t="inlineStr">
         <is>
-          <t>[2453036.36220593]</t>
+          <t>[2032517.41413412]</t>
         </is>
       </c>
       <c r="E1686" t="inlineStr"/>
@@ -45662,7 +45655,7 @@
       </c>
       <c r="D1687" t="inlineStr">
         <is>
-          <t>[-2.61290457e+00 -3.70622434e-02  8.91387722e+01]</t>
+          <t>[-3.15350308e+00 -4.47302592e-02  1.03638935e+02]</t>
         </is>
       </c>
       <c r="E1687" t="inlineStr"/>
@@ -45685,7 +45678,7 @@
       </c>
       <c r="D1688" t="inlineStr">
         <is>
-          <t>[2.84280241e+10 2.82970912e+10 3.10609423e+08 5.41253437e+02
+          <t>[2.83811696e+10 2.82502367e+10 3.02588701e+08 5.41253437e+02
  1.42357768e+07 1.69892134e+05]</t>
         </is>
       </c>
@@ -51112,7 +51105,7 @@
       </c>
       <c r="D1860" t="inlineStr">
         <is>
-          <t>[2.63015672]</t>
+          <t>[2.82927368]</t>
         </is>
       </c>
       <c r="E1860" t="inlineStr"/>
@@ -53951,8 +53944,7 @@
       </c>
       <c r="D1981" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.77214171 11.88077769 11.44458563
- 11.05777113]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E1981" t="inlineStr">
@@ -53979,7 +53971,8 @@
       </c>
       <c r="D1982" t="inlineStr">
         <is>
-          <t>[[0.077 0.077 0.077 0.077 0.077 0.077 0.077]]</t>
+          <t>[[0.077      0.09463231 0.13       0.09173222 0.10071154 0.077
+  0.09043702]]</t>
         </is>
       </c>
       <c r="E1982" t="inlineStr">
@@ -54937,7 +54930,7 @@
       </c>
       <c r="D2018" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 10.42327969  5.999     ]</t>
+          <t>[12.         12.         12.          9.56023698  5.999     ]</t>
         </is>
       </c>
       <c r="E2018" t="inlineStr">
@@ -54987,7 +54980,7 @@
       </c>
       <c r="D2020" t="inlineStr">
         <is>
-          <t>[[0.10002487 0.05882939 0.01576194 0.00960431 0.01320408]]</t>
+          <t>[[0.04       0.04       0.01549125 0.015      0.015     ]]</t>
         </is>
       </c>
       <c r="E2020" t="inlineStr">

--- a/examples/99_tower_gbf/15mw/60m/outputs_mono/mono_turb_output.xlsx
+++ b/examples/99_tower_gbf/15mw/60m/outputs_mono/mono_turb_output.xlsx
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[10.04686893]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[2.53333311]</t>
+          <t>[2.73393881]</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[10.99999999 10.99999994 10.88163575  5.99900001  5.99900001]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[[0.135 0.135 0.135 0.135 0.135 0.135 0.135]]</t>
+          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -4163,8 +4163,8 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[11.         11.         10.99999999 10.99999999 11.         11.
- 11.        ]</t>
+          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893  9.64968714
+  9.45357936]</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[10.99999999]</t>
+          <t>[8.]</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[9.45357936]</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[[0.055      0.055      0.05440818 0.035      0.035     ]]</t>
+          <t>[[0.06664067 0.02837054 0.025      0.025      0.025     ]]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[10.99999999 10.99999994 10.88163575  5.99900001  5.99900001]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -9843,7 +9843,7 @@
  [  0.   0.  50.]
  [  0.   0. 100.]
  [  0.   0. 130.]
- [  0.   0. 158.]]</t>
+ [  0.   0. 150.]]</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -10160,13 +10160,13 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>[[  0.   0. -90.]
- [  0.   0. -60.]
- [  0.   0. -35.]
- [  0.   0. -10.]
- [  0.   0.   0.]
- [  0.   0.  10.]
- [  0.   0.  15.]]</t>
+          <t>[[   0.    0. -105.]
+ [   0.    0.  -60.]
+ [   0.    0.  -35.]
+ [   0.    0.  -10.]
+ [   0.    0.    0.]
+ [   0.    0.   10.]
+ [   0.    0.   15.]]</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -10392,7 +10392,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>[5.99900001]</t>
+          <t>[6.]</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
@@ -13980,7 +13980,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[1185.02013242]</t>
+          <t>[1047.1434182]</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -14003,7 +14003,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[3707.13183598]</t>
+          <t>[3391.94909641]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -14103,7 +14103,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[1185.02013242]</t>
+          <t>[1047.1434182]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[1773.46019777]</t>
+          <t>[886.89433174]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -14238,7 +14238,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>[654.74691955]</t>
+          <t>[654.77302046]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -14292,7 +14292,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[105.]</t>
+          <t>[120.]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -14319,7 +14319,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>[4138.13701458]</t>
+          <t>[2289.1733609]</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -14346,7 +14346,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[9901272.64927105]</t>
+          <t>[5865080.13345841]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>[92.31116301]</t>
+          <t>[86.61218009]</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
@@ -14465,10 +14465,10 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[   0.            0.            0.            0.            0.
-    0.            0.            0.            0.            0.
-    0.            0.            0.          729.03407772  860.22256947
-  948.63159669  984.81958906 1017.40298706 1047.13901823]</t>
+          <t>[  0.           0.           0.           0.           0.
+   0.           0.           0.           0.           0.
+   0.           0.           0.         659.15636871 766.30728106
+ 832.47169648 857.79496465 879.54847736 898.45278003]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14563,10 +14563,10 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>[-90.         -80.         -70.         -60.         -51.66666667
- -43.33333333 -35.         -26.66666667 -18.33333333 -10.
-  -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.        ]</t>
+          <t>[-105.          -90.          -75.          -60.          -51.66666667
+  -43.33333333  -35.          -26.66666667  -18.33333333  -10.
+   -6.66666667   -3.33333333    0.            3.33333333    6.66666667
+   10.           11.66666667   13.33333333   15.        ]</t>
         </is>
       </c>
       <c r="E555" t="inlineStr"/>
@@ -14612,11 +14612,11 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          12880.31576791
-  13828.8064085   16822.65507325  22342.34178355  31311.24960167
-  45218.65961767  66402.12301299  77726.55417589  91204.25083325
- 107343.10384211      0.              0.              0.
-      0.              0.              0.        ]</t>
+          <t>[    0.             0.             0.         10748.86252523
+ 11540.86315895 14043.88206594 18656.97161044 26162.55366081
+ 37853.78313771 55698.90622113 65244.91194673 76605.11109174
+ 90201.63550759     0.             0.             0.
+     0.             0.             0.        ]</t>
         </is>
       </c>
       <c r="E557" t="inlineStr"/>
@@ -14712,10 +14712,10 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>[-90.         -80.         -70.         -60.         -51.66666667
- -43.33333333 -35.         -26.66666667 -18.33333333 -10.
-  -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.        ]</t>
+          <t>[-105.          -90.          -75.          -60.          -51.66666667
+  -43.33333333  -35.          -26.66666667  -18.33333333  -10.
+   -6.66666667   -3.33333333    0.            3.33333333    6.66666667
+   10.           11.66666667   13.33333333   15.        ]</t>
         </is>
       </c>
       <c r="E561" t="inlineStr"/>
@@ -14761,10 +14761,10 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>[-90.         -80.         -70.         -60.         -51.66666667
- -43.33333333 -35.         -26.66666667 -18.33333333 -10.
-  -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.        ]</t>
+          <t>[-105.          -90.          -75.          -60.          -51.66666667
+  -43.33333333  -35.          -26.66666667  -18.33333333  -10.
+   -6.66666667   -3.33333333    0.            3.33333333    6.66666667
+   10.           11.66666667   13.33333333   15.        ]</t>
         </is>
       </c>
       <c r="E563" t="inlineStr"/>
@@ -14866,10 +14866,10 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         11.         10.99999999
- 10.99999999 10.99999999 10.99999999 10.99999999 11.         11.
- 11.         11.         11.         11.         11.         11.
- 11.        ]</t>
+          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
+ 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
+ 10.04686893  9.914475    9.78208107  9.64968714  9.58431788  9.51894862
+  9.45357936]</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[  0.   0. -90.]</t>
+          <t>[   0.    0. -105.]</t>
         </is>
       </c>
       <c r="E571" t="inlineStr"/>
@@ -15010,9 +15010,9 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>[0.         0.0952381  0.19047619 0.28571429 0.36507937 0.44444444
- 0.52380952 0.6031746  0.68253968 0.76190476 0.79365079 0.82539683
- 0.85714286 0.88888889 0.92063492 0.95238095 0.96825397 0.98412698
+          <t>[0.         0.125      0.25       0.375      0.44444444 0.51388889
+ 0.58333333 0.65277778 0.72222222 0.79166667 0.81944444 0.84722222
+ 0.875      0.90277778 0.93055556 0.95833333 0.97222222 0.98611111
  1.        ]</t>
         </is>
       </c>
@@ -15036,11 +15036,11 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          12880.31576791
-  13828.8064085   16822.65507325  22342.34178355  31311.24960167
-  45218.65961767  66402.12301299  77726.55417589  91204.25083325
- 107343.10384211    729.03407772    860.22256947    948.63159669
-    984.81958906   1017.40298706   1047.13901823]</t>
+          <t>[    0.             0.             0.         10748.86252523
+ 11540.86315895 14043.88206594 18656.97161044 26162.55366081
+ 37853.78313771 55698.90622113 65244.91194673 76605.11109174
+ 90201.63550759   659.15636871   766.30728106   832.47169648
+   857.79496465   879.54847736   898.45278003]</t>
         </is>
       </c>
       <c r="E574" t="inlineStr"/>
@@ -15182,11 +15182,11 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -12880.31576791
-  -13828.8064085   -16822.65507325  -22342.34178355  -31311.24960167
-  -45218.65961767  -66402.12301299  -77726.55417589  -91204.25083325
- -107343.10384211    -729.03407772    -860.22256947    -948.63159669
-    -984.81958906   -1017.40298706   -1047.13901823]</t>
+          <t>[     0.              0.              0.         -10748.86252523
+ -11540.86315895 -14043.88206594 -18656.97161044 -26162.55366081
+ -37853.78313771 -55698.90622113 -65244.91194673 -76605.11109174
+ -90201.63550759   -659.15636871   -766.30728106   -832.47169648
+   -857.79496465   -879.54847736   -898.45278003]</t>
         </is>
       </c>
       <c r="E580" t="inlineStr"/>
@@ -15236,8 +15236,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[-30.         -26.66666667 -23.33333333 -20.         -16.66666667
- -13.33333333 -10.          -6.66666667  -3.33333333  -0.        ]</t>
+          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -15260,26 +15259,26 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
-  1.52133333e+10 1.24226667e+11]
- [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
-  1.40933333e+10 1.24226667e+11]
- [1.84151579e+10 2.94918411e+12 1.84151579e+10 2.94918411e+12
-  1.29733333e+10 1.24226667e+11]
- [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
-  1.18533333e+10 1.24226667e+11]
- [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
-  1.07333333e+10 1.24226667e+11]
- [1.21903158e+10 7.56182633e+11 1.21903158e+10 7.56182633e+11
-  9.61333333e+09 1.24226667e+11]
- [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
-  8.49333333e+09 1.24226667e+11]
- [8.04042105e+09 2.52864773e+11 8.04042105e+09 2.52864773e+11
-  7.37333333e+09 1.24226667e+11]
- [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
-  6.25333333e+09 1.24226667e+11]
- [3.89052631e+09 1.03522222e+11 3.89052631e+09 1.03522222e+11
-  5.13333333e+09 1.24226667e+11]]</t>
+          <t>[[3.15652084e+10 1.87316120e+13 3.15652084e+10 1.87316120e+13
+  1.98085388e+10 9.46518238e+10]
+ [2.84527873e+10 1.32741969e+13 2.84527873e+10 1.32741969e+13
+  1.81285388e+10 9.46518238e+10]
+ [2.53403663e+10 9.01144854e+12 2.53403663e+10 9.01144854e+12
+  1.64485388e+10 9.46518238e+10]
+ [2.22279452e+10 5.79403349e+12 2.22279452e+10 5.79403349e+12
+  1.47685388e+10 9.46518238e+10]
+ [1.91155242e+10 3.47261844e+12 1.91155242e+10 3.47261844e+12
+  1.30885388e+10 9.46518238e+10]
+ [1.60031031e+10 1.89787006e+12 1.60031031e+10 1.89787006e+12
+  1.14085388e+10 9.46518238e+10]
+ [1.28906821e+10 9.20455006e+11 1.28906821e+10 9.20455006e+11
+  9.72853883e+09 9.46518238e+10]
+ [9.77826101e+09 3.91039955e+11 9.77826101e+09 3.91039955e+11
+  8.04853883e+09 9.46518238e+10]
+ [6.66583996e+09 1.60291571e+11 6.66583996e+09 1.60291571e+11
+  6.36853883e+09 9.46518238e+10]
+ [3.55341891e+09 7.88765198e+10 3.55341891e+09 7.88765198e+10
+  4.68853883e+09 9.46518238e+10]]</t>
         </is>
       </c>
       <c r="E583" t="inlineStr"/>
@@ -15302,25 +15301,25 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>[[  0.           0.         -90.        ]
- [  0.           0.         -80.        ]
- [  0.           0.         -70.        ]
- [  0.           0.         -60.        ]
- [  0.           0.         -51.66666667]
- [  0.           0.         -43.33333333]
- [  0.           0.         -35.        ]
- [  0.           0.         -26.66666667]
- [  0.           0.         -18.33333333]
- [  0.           0.         -10.        ]
- [  0.           0.          -6.66666667]
- [  0.           0.          -3.33333333]
- [  0.           0.           0.        ]
- [  0.           0.           3.33333333]
- [  0.           0.           6.66666667]
- [  0.           0.          10.        ]
- [  0.           0.          11.66666667]
- [  0.           0.          13.33333333]
- [  0.           0.          15.        ]]</t>
+          <t>[[   0.            0.         -105.        ]
+ [   0.            0.          -90.        ]
+ [   0.            0.          -75.        ]
+ [   0.            0.          -60.        ]
+ [   0.            0.          -51.66666667]
+ [   0.            0.          -43.33333333]
+ [   0.            0.          -35.        ]
+ [   0.            0.          -26.66666667]
+ [   0.            0.          -18.33333333]
+ [   0.            0.          -10.        ]
+ [   0.            0.           -6.66666667]
+ [   0.            0.           -3.33333333]
+ [   0.            0.            0.        ]
+ [   0.            0.            3.33333333]
+ [   0.            0.            6.66666667]
+ [   0.            0.           10.        ]
+ [   0.            0.           11.66666667]
+ [   0.            0.           13.33333333]
+ [   0.            0.           15.        ]]</t>
         </is>
       </c>
       <c r="E584" t="inlineStr"/>
@@ -15343,9 +15342,9 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>[4.93057023 4.93057023 4.93057023 4.93057023 4.93057023 4.93057023
- 4.93057023 4.93057023 4.93057023 4.93057023 4.93057023 4.93057023
- 4.93057023 4.93057023 4.93057023 4.93057023 4.93057023 4.93057023]</t>
+          <t>[2.34761003 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003
+ 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003
+ 2.33203354 2.30088055 2.26972755 2.24646019 2.23107846 2.21569673]</t>
         </is>
       </c>
       <c r="E585" t="inlineStr"/>
@@ -15368,9 +15367,9 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>[2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795]</t>
+          <t>[1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
+ 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
+ 1.32755152 1.30987455 1.29219763 1.27899522 1.2702673  1.2615394 ]</t>
         </is>
       </c>
       <c r="E586" t="inlineStr"/>
@@ -15393,9 +15392,9 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>[2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795]</t>
+          <t>[1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
+ 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
+ 1.32755152 1.30987455 1.29219763 1.27899522 1.2702673  1.2615394 ]</t>
         </is>
       </c>
       <c r="E587" t="inlineStr"/>
@@ -15418,9 +15417,9 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>[72.76686532 72.76686531 72.76686531 72.76686531 72.76686531 72.7668653
- 72.7668653  72.7668653  72.7668653  72.76686531 72.76686531 72.76686532
- 72.76686532 72.76686532 72.76686532 72.76686532 72.76686532 72.76686532]</t>
+          <t>[29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
+ 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
+ 28.63338373 27.50116581 26.39919553 25.59564985 25.07349251 24.55848546]</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
@@ -15443,9 +15442,9 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>[72.76686532 72.76686531 72.76686531 72.76686531 72.76686531 72.7668653
- 72.7668653  72.7668653  72.7668653  72.76686531 72.76686531 72.76686532
- 72.76686532 72.76686532 72.76686532 72.76686532 72.76686532 72.76686532]</t>
+          <t>[29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
+ 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
+ 28.63338373 27.50116581 26.39919553 25.59564985 25.07349251 24.55848546]</t>
         </is>
       </c>
       <c r="E589" t="inlineStr"/>
@@ -15468,10 +15467,9 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>[145.53373063 145.53373063 145.53373063 145.53373062 145.53373061
- 145.53373061 145.5337306  145.53373061 145.53373061 145.53373061
- 145.53373063 145.53373064 145.53373065 145.53373065 145.53373065
- 145.53373065 145.53373065 145.53373065]</t>
+          <t>[58.42192707 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707
+ 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707
+ 57.26676746 55.00233162 52.79839107 51.1912997  50.14698502 49.11697092]</t>
         </is>
       </c>
       <c r="E590" t="inlineStr"/>
@@ -15567,8 +15565,8 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[0.135 0.135 0.135 0.135 0.135 0.135 0.135 0.135 0.135 0.135 0.135 0.135
- 0.135 0.135 0.135 0.135 0.135 0.135]</t>
+          <t>[0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07
+ 0.07 0.07 0.07 0.07]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr"/>
@@ -15681,17 +15679,17 @@
       <c r="D598" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          26.61331002]
- [  0.           0.          38.22662005]
- [  0.           0.          49.83993007]
- [  0.           0.          66.43037296]
- [  0.           0.          83.02081585]
- [  0.           0.          99.61125874]
- [  0.           0.         109.56552448]
- [  0.           0.         119.51979021]
- [  0.           0.         129.47405594]
- [  0.           0.         138.76470396]
- [  0.           0.         148.05535198]
+ [  0.           0.          27.30150617]
+ [  0.           0.          39.60301235]
+ [  0.           0.          51.90451852]
+ [  0.           0.          69.47809877]
+ [  0.           0.          87.05167901]
+ [  0.           0.         104.62525926]
+ [  0.           0.         115.16940741]
+ [  0.           0.         125.71355556]
+ [  0.           0.         136.2577037 ]
+ [  0.           0.         143.2871358 ]
+ [  0.           0.         150.3165679 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -15715,8 +15713,8 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[2.02354145 2.02354145 2.02354144 2.00908117 2.00182592 1.99457067
- 1.50620998 1.26163391 1.01705783 0.70168038 0.70168038 0.70168038]</t>
+          <t>[1.26993615 1.26993615 1.26993615 0.71522742 0.71522742 0.71522742
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr"/>
@@ -15739,8 +15737,8 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086842 1.15086842 1.14263491 1.13851794 1.13440097
- 0.85642296 0.71763866 0.5788569  0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E600" t="inlineStr"/>
@@ -15763,8 +15761,8 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086842 1.15086842 1.14263491 1.13851794 1.13440097
- 0.85642296 0.71763866 0.5788569  0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E601" t="inlineStr"/>
@@ -15787,8 +15785,8 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>[30.30153398 30.30153384 30.3015337  29.97826346 29.65466516 29.33340401
- 18.91530794 11.11630829  5.82376853  3.11989208  3.11989208  3.11989208]</t>
+          <t>[10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E602" t="inlineStr"/>
@@ -15811,8 +15809,8 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[30.30153398 30.30153384 30.3015337  29.97826346 29.65466516 29.33340401
- 18.91530794 11.11630829  5.82376853  3.11989208  3.11989208  3.11989208]</t>
+          <t>[10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15835,8 +15833,8 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[60.60306795 60.60306768 60.6030674  59.95652692 59.30933033 58.66680803
- 37.83061589 22.23261659 11.64753705  6.23978416  6.23978416  6.23978416]</t>
+          <t>[20.07909508 20.07909508 20.07909508 11.36754921 11.36754921 11.36754921
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15930,9 +15928,9 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>[10.99999999 10.99999997 10.99999996 10.99999994 10.96054521 10.92109048
- 10.88163575  9.2540905   7.62654526  5.99900001  5.99900001  5.99900001
-  5.99900001]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -15955,8 +15953,8 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>[0.055      0.055      0.055      0.05470409 0.05470409 0.05470409
- 0.04470409 0.04470409 0.04470409 0.035      0.035      0.035     ]</t>
+          <t>[0.04750561 0.04750561 0.04750561 0.02668527 0.02668527 0.02668527
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E609" t="inlineStr"/>
@@ -16004,17 +16002,17 @@
       <c r="D611" t="inlineStr">
         <is>
           <t>[[135.7193516 ]
- [155.74123287]
- [169.88212701]
- [181.04996942]
- [193.97594653]
- [204.63727934]
- [213.7833591 ]
- [218.72660661]
- [223.33944433]
- [227.66891335]
- [231.48712289]
- [235.11571637]
+ [156.69843521]
+ [171.33048609]
+ [182.82227714]
+ [196.0755203 ]
+ [206.97905056]
+ [216.31799319]
+ [221.36083569]
+ [226.06408979]
+ [230.47643609]
+ [233.27575427]
+ [235.97256769]
  [238.57517091]]</t>
         </is>
       </c>
@@ -16063,7 +16061,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-8.98577631e+06]]</t>
+ [-8.98603452e+06]]</t>
         </is>
       </c>
       <c r="E613" t="inlineStr"/>
@@ -16086,9 +16084,9 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[[  -692939.78156247]
- [-38693034.479803  ]
- [  6202666.24458035]]</t>
+          <t>[[  -692940.008576  ]
+ [-38693074.08051626]
+ [  6202665.53278366]]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr"/>
@@ -16113,7 +16111,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-2.65624994e+07]]</t>
+ [-1.78302497e+07]]</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16136,9 +16134,9 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[[-1.98369660e+06]
- [ 3.86070578e+08]
- [ 6.20266624e+06]]</t>
+          <t>[[-2.07470512e+06]
+ [ 3.99675202e+08]
+ [ 6.20266553e+06]]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16161,8 +16159,8 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>[1512499.99884119 1512499.99884119 3024999.99768238       0.
-       0.               0.        ]</t>
+          <t>[1117127.0331869 1117127.0331869 2234254.0663738       0.
+       0.              0.       ]</t>
         </is>
       </c>
       <c r="E617" t="inlineStr"/>
@@ -16231,7 +16229,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>[30.]</t>
+          <t>[45.]</t>
         </is>
       </c>
       <c r="E620" t="inlineStr"/>
@@ -16254,7 +16252,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[2721855.4229424]</t>
+          <t>[1835315.65781568]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16277,7 +16275,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[-2.35484590e+00 -3.34018589e-02  9.47743803e+01]</t>
+          <t>[-3.49234377e+00 -4.95415357e-02  1.11680941e+02]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16300,8 +16298,8 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[3.24447335e+10 3.23138006e+10 3.12773659e+08 5.41253414e+02
- 1.42357775e+07 1.69892135e+05]</t>
+          <t>[2.83494914e+10 2.82185583e+10 2.79293911e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16324,7 +16322,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[948395.22517194]</t>
+          <t>[948421.32607936]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16347,8 +16345,8 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>[4.16137377e+08 2.85204501e+08 2.66306106e+08 5.41253414e+02
- 1.42357775e+07 1.69892135e+05]</t>
+          <t>[4.16138017e+08 2.85204924e+08 2.66307067e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -16371,7 +16369,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[-6.7583112  -0.09586197  4.59784123]</t>
+          <t>[-6.75812851 -0.09586916  4.59772556]</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
@@ -16476,25 +16474,25 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>[[      0.        ]
- [      0.        ]
- [      0.        ]
- [ -12880.31576791]
- [ -13828.8064085 ]
- [ -16822.65507325]
- [ -22342.34178355]
- [ -31311.24960167]
- [ -45218.65961767]
- [ -66402.12301299]
- [ -77726.55417589]
- [ -91204.25083325]
- [-107343.10384211]
- [   -729.03407772]
- [   -860.22256947]
- [   -948.63159669]
- [   -984.81958906]
- [  -1017.40298706]
- [  -1047.13901823]]</t>
+          <t>[[     0.        ]
+ [     0.        ]
+ [     0.        ]
+ [-10748.86252523]
+ [-11540.86315895]
+ [-14043.88206594]
+ [-18656.97161044]
+ [-26162.55366081]
+ [-37853.78313771]
+ [-55698.90622113]
+ [-65244.91194673]
+ [-76605.11109174]
+ [-90201.63550759]
+ [  -659.15636871]
+ [  -766.30728106]
+ [  -832.47169648]
+ [  -857.79496465]
+ [  -879.54847736]
+ [  -898.45278003]]</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -16587,19 +16585,19 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[[-1047.13901761]
- [-1206.50663837]
- [-1321.22750498]
- [-1413.1826086 ]
- [-1514.91534826]
- [-1598.07503083]
- [-1668.57106298]
- [-1425.17547244]
- [-1192.35640543]
- [ -962.19898998]
- [ -978.02680829]
- [ -993.06340606]
- [-1007.39507451]]</t>
+          <t>[[ -764.0675664 ]
+ [ -879.89721404]
+ [ -960.79254611]
+ [-1024.48836201]
+ [-1098.19816289]
+ [-1159.08690457]
+ [-1211.44283474]
+ [-1136.90215108]
+ [-1057.80219044]
+ [ -973.99389388]
+ [ -985.59734665]
+ [ -996.77327326]
+ [-1007.55661265]]</t>
         </is>
       </c>
       <c r="E632" t="inlineStr"/>
@@ -16622,10 +16620,10 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[  0.          10.          20.          30.          38.33333333
-  46.66666667  55.          63.33333333  71.66666667  80.
-  83.33333333  86.66666667  90.          93.33333333  96.66666667
- 100.         101.66666667 103.33333333 105.        ]</t>
+          <t>[  0.          15.          30.          45.          53.33333333
+  61.66666667  70.          78.33333333  86.66666667  95.
+  98.33333333 101.66666667 105.         108.33333333 111.66666667
+ 115.         116.66666667 118.33333333 120.        ]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -16721,24 +16719,24 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[[-65861604.15640377]
- [-62090242.20111559]
- [-58255122.68690705]
- [-55002145.93298867]
- [-51732907.02721449]
- [-48428549.7889211 ]
- [-45064427.08529527]
- [-41605939.59260734]
- [-38002702.24054417]
- [-36507769.25784257]
- [-34971912.76948176]
- [-33387189.00526626]
- [-31951749.33694011]
- [-30692006.4118389 ]
- [-29431901.15061102]
- [-28801745.72753619]
- [-28171533.56798735]
- [-27541269.9949876 ]]</t>
+          <t>[[-39696758.56421112]
+ [-37003250.43474583]
+ [-34229932.00061802]
+ [-32641593.47328919]
+ [-31039662.99039391]
+ [-29408378.57244018]
+ [-27727104.63300195]
+ [-25966643.84200126]
+ [-24084345.60080513]
+ [-23286230.95096029]
+ [-22453621.06645763]
+ [-21579832.57083174]
+ [-20835326.28095124]
+ [-20246331.27530593]
+ [-19664993.17111292]
+ [-19377214.83297995]
+ [-19091358.53928717]
+ [-18807429.58586574]]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -16761,24 +16759,24 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>[[ -6999890.39221226]
- [-13638277.75993636]
- [-11016613.61653056]
- [  2938905.10569965]
- [  2939439.57770182]
- [  2939967.57911326]
- [  2940501.2321228 ]
- [  2941058.75497453]
- [  2941668.39707143]
- [  2939494.04259541]
- [  2939617.47492314]
- [  2939753.05451001]
- [  2939714.84666807]
- [  2939457.16128945]
- [  2939513.97039636]
- [  2938634.27955296]
- [  2938647.89008949]
- [  2938661.31278809]]</t>
+          <t>[[ -1318424.28542046]
+ [ -8211287.58623294]
+ [-17700854.20681718]
+ [  2939008.52494558]
+ [  2939696.54496934]
+ [  2940390.62658899]
+ [  2941116.81571912]
+ [  2941914.56622378]
+ [  2942845.38377281]
+ [  2940091.78816303]
+ [  2940301.21500278]
+ [  2940538.13736553]
+ [  2940396.45983783]
+ [  2939776.28057011]
+ [  2939824.49229043]
+ [  2938786.3697227 ]
+ [  2938798.07842858]
+ [  2938809.65845785]]</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
@@ -16801,24 +16799,24 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>[[-30895.27152993]
- [-60765.62252872]
- [-50964.62043567]
- [  8743.3708986 ]
- [  8745.76393704]
- [  8748.16203328]
- [  8750.62100453]
- [  8753.22587423]
- [  8756.10999256]
- [  8746.29314179]
- [  8746.88475993]
- [  8747.5363831 ]
- [  8747.39210955]
- [  8746.23260045]
- [  8746.52426968]
- [  8742.45475849]
- [  8742.52581815]
- [  8742.59630162]]</t>
+          <t>[[ -5845.18307514]
+ [-36556.77989002]
+ [-80351.21676608]
+ [  8743.88478083]
+ [  8746.99014665]
+ [  8750.16538752]
+ [  8753.53146663]
+ [  8757.27404537]
+ [  8761.68581631]
+ [  8749.12841077]
+ [  8750.13139791]
+ [  8751.26873517]
+ [  8750.65306135]
+ [  8747.80112597]
+ [  8748.06196543]
+ [  8743.21259082]
+ [  8743.27755502]
+ [  8743.34238983]]</t>
         </is>
       </c>
       <c r="E639" t="inlineStr"/>
@@ -16841,24 +16839,24 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[[ -420373.39297774]
- [-1424539.5975161 ]
- [-2359112.40197887]
- [-2535062.42168103]
- [-2460113.00322142]
- [-2384682.88009167]
- [-2308868.45659657]
- [-2232765.64487272]
- [-2156471.62768092]
- [-2125962.70207201]
- [-2095450.27514489]
- [-2064940.17436085]
- [-2034440.09410483]
- [-2003949.4002974 ]
- [-1973465.52086375]
- [-1958234.69080332]
- [-1943007.44987215]
- [-1927784.28259792]]</t>
+          <t>[[  -41271.06098287]
+ [ -536761.4923886 ]
+ [-2353164.02959355]
+ [-2685400.20759526]
+ [-2609582.18220358]
+ [-2532948.35071612]
+ [-2455629.46006627]
+ [-2377758.43657379]
+ [-2299474.26601137]
+ [-2268131.46535932]
+ [-2236763.57845282]
+ [-2205380.28620019]
+ [-2173993.30637254]
+ [-2142594.49470486]
+ [-2111170.39170354]
+ [-2095458.00245974]
+ [-2079740.2344092 ]
+ [-2064017.24726693]]</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -16881,24 +16879,24 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[[9.67833266e+07]
- [3.25598005e+08]
- [5.33663980e+08]
- [5.66056148e+08]
- [5.41090635e+08]
- [5.16020332e+08]
- [4.90868412e+08]
- [4.65657538e+08]
- [4.40410232e+08]
- [4.30314940e+08]
- [4.20219860e+08]
- [4.10126294e+08]
- [4.00035922e+08]
- [3.89948601e+08]
- [3.79863774e+08]
- [3.74824136e+08]
- [3.69785523e+08]
- [3.64748037e+08]]</t>
+          <t>[[9.38598487e+06]
+ [1.21800770e+08]
+ [5.27677367e+08]
+ [5.94789071e+08]
+ [5.69633498e+08]
+ [5.44300816e+08]
+ [5.18822594e+08]
+ [4.93230367e+08]
+ [4.67556446e+08]
+ [4.57283162e+08]
+ [4.47005961e+08]
+ [4.36727007e+08]
+ [4.26448867e+08]
+ [4.16169862e+08]
+ [4.05887219e+08]
+ [4.00746516e+08]
+ [3.95605146e+08]
+ [3.90463158e+08]]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16921,24 +16919,24 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[[1205228.24751727]
- [2540187.13942175]
- [4148592.12945142]
- [6203590.53171469]
- [6203538.91208983]
- [6203487.03527567]
- [6203434.60207979]
- [6203381.22144226]
- [6203326.34441733]
- [6203269.17162874]
- [6203245.45174452]
- [6203221.08272189]
- [6203195.93853601]
- [6203173.16315784]
- [6203153.17560668]
- [6203133.18243549]
- [6203123.18426732]
- [6203113.1852312 ]]</t>
+          <t>[[ 810167.19686342]
+ [1868646.24581778]
+ [3499870.39508661]
+ [6203806.21620331]
+ [6203753.27688833]
+ [6203699.88546866]
+ [6203645.51664367]
+ [6203589.48272288]
+ [6203530.81072766]
+ [6203468.07940603]
+ [6203441.48103566]
+ [6203413.73330277]
+ [6203389.41698383]
+ [6203373.90416275]
+ [6203363.32585259]
+ [6203350.30821586]
+ [6203344.93861994]
+ [6203339.56219329]]</t>
         </is>
       </c>
       <c r="E642" t="inlineStr"/>
@@ -16961,13 +16959,13 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>[-90.         -80.         -70.         -60.         -51.66666667
- -43.33333333 -35.         -26.66666667 -18.33333333 -10.
-  -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.          26.61331002
-  38.22662005  49.83993007  66.43037296  83.02081585  99.61125874
- 109.56552448 119.51979021 129.47405594 138.76470396 148.05535198
- 157.346     ]</t>
+          <t>[-105.          -90.          -75.          -60.          -51.66666667
+  -43.33333333  -35.          -26.66666667  -18.33333333  -10.
+   -6.66666667   -3.33333333    0.            3.33333333    6.66666667
+   10.           11.66666667   13.33333333   15.           27.30150617
+   39.60301235   51.90451852   69.47809877   87.05167901  104.62525926
+  115.16940741  125.71355556  136.2577037   143.2871358   150.3165679
+  157.346     ]</t>
         </is>
       </c>
       <c r="E643" t="inlineStr"/>
@@ -16990,12 +16988,12 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         11.         10.99999999
- 10.99999999 10.99999999 10.99999999 10.99999999 11.         11.
- 11.         11.         11.         11.         11.         11.
- 10.99999999 10.99999997 10.99999996 10.99999994 10.96054521 10.92109048
- 10.88163575  9.2540905   7.62654526  5.99900001  5.99900001  5.99900001
-  5.99900001]</t>
+          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
+ 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
+ 10.04686893  9.914475    9.78208107  9.64968714  9.58431788  9.51894862
+  8.          8.          8.          8.          8.          8.
+  8.          7.33333333  6.66666667  6.          6.          6.
+  6.        ]</t>
         </is>
       </c>
       <c r="E644" t="inlineStr"/>
@@ -17018,11 +17016,11 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>[0.135      0.135      0.135      0.135      0.135      0.135
- 0.135      0.135      0.135      0.135      0.135      0.135
- 0.135      0.135      0.135      0.135      0.135      0.135
- 0.055      0.055      0.055      0.05470409 0.05470409 0.05470409
- 0.04470409 0.04470409 0.04470409 0.035      0.035      0.035     ]</t>
+          <t>[0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.04750561 0.04750561 0.04750561 0.02668527 0.02668527 0.02668527
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E645" t="inlineStr"/>
@@ -17170,11 +17168,11 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>[4.93057023 4.93057023 4.93057023 4.93057023 4.93057023 4.93057023
- 4.93057023 4.93057023 4.93057023 4.93057023 4.93057023 4.93057023
- 4.93057023 4.93057023 4.93057023 4.93057023 4.93057023 4.93057023
- 2.02354145 2.02354145 2.02354144 2.00908117 2.00182592 1.99457067
- 1.50620998 1.26163391 1.01705783 0.70168038 0.70168038 0.70168038]</t>
+          <t>[2.34761003 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003
+ 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003
+ 2.33203354 2.30088055 2.26972755 2.24646019 2.23107846 2.21569673
+ 1.26993615 1.26993615 1.26993615 0.71522742 0.71522742 0.71522742
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E651" t="inlineStr"/>
@@ -17197,11 +17195,11 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>[2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 1.15086843 1.15086842 1.15086842 1.14263491 1.13851794 1.13440097
- 0.85642296 0.71763866 0.5788569  0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
+ 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
+ 1.32755152 1.30987455 1.29219763 1.27899522 1.2702673  1.2615394
+ 0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E652" t="inlineStr"/>
@@ -17224,11 +17222,11 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>[2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 1.15086843 1.15086842 1.15086842 1.14263491 1.13851794 1.13440097
- 0.85642296 0.71763866 0.5788569  0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
+ 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
+ 1.32755152 1.30987455 1.29219763 1.27899522 1.2702673  1.2615394
+ 0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E653" t="inlineStr"/>
@@ -17251,11 +17249,11 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>[72.76686532 72.76686531 72.76686531 72.76686531 72.76686531 72.7668653
- 72.7668653  72.7668653  72.7668653  72.76686531 72.76686531 72.76686532
- 72.76686532 72.76686532 72.76686532 72.76686532 72.76686532 72.76686532
- 30.30153398 30.30153384 30.3015337  29.97826346 29.65466516 29.33340401
- 18.91530794 11.11630829  5.82376853  3.11989208  3.11989208  3.11989208]</t>
+          <t>[29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
+ 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
+ 28.63338373 27.50116581 26.39919553 25.59564985 25.07349251 24.55848546
+ 10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E654" t="inlineStr"/>
@@ -17278,11 +17276,11 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>[72.76686532 72.76686531 72.76686531 72.76686531 72.76686531 72.7668653
- 72.7668653  72.7668653  72.7668653  72.76686531 72.76686531 72.76686532
- 72.76686532 72.76686532 72.76686532 72.76686532 72.76686532 72.76686532
- 30.30153398 30.30153384 30.3015337  29.97826346 29.65466516 29.33340401
- 18.91530794 11.11630829  5.82376853  3.11989208  3.11989208  3.11989208]</t>
+          <t>[29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
+ 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
+ 28.63338373 27.50116581 26.39919553 25.59564985 25.07349251 24.55848546
+ 10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E655" t="inlineStr"/>
@@ -17305,12 +17303,11 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>[145.53373063 145.53373063 145.53373063 145.53373062 145.53373061
- 145.53373061 145.5337306  145.53373061 145.53373061 145.53373061
- 145.53373063 145.53373064 145.53373065 145.53373065 145.53373065
- 145.53373065 145.53373065 145.53373065  60.60306795  60.60306768
-  60.6030674   59.95652692  59.30933033  58.66680803  37.83061589
-  22.23261659  11.64753705   6.23978416   6.23978416   6.23978416]</t>
+          <t>[58.42192707 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707
+ 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707
+ 57.26676746 55.00233162 52.79839107 51.1912997  50.14698502 49.11697092
+ 20.07909508 20.07909508 20.07909508 11.36754921 11.36754921 11.36754921
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E656" t="inlineStr"/>
@@ -17333,36 +17330,36 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>[[-6.58616042e+07]
- [-6.20902422e+07]
- [-5.82551227e+07]
- [-5.50021459e+07]
- [-5.17329070e+07]
- [-4.84285498e+07]
- [-4.50644271e+07]
- [-4.16059396e+07]
- [-3.80027022e+07]
- [-3.65077693e+07]
- [-3.49719128e+07]
- [-3.33871890e+07]
- [-3.19517493e+07]
- [-3.06920064e+07]
- [-2.94319012e+07]
- [-2.88017457e+07]
- [-2.81715336e+07]
- [-2.75412700e+07]
- [-2.47510966e+07]
- [-2.29406400e+07]
- [-2.11286078e+07]
- [-1.85566430e+07]
- [-1.59922947e+07]
- [-1.34356348e+07]
- [-1.22727173e+07]
- [-1.12968709e+07]
- [-1.05095901e+07]
- [-1.00010424e+07]
- [-9.49348032e+06]
- [-1.33586582e-08]]</t>
+          <t>[[-3.96967586e+07]
+ [-3.70032504e+07]
+ [-3.42299320e+07]
+ [-3.26415935e+07]
+ [-3.10396630e+07]
+ [-2.94083786e+07]
+ [-2.77271046e+07]
+ [-2.59666438e+07]
+ [-2.40843456e+07]
+ [-2.32862310e+07]
+ [-2.24536211e+07]
+ [-2.15798326e+07]
+ [-2.08353263e+07]
+ [-2.02463313e+07]
+ [-1.96649932e+07]
+ [-1.93772148e+07]
+ [-1.90913585e+07]
+ [-1.88074296e+07]
+ [-1.66217464e+07]
+ [-1.54168092e+07]
+ [-1.42106740e+07]
+ [-1.32320012e+07]
+ [-1.22521330e+07]
+ [-1.12710940e+07]
+ [-1.07407875e+07]
+ [-1.02557818e+07]
+ [-9.81676307e+06]
+ [-9.53971248e+06]
+ [-9.26291313e+06]
+ [-1.08266249e-08]]</t>
         </is>
       </c>
       <c r="E657" t="inlineStr"/>
@@ -17385,36 +17382,36 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>[[-6.99989039e+06]
- [-1.36382778e+07]
- [-1.10166136e+07]
- [ 2.93890511e+06]
- [ 2.93943958e+06]
- [ 2.93996758e+06]
- [ 2.94050123e+06]
- [ 2.94105875e+06]
- [ 2.94166840e+06]
- [ 2.93949404e+06]
- [ 2.93961747e+06]
- [ 2.93975305e+06]
- [ 2.93971485e+06]
- [ 2.93945716e+06]
- [ 2.93951397e+06]
- [ 2.93863428e+06]
- [ 2.93864789e+06]
- [ 2.93866131e+06]
- [ 2.94077888e+06]
- [ 2.94135170e+06]
- [ 2.94186610e+06]
- [ 2.94437340e+06]
- [ 2.94509702e+06]
- [ 2.94564269e+06]
- [ 2.94150278e+06]
- [ 2.94102890e+06]
- [ 2.94050704e+06]
- [ 2.93957074e+06]
- [ 2.93952527e+06]
- [ 1.73283786e+03]]</t>
+          <t>[[-1.31842429e+06]
+ [-8.21128759e+06]
+ [-1.77008542e+07]
+ [ 2.93900852e+06]
+ [ 2.93969654e+06]
+ [ 2.94039063e+06]
+ [ 2.94111682e+06]
+ [ 2.94191457e+06]
+ [ 2.94284538e+06]
+ [ 2.94009179e+06]
+ [ 2.94030122e+06]
+ [ 2.94053814e+06]
+ [ 2.94039646e+06]
+ [ 2.93977628e+06]
+ [ 2.93982449e+06]
+ [ 2.93878637e+06]
+ [ 2.93879808e+06]
+ [ 2.93880966e+06]
+ [ 2.94312110e+06]
+ [ 2.94441898e+06]
+ [ 2.94558615e+06]
+ [ 2.94552887e+06]
+ [ 2.94720273e+06]
+ [ 2.94845535e+06]
+ [ 2.94392332e+06]
+ [ 2.94362542e+06]
+ [ 2.94321360e+06]
+ [ 2.94120745e+06]
+ [ 2.94116740e+06]
+ [ 3.40207373e+03]]</t>
         </is>
       </c>
       <c r="E658" t="inlineStr"/>
@@ -17437,36 +17434,36 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>[[-3.08952715e+04]
- [-6.07656225e+04]
- [-5.09646204e+04]
- [ 8.74337090e+03]
- [ 8.74576394e+03]
- [ 8.74816203e+03]
- [ 8.75062100e+03]
- [ 8.75322587e+03]
- [ 8.75610999e+03]
- [ 8.74629314e+03]
- [ 8.74688476e+03]
- [ 8.74753638e+03]
- [ 8.74739211e+03]
- [ 8.74623260e+03]
- [ 8.74652427e+03]
- [ 8.74245476e+03]
- [ 8.74252582e+03]
- [ 8.74259630e+03]
- [ 8.75267489e+03]
- [ 8.75583959e+03]
- [ 8.75883252e+03]
- [ 8.77229363e+03]
- [ 8.77737352e+03]
- [ 8.78192384e+03]
- [ 8.75992502e+03]
- [ 8.75825980e+03]
- [ 8.75683325e+03]
- [ 8.75281918e+03]
- [ 8.75573146e+03]
- [ 1.88563369e+01]]</t>
+          <t>[[-5.84518308e+03]
+ [-3.65567799e+04]
+ [-8.03512168e+04]
+ [ 8.74388478e+03]
+ [ 8.74699015e+03]
+ [ 8.75016539e+03]
+ [ 8.75353147e+03]
+ [ 8.75727405e+03]
+ [ 8.76168582e+03]
+ [ 8.74912841e+03]
+ [ 8.75013140e+03]
+ [ 8.75126874e+03]
+ [ 8.75065306e+03]
+ [ 8.74780113e+03]
+ [ 8.74806197e+03]
+ [ 8.74321259e+03]
+ [ 8.74327756e+03]
+ [ 8.74334239e+03]
+ [ 8.76412603e+03]
+ [ 8.77129994e+03]
+ [ 8.77809107e+03]
+ [ 8.77950273e+03]
+ [ 8.79117039e+03]
+ [ 8.80151330e+03]
+ [ 8.77664381e+03]
+ [ 8.77672836e+03]
+ [ 8.77670809e+03]
+ [ 8.76460235e+03]
+ [ 8.76623638e+03]
+ [ 2.87900771e+01]]</t>
         </is>
       </c>
       <c r="E659" t="inlineStr"/>
@@ -17489,36 +17486,36 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>[[-4.20373393e+05]
- [-1.42453960e+06]
- [-2.35911240e+06]
- [-2.53506242e+06]
- [-2.46011300e+06]
- [-2.38468288e+06]
- [-2.30886846e+06]
- [-2.23276564e+06]
- [-2.15647163e+06]
- [-2.12596270e+06]
- [-2.09545028e+06]
- [-2.06494017e+06]
- [-2.03444009e+06]
- [-2.00394940e+06]
- [-1.97346552e+06]
- [-1.95823469e+06]
- [-1.94300745e+06]
- [-1.92778428e+06]
- [-1.82136361e+06]
- [-1.71427310e+06]
- [-1.60671772e+06]
- [-1.45245135e+06]
- [-1.29806771e+06]
- [-1.14401623e+06]
- [-1.05202574e+06]
- [-9.60016888e+05]
- [-8.67707646e+05]
- [-7.80904318e+05]
- [-6.93292260e+05]
- [-4.85248871e-04]]</t>
+          <t>[[-4.12710610e+04]
+ [-5.36761492e+05]
+ [-2.35316403e+06]
+ [-2.68540021e+06]
+ [-2.60958218e+06]
+ [-2.53294835e+06]
+ [-2.45562946e+06]
+ [-2.37775844e+06]
+ [-2.29947427e+06]
+ [-2.26813147e+06]
+ [-2.23676358e+06]
+ [-2.20538029e+06]
+ [-2.17399331e+06]
+ [-2.14259449e+06]
+ [-2.11117039e+06]
+ [-2.09545800e+06]
+ [-2.07974023e+06]
+ [-2.06401725e+06]
+ [-1.94708858e+06]
+ [-1.82835073e+06]
+ [-1.70830338e+06]
+ [-1.53366381e+06]
+ [-1.35494938e+06]
+ [-1.17358654e+06]
+ [-1.06419606e+06]
+ [-9.54062300e+05]
+ [-8.42952516e+05]
+ [-7.68366384e+05]
+ [-6.93345610e+05]
+ [-2.48599436e-04]]</t>
         </is>
       </c>
       <c r="E660" t="inlineStr"/>
@@ -17541,36 +17538,36 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>[[ 9.67833266e+07]
- [ 3.25598005e+08]
- [ 5.33663980e+08]
- [ 5.66056148e+08]
- [ 5.41090635e+08]
- [ 5.16020332e+08]
- [ 4.90868412e+08]
- [ 4.65657538e+08]
- [ 4.40410232e+08]
- [ 4.30314940e+08]
- [ 4.20219860e+08]
- [ 4.10126294e+08]
- [ 4.00035922e+08]
- [ 3.89948601e+08]
- [ 3.79863774e+08]
- [ 3.74824136e+08]
- [ 3.69785523e+08]
- [ 3.64748037e+08]
- [ 3.29586920e+08]
- [ 2.94314794e+08]
- [ 2.58976914e+08]
- [ 2.08424323e+08]
- [ 1.57913296e+08]
- [ 1.07529449e+08]
- [ 7.74144899e+07]
- [ 4.73419803e+07]
- [ 1.73016223e+07]
- [-1.07042936e+07]
- [-3.86609148e+07]
- [ 4.45923285e-02]]</t>
+          <t>[[ 9.38598487e+06]
+ [ 1.21800770e+08]
+ [ 5.27677367e+08]
+ [ 5.94789071e+08]
+ [ 5.69633498e+08]
+ [ 5.44300816e+08]
+ [ 5.18822594e+08]
+ [ 4.93230367e+08]
+ [ 4.67556446e+08]
+ [ 4.57283162e+08]
+ [ 4.47005961e+08]
+ [ 4.36727007e+08]
+ [ 4.26448867e+08]
+ [ 4.16169862e+08]
+ [ 4.05887219e+08]
+ [ 4.00746516e+08]
+ [ 3.95605146e+08]
+ [ 3.90463158e+08]
+ [ 3.52358733e+08]
+ [ 3.13944291e+08]
+ [ 2.75330020e+08]
+ [ 2.19718111e+08]
+ [ 1.63588597e+08]
+ [ 1.07247880e+08]
+ [ 7.34877573e+07]
+ [ 3.97524745e+07]
+ [ 6.06878390e+06]
+ [-1.63214257e+07]
+ [-3.86452899e+07]
+ [ 2.93737846e-02]]</t>
         </is>
       </c>
       <c r="E661" t="inlineStr"/>
@@ -17593,35 +17590,35 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>[[1205228.24751727]
- [2540187.13942175]
- [4148592.12945142]
- [6203590.53171469]
- [6203538.91208983]
- [6203487.03527567]
- [6203434.60207979]
- [6203381.22144226]
- [6203326.34441733]
- [6203269.17162874]
- [6203245.45174452]
- [6203221.08272189]
- [6203195.93853601]
- [6203173.16315784]
- [6203153.17560668]
- [6203133.18243549]
- [6203123.18426732]
- [6203113.1852312 ]
- [6203693.08624718]
- [6203623.11811473]
- [6203553.11613811]
- [6203488.93456034]
- [6203391.39671249]
- [6203293.45101728]
- [6203364.03782066]
- [6203427.21171344]
- [6203535.16219509]
- [6203837.9912268 ]
- [6203781.2814767 ]
+          <t>[[ 810167.19686342]
+ [1868646.24581778]
+ [3499870.39508661]
+ [6203806.21620331]
+ [6203753.27688833]
+ [6203699.88546866]
+ [6203645.51664367]
+ [6203589.48272288]
+ [6203530.81072766]
+ [6203468.07940603]
+ [6203441.48103566]
+ [6203413.73330277]
+ [6203389.41698383]
+ [6203373.90416275]
+ [6203363.32585259]
+ [6203350.30821586]
+ [6203344.93861994]
+ [6203339.56219329]
+ [6203763.71258188]
+ [6203689.46591382]
+ [6203615.22798421]
+ [6204220.01057543]
+ [6204112.93048606]
+ [6204005.72331981]
+ [6204038.64365427]
+ [6204099.11896089]
+ [6204179.06465725]
+ [6204195.10155977]
+ [6204151.9234288 ]
  [      0.        ]]</t>
         </is>
       </c>
@@ -17664,17 +17661,17 @@
  [1.27775357e+02]
  [1.31936564e+02]
  [1.35719352e+02]
- [1.55741233e+02]
- [1.69882127e+02]
- [1.81049969e+02]
- [1.93975947e+02]
- [2.04637279e+02]
- [2.13783359e+02]
- [2.18726607e+02]
- [2.23339444e+02]
- [2.27668913e+02]
- [2.31487123e+02]
- [2.35115716e+02]
+ [1.56698435e+02]
+ [1.71330486e+02]
+ [1.82822277e+02]
+ [1.96075520e+02]
+ [2.06979051e+02]
+ [2.16317993e+02]
+ [2.21360836e+02]
+ [2.26064090e+02]
+ [2.30476436e+02]
+ [2.33275754e+02]
+ [2.35972568e+02]
  [2.38575171e+02]]</t>
         </is>
       </c>
@@ -17721,7 +17718,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>[40682.04567273]</t>
+          <t>[40686.9261128]</t>
         </is>
       </c>
       <c r="E665" t="inlineStr"/>
@@ -18273,7 +18270,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>[117977.9324509]</t>
+          <t>[117992.08572713]</t>
         </is>
       </c>
       <c r="E689" t="inlineStr"/>
@@ -18296,7 +18293,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>[209392.02100822]</t>
+          <t>[209453.42241018]</t>
         </is>
       </c>
       <c r="E690" t="inlineStr"/>
@@ -18319,7 +18316,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>[25227.95433834]</t>
+          <t>[25235.35209761]</t>
         </is>
       </c>
       <c r="E691" t="inlineStr"/>
@@ -18457,7 +18454,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>[41458.17729193]</t>
+          <t>[41472.]</t>
         </is>
       </c>
       <c r="E697" t="inlineStr"/>
@@ -18480,7 +18477,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>[708934.83169202]</t>
+          <t>[709171.2]</t>
         </is>
       </c>
       <c r="E698" t="inlineStr"/>
@@ -18618,7 +18615,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>[9681293.55593278]</t>
+          <t>[9681605.47891894]</t>
         </is>
       </c>
       <c r="E704" t="inlineStr"/>
@@ -18641,7 +18638,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>[654746.91954979]</t>
+          <t>[654773.0204572]</t>
         </is>
       </c>
       <c r="E705" t="inlineStr"/>
@@ -18664,7 +18661,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>[4494267.39270624]</t>
+          <t>[2425804.75646027]</t>
         </is>
       </c>
       <c r="E706" t="inlineStr"/>
@@ -18687,7 +18684,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>[1773460.19777046]</t>
+          <t>[886894.33173633]</t>
         </is>
       </c>
       <c r="E707" t="inlineStr"/>
@@ -18710,7 +18707,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>[17775301.9862485]</t>
+          <t>[15707151.27298869]</t>
         </is>
       </c>
       <c r="E708" t="inlineStr"/>
@@ -18733,7 +18730,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>[1185.02013242]</t>
+          <t>[1047.1434182]</t>
         </is>
       </c>
       <c r="E709" t="inlineStr"/>
@@ -18756,7 +18753,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>[2721855.4229424]</t>
+          <t>[1835315.65781568]</t>
         </is>
       </c>
       <c r="E710" t="inlineStr"/>
@@ -18825,7 +18822,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>[4494267.39270624]</t>
+          <t>[2425804.75646027]</t>
         </is>
       </c>
       <c r="E713" t="inlineStr"/>
@@ -18848,7 +18845,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>[4494267.39270624]</t>
+          <t>[2425804.75646027]</t>
         </is>
       </c>
       <c r="E714" t="inlineStr"/>
@@ -18898,7 +18895,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>[0.32565251]</t>
+          <t>[0.17782039]</t>
         </is>
       </c>
       <c r="E716" t="inlineStr"/>
@@ -19020,9 +19017,9 @@
       <c r="D720" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          49.83993007]
- [  0.           0.          99.61125874]
- [  0.           0.         129.47405594]
+ [  0.           0.          51.90451852]
+ [  0.           0.         104.62525926]
+ [  0.           0.         136.2577037 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -19046,9 +19043,9 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[1047.13901761 1206.50663837 1321.22750498 1413.1826086  1514.91534826
- 1598.07503083 1668.57106298 1425.17547244 1192.35640543  962.19898998
-  978.02680829  993.06340606 1007.39507451]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E721" t="inlineStr"/>
@@ -19117,9 +19114,9 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E724" t="inlineStr"/>
@@ -19142,9 +19139,9 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E725" t="inlineStr"/>
@@ -19190,9 +19187,9 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E727" t="inlineStr"/>
@@ -19261,8 +19258,8 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>[14.88565131 15.94588977 16.65408583 17.19278299 17.79593838 18.27844853
- 18.68245315 18.89721312 19.09543997 19.27963559 19.44063167 19.59240654
+          <t>[14.88565131 15.99481728 16.72492878 17.27672858 17.89198978 18.38273594
+ 18.79287721 19.01066664 19.21156496 19.39814576 19.51559311 19.62807517
  19.73601994]</t>
         </is>
       </c>
@@ -19286,9 +19283,9 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>[10.99999999 10.99999997 10.99999996 10.99999994 10.96054521 10.92109048
- 10.88163575  9.2540905   7.62654526  5.99900001  5.99900001  5.99900001
-  5.99900001]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E731" t="inlineStr"/>
@@ -19357,8 +19354,8 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>[0.         0.08158508 0.16317016 0.24475524 0.36130536 0.47785548
- 0.59440559 0.66433566 0.73426573 0.8041958  0.86946387 0.93473193
+          <t>[0.         0.08641975 0.17283951 0.25925926 0.38271605 0.50617284
+ 0.62962963 0.7037037  0.77777778 0.85185185 0.90123457 0.95061728
  1.        ]</t>
         </is>
       </c>
@@ -19382,9 +19379,9 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>[1047.13901761 1206.50663837 1321.22750498 1413.1826086  1514.91534826
- 1598.07503083 1668.57106298 1425.17547244 1192.35640543  962.19898998
-  978.02680829  993.06340606 1007.39507451]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E735" t="inlineStr"/>
@@ -19453,9 +19450,9 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr"/>
@@ -19524,10 +19521,10 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>[-1047.13901761 -1206.50663837 -1321.22750498 -1413.1826086
- -1514.91534826 -1598.07503083 -1668.57106298 -1425.17547244
- -1192.35640543  -962.19898998  -978.02680829  -993.06340606
- -1007.39507451]</t>
+          <t>[ -764.0675664   -879.89721404  -960.79254611 -1024.48836201
+ -1098.19816289 -1159.08690457 -1211.44283474 -1136.90215108
+ -1057.80219044  -973.99389388  -985.59734665  -996.77327326
+ -1007.55661265]</t>
         </is>
       </c>
       <c r="E741" t="inlineStr"/>
@@ -19550,9 +19547,9 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E742" t="inlineStr"/>
@@ -19575,9 +19572,9 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>[  0.          11.61331002  23.22662005  34.83993007  51.43037296
-  68.02081585  84.61125874  94.56552448 104.51979021 114.47405594
- 123.76470396 133.05535198 142.346     ]</t>
+          <t>[  0.          12.30150617  24.60301235  36.90451852  54.47809877
+  72.05167901  89.62525926 100.16940741 110.71355556 121.2577037
+ 128.2871358  135.3165679  142.346     ]</t>
         </is>
       </c>
       <c r="E743" t="inlineStr"/>
@@ -19600,8 +19597,8 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[0.055      0.055      0.055      0.05470409 0.05470409 0.05470409
- 0.04470409 0.04470409 0.04470409 0.035      0.035      0.035     ]</t>
+          <t>[0.04750561 0.04750561 0.04750561 0.02668527 0.02668527 0.02668527
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr"/>
@@ -19742,8 +19739,8 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>[2.02354145 2.02354145 2.02354144 2.00908117 2.00182592 1.99457067
- 1.50620998 1.26163391 1.01705783 0.70168038 0.70168038 0.70168038]</t>
+          <t>[1.26993615 1.26993615 1.26993615 0.71522742 0.71522742 0.71522742
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E750" t="inlineStr"/>
@@ -19766,8 +19763,8 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086842 1.15086842 1.14263491 1.13851794 1.13440097
- 0.85642296 0.71763866 0.5788569  0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E751" t="inlineStr"/>
@@ -19790,8 +19787,8 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086842 1.15086842 1.14263491 1.13851794 1.13440097
- 0.85642296 0.71763866 0.5788569  0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E752" t="inlineStr"/>
@@ -19814,8 +19811,8 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>[30.30153398 30.30153384 30.3015337  29.97826346 29.65466516 29.33340401
- 18.91530794 11.11630829  5.82376853  3.11989208  3.11989208  3.11989208]</t>
+          <t>[10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E753" t="inlineStr"/>
@@ -19838,8 +19835,8 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>[30.30153398 30.30153384 30.3015337  29.97826346 29.65466516 29.33340401
- 18.91530794 11.11630829  5.82376853  3.11989208  3.11989208  3.11989208]</t>
+          <t>[10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E754" t="inlineStr"/>
@@ -19862,8 +19859,8 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>[60.60306795 60.60306768 60.6030674  59.95652692 59.30933033 58.66680803
- 37.83061589 22.23261659 11.64753705  6.23978416  6.23978416  6.23978416]</t>
+          <t>[20.07909508 20.07909508 20.07909508 11.36754921 11.36754921 11.36754921
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E755" t="inlineStr"/>
@@ -19957,8 +19954,8 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>[11.61331002 11.61331002 11.61331002 16.59044289 16.59044289 16.59044289
-  9.95426573  9.95426573  9.95426573  9.29064802  9.29064802  9.29064802]</t>
+          <t>[12.30150617 12.30150617 12.30150617 17.57358025 17.57358025 17.57358025
+ 10.54414815 10.54414815 10.54414815  7.0294321   7.0294321   7.0294321 ]</t>
         </is>
       </c>
       <c r="E759" t="inlineStr"/>
@@ -19981,18 +19978,18 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>[[-24752042.79436587]
- [-22940010.59538337]
- [-21126790.30096526]
- [-18553234.94240928]
- [-15987368.19432161]
- [-13429446.42295768]
- [-12267380.89754865]
- [-11293880.98341578]
- [-10508881.44955891]
- [-10001319.38440369]
- [ -9493615.37795444]
- [ -8985776.31055301]]</t>
+          <t>[[-16625312.44847957]
+ [-15419177.3281543 ]
+ [-14212161.75587995]
+ [-13232293.60433982]
+ [-12251254.58977036]
+ [-11269230.46898932]
+ [-10739039.70396258]
+ [-10254835.92416175]
+ [ -9816667.50035037]
+ [ -9539868.15269822]
+ [ -9262989.54291178]
+ [ -8986034.52447547]]</t>
         </is>
       </c>
       <c r="E760" t="inlineStr"/>
@@ -20015,18 +20012,18 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>[[2938067.27710159]
- [2938678.56518166]
- [2939230.77265199]
- [2940705.35866811]
- [2941529.15204987]
- [2942177.9098115 ]
- [2939966.89008094]
- [2939781.43796143]
- [2939568.77270911]
- [2939046.11441231]
- [2939110.29474313]
- [2939069.33404808]]</t>
+          <t>[[2938459.87356706]
+ [2939803.02697745]
+ [2941011.72696409]
+ [2941894.43968498]
+ [2943685.731534  ]
+ [2945066.44157265]
+ [2942154.55180007]
+ [2942061.42979912]
+ [2941874.49860629]
+ [2940415.98028637]
+ [2940428.00597652]
+ [2940392.27457241]]</t>
         </is>
       </c>
       <c r="E761" t="inlineStr"/>
@@ -20049,18 +20046,18 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>[[8739.94807956]
- [8743.21715414]
- [8746.31106847]
- [8754.72887701]
- [8760.12394199]
- [8765.00238618]
- [8752.34441743]
- [8752.00762922]
- [8751.99043547]
- [8749.93844265]
- [8753.22011713]
- [8756.17548938]]</t>
+          <t>[[8742.02628345]
+ [8749.29455974]
+ [8756.16121334]
+ [8761.90477965]
+ [8773.88571117]
+ [8784.59227698]
+ [8767.67793947]
+ [8768.66453374]
+ [8769.64387421]
+ [8760.32353247]
+ [8762.15363861]
+ [8763.82577335]]</t>
         </is>
       </c>
       <c r="E762" t="inlineStr"/>
@@ -20083,18 +20080,18 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>[[-1881614.77558092]
- [-1778534.13793609]
- [-1674662.58804012]
- [-1525187.4334852 ]
- [-1374949.87975225]
- [-1224415.00123378]
- [-1134168.29257993]
- [-1043717.03902728]
- [ -952779.88886581]
- [ -867069.92727919]
- [ -780378.64347999]
- [ -692941.93152325]]</t>
+          <t>[[-1965816.47883407]
+ [-1854551.08228554]
+ [-1741403.87563288]
+ [-1575758.88033283]
+ [-1405268.95065116]
+ [-1231355.96103513]
+ [-1125988.05326912]
+ [-1019597.03668918]
+ [ -911936.74668032]
+ [ -839466.28437838]
+ [ -766426.51830283]
+ [ -692940.93564226]]</t>
         </is>
       </c>
       <c r="E763" t="inlineStr"/>
@@ -20117,18 +20114,18 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>[[ 3.51833919e+08]
- [ 3.17410963e+08]
- [ 2.82848358e+08]
- [ 2.33296259e+08]
- [ 1.83642662e+08]
- [ 1.33978687e+08]
- [ 1.04216970e+08]
- [ 7.44555941e+07]
- [ 4.46817086e+07]
- [ 1.68757299e+07]
- [-1.09288445e+07]
- [-3.86931093e+07]]</t>
+          <t>[[ 3.63266605e+08]
+ [ 3.26419548e+08]
+ [ 2.89244513e+08]
+ [ 2.35489865e+08]
+ [ 1.81033079e+08]
+ [ 1.26183457e+08]
+ [ 9.32166157e+07]
+ [ 6.02083411e+07]
+ [ 2.71801903e+07]
+ [ 5.18220804e+06]
+ [-1.67831091e+07]
+ [-3.86931099e+07]]</t>
         </is>
       </c>
       <c r="E764" t="inlineStr"/>
@@ -20151,18 +20148,18 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>[[6203693.1582591 ]
- [6203623.15470181]
- [6203553.09180302]
- [6203488.86378329]
- [6203391.26351609]
- [6203293.25778457]
- [6203363.71638663]
- [6203426.88079017]
- [6203534.93218794]
- [6203837.91219985]
- [6203781.3123658 ]
- [6203724.69773661]]</t>
+          <t>[[6203763.92533861]
+ [6203689.68562692]
+ [6203615.37388822]
+ [6204220.17335364]
+ [6204112.96248107]
+ [6204005.62721206]
+ [6204038.41657645]
+ [6204098.8856325 ]
+ [6204178.92503671]
+ [6204195.08666501]
+ [6204151.94768982]
+ [6204108.79696184]]</t>
         </is>
       </c>
       <c r="E765" t="inlineStr"/>
@@ -20186,17 +20183,17 @@
       <c r="D766" t="inlineStr">
         <is>
           <t>[[135.7193516 ]
- [155.74123287]
- [169.88212701]
- [181.04996942]
- [193.97594653]
- [204.63727934]
- [213.7833591 ]
- [218.72660661]
- [223.33944433]
- [227.66891335]
- [231.48712289]
- [235.11571637]
+ [156.69843521]
+ [171.33048609]
+ [182.82227714]
+ [196.0755203 ]
+ [206.97905056]
+ [216.31799319]
+ [221.36083569]
+ [226.06408979]
+ [230.47643609]
+ [233.27575427]
+ [235.97256769]
  [238.57517091]]</t>
         </is>
       </c>
@@ -20221,17 +20218,17 @@
       <c r="D767" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          26.61331002]
- [  0.           0.          38.22662005]
- [  0.           0.          49.83993007]
- [  0.           0.          66.43037296]
- [  0.           0.          83.02081585]
- [  0.           0.          99.61125874]
- [  0.           0.         109.56552448]
- [  0.           0.         119.51979021]
- [  0.           0.         129.47405594]
- [  0.           0.         138.76470396]
- [  0.           0.         148.05535198]
+ [  0.           0.          27.30150617]
+ [  0.           0.          39.60301235]
+ [  0.           0.          51.90451852]
+ [  0.           0.          69.47809877]
+ [  0.           0.          87.05167901]
+ [  0.           0.         104.62525926]
+ [  0.           0.         115.16940741]
+ [  0.           0.         125.71355556]
+ [  0.           0.         136.2577037 ]
+ [  0.           0.         143.2871358 ]
+ [  0.           0.         150.3165679 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -20255,7 +20252,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>[948395.22517194]</t>
+          <t>[948421.32607936]</t>
         </is>
       </c>
       <c r="E768" t="inlineStr"/>
@@ -20278,8 +20275,8 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>[4.16137377e+08 2.85204501e+08 2.66306106e+08 5.41253414e+02
- 1.42357775e+07 1.69892135e+05]</t>
+          <t>[4.16138017e+08 2.85204924e+08 2.66307067e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E769" t="inlineStr"/>
@@ -20302,7 +20299,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>[-6.7583112  -0.09586197  4.59784123]</t>
+          <t>[-6.75812851 -0.09586916  4.59772556]</t>
         </is>
       </c>
       <c r="E770" t="inlineStr"/>
@@ -20327,7 +20324,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-8.98577631e+06]]</t>
+ [-8.98603452e+06]]</t>
         </is>
       </c>
       <c r="E771" t="inlineStr"/>
@@ -20350,9 +20347,9 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>[[  -692939.78156247]
- [-38693034.479803  ]
- [  6202666.24458035]]</t>
+          <t>[[  -692940.008576  ]
+ [-38693074.08051626]
+ [  6202665.53278366]]</t>
         </is>
       </c>
       <c r="E772" t="inlineStr"/>
@@ -20445,19 +20442,19 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>[[-1047.13901761]
- [-1206.50663837]
- [-1321.22750498]
- [-1413.1826086 ]
- [-1514.91534826]
- [-1598.07503083]
- [-1668.57106298]
- [-1425.17547244]
- [-1192.35640543]
- [ -962.19898998]
- [ -978.02680829]
- [ -993.06340606]
- [-1007.39507451]]</t>
+          <t>[[ -764.0675664 ]
+ [ -879.89721404]
+ [ -960.79254611]
+ [-1024.48836201]
+ [-1098.19816289]
+ [-1159.08690457]
+ [-1211.44283474]
+ [-1136.90215108]
+ [-1057.80219044]
+ [ -973.99389388]
+ [ -985.59734665]
+ [ -996.77327326]
+ [-1007.55661265]]</t>
         </is>
       </c>
       <c r="E775" t="inlineStr"/>
@@ -20480,7 +20477,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>[1773460.19777046]</t>
+          <t>[886894.33173633]</t>
         </is>
       </c>
       <c r="E776" t="inlineStr"/>
@@ -20503,7 +20500,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>[58.85409508]</t>
+          <t>[57.93124972]</t>
         </is>
       </c>
       <c r="E777" t="inlineStr"/>
@@ -20526,7 +20523,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>[8.54845121e+09 8.54845121e+09 4.64675524e+07 0.00000000e+00
+          <t>[4.45256229e+09 4.45256229e+09 1.29868431e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -20550,8 +20547,8 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>[11.         11.         10.99999999 10.99999999 11.         11.
- 11.        ]</t>
+          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893  9.64968714
+  9.45357936]</t>
         </is>
       </c>
       <c r="E779" t="inlineStr"/>
@@ -20574,7 +20571,7 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>[0.135 0.135 0.135 0.135 0.135 0.135]</t>
+          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
         </is>
       </c>
       <c r="E780" t="inlineStr"/>
@@ -20593,7 +20590,7 @@
       <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr">
         <is>
-          <t>[0.         0.28571429 0.52380952 0.76190476 0.85714286 0.95238095
+          <t>[0.         0.375      0.58333333 0.79166667 0.875      0.95833333
  1.        ]</t>
         </is>
       </c>
@@ -20617,7 +20614,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>[105.]</t>
+          <t>[120.]</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
@@ -20640,8 +20637,8 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>[11.         11.         10.99999999 10.99999999 11.         11.
- 11.        ]</t>
+          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893  9.64968714
+  9.45357936]</t>
         </is>
       </c>
       <c r="E783" t="inlineStr"/>
@@ -20664,7 +20661,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>[0.135 0.135 0.135 0.135 0.135 0.135]</t>
+          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
         </is>
       </c>
       <c r="E784" t="inlineStr"/>
@@ -20817,7 +20814,7 @@
       <c r="C791" t="inlineStr"/>
       <c r="D791" t="inlineStr">
         <is>
-          <t>[0.         0.28571429 0.52380952 0.76190476 0.85714286 0.95238095
+          <t>[0.         0.375      0.58333333 0.79166667 0.875      0.95833333
  1.        ]</t>
         </is>
       </c>
@@ -20837,7 +20834,7 @@
       <c r="C792" t="inlineStr"/>
       <c r="D792" t="inlineStr">
         <is>
-          <t>[0.28571429]</t>
+          <t>[0.375]</t>
         </is>
       </c>
       <c r="E792" t="inlineStr"/>
@@ -20903,7 +20900,7 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>[4038137.01457869]</t>
+          <t>[2189173.36090061]</t>
         </is>
       </c>
       <c r="E795" t="inlineStr"/>
@@ -20926,7 +20923,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>[9401272.64927105]</t>
+          <t>[5365080.13345841]</t>
         </is>
       </c>
       <c r="E796" t="inlineStr"/>
@@ -20949,7 +20946,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>[52.5]</t>
+          <t>[59.79426401]</t>
         </is>
       </c>
       <c r="E797" t="inlineStr"/>
@@ -20972,7 +20969,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>[1.48997496e+10 1.48997496e+10 1.19192125e+08 0.00000000e+00
+          <t>[1.04659886e+10 1.04659886e+10 5.40954512e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -20996,7 +20993,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>[1773460.19777046]</t>
+          <t>[886894.33173633]</t>
         </is>
       </c>
       <c r="E799" t="inlineStr"/>
@@ -21019,7 +21016,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>[4494267.39270624]</t>
+          <t>[2425804.75646027]</t>
         </is>
       </c>
       <c r="E800" t="inlineStr"/>
@@ -21042,7 +21039,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>[105.]</t>
+          <t>[120.]</t>
         </is>
       </c>
       <c r="E801" t="inlineStr"/>
@@ -21088,7 +21085,7 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>[-90.]</t>
+          <t>[-105.]</t>
         </is>
       </c>
       <c r="E803" t="inlineStr"/>
@@ -21111,7 +21108,7 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[10.04686893]</t>
         </is>
       </c>
       <c r="E804" t="inlineStr"/>
@@ -22826,7 +22823,7 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>[10.99999999 10.99999994 10.88163575  5.99900001  5.99900001]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
@@ -22849,7 +22846,7 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>[0.055      0.05470409 0.04470409 0.035     ]</t>
+          <t>[0.04750561 0.02668527 0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E841" t="inlineStr"/>
@@ -22868,7 +22865,7 @@
       <c r="C842" t="inlineStr"/>
       <c r="D842" t="inlineStr">
         <is>
-          <t>[0.         0.24475524 0.59440559 0.8041958  1.        ]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E842" t="inlineStr"/>
@@ -22914,7 +22911,7 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>[10.99999999 10.99999994 10.88163575  5.99900001  5.99900001]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E844" t="inlineStr"/>
@@ -22937,7 +22934,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>[0.055      0.05470409 0.04470409 0.035     ]</t>
+          <t>[0.04750561 0.02668527 0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E845" t="inlineStr"/>
@@ -23090,7 +23087,7 @@
       <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr">
         <is>
-          <t>[0.         0.24475524 0.59440559 0.8041958  1.        ]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E852" t="inlineStr"/>
@@ -24268,9 +24265,9 @@
       <c r="D886" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          49.83993007]
- [  0.           0.          99.61125874]
- [  0.           0.         129.47405594]
+ [  0.           0.          51.90451852]
+ [  0.           0.         104.62525926]
+ [  0.           0.         136.2577037 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -24530,7 +24527,7 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>[0.00718846]</t>
+          <t>[0.00718672]</t>
         </is>
       </c>
       <c r="E897" t="inlineStr"/>
@@ -24622,7 +24619,7 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>[0.02944534]</t>
+          <t>[0.02944651]</t>
         </is>
       </c>
       <c r="E901" t="inlineStr"/>
@@ -25256,7 +25253,7 @@
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>[0.00311439]</t>
+          <t>[0.00311352]</t>
         </is>
       </c>
       <c r="E929" t="inlineStr"/>
@@ -25279,7 +25276,7 @@
       </c>
       <c r="D930" t="inlineStr">
         <is>
-          <t>[0.00090783]</t>
+          <t>[0.0009076]</t>
         </is>
       </c>
       <c r="E930" t="inlineStr"/>
@@ -27126,7 +27123,7 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>[0.         4.87450001 1.875     ]</t>
+          <t>[0.    4.875 1.875]</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr"/>
@@ -27195,7 +27192,7 @@
       </c>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>[ 0.         -4.87450001  1.875     ]</t>
+          <t>[ 0.    -4.875  1.875]</t>
         </is>
       </c>
       <c r="E1013" t="inlineStr"/>
@@ -27241,7 +27238,7 @@
       </c>
       <c r="D1015" t="inlineStr">
         <is>
-          <t>[25227.95433834]</t>
+          <t>[25235.35209761]</t>
         </is>
       </c>
       <c r="E1015" t="inlineStr"/>
@@ -27310,7 +27307,7 @@
       </c>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>[33949.45553645]</t>
+          <t>[33954.33597653]</t>
         </is>
       </c>
       <c r="E1018" t="inlineStr"/>
@@ -27333,7 +27330,7 @@
       </c>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>[-0.8853722   0.          2.40318707]</t>
+          <t>[-0.88533715  0.          2.40314516]</t>
         </is>
       </c>
       <c r="E1019" t="inlineStr"/>
@@ -27356,8 +27353,8 @@
       </c>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>[388014.25676973 426867.90316609 247893.0899488       0.
-  87517.08490924      0.        ]</t>
+          <t>[388100.94902959 426951.50388173 247988.45095814      0.
+  87515.58729723      0.        ]</t>
         </is>
       </c>
       <c r="E1020" t="inlineStr"/>
@@ -27449,7 +27446,7 @@
       </c>
       <c r="D1024" t="inlineStr">
         <is>
-          <t>[41458.17729193]</t>
+          <t>[41472.]</t>
         </is>
       </c>
       <c r="E1024" t="inlineStr"/>
@@ -27495,7 +27492,7 @@
       </c>
       <c r="D1026" t="inlineStr">
         <is>
-          <t>[497337.83804898 497337.83804898 994664.62058402]</t>
+          <t>[497669.5296 497669.5296 995328.    ]</t>
         </is>
       </c>
       <c r="E1026" t="inlineStr"/>
@@ -27681,8 +27678,8 @@
       </c>
       <c r="D1034" t="inlineStr">
         <is>
-          <t>[-2.99950001 -3.00741148 -3.03098483 -3.06974019 -3.1228886  -3.18934811
- -3.2677658  -3.35654532 -3.45387936 -3.55778649 -3.66615146 -3.77676827]</t>
+          <t>[-3.         -3.00790638 -3.03146457 -3.070195   -3.12330922 -3.18972598
+ -3.26809323 -3.35681564 -3.45408707 -3.55792736 -3.66622262 -3.77676827]</t>
         </is>
       </c>
       <c r="E1034" t="inlineStr"/>
@@ -27729,8 +27726,8 @@
       </c>
       <c r="D1036" t="inlineStr">
         <is>
-          <t>[ 2.99950001  2.93052736  2.72501353  2.38714216  1.92379136  1.34439359
-  0.66074375 -0.11324105 -0.9618047  -1.86767288 -2.81240475 -3.77676827]</t>
+          <t>[ 3.          2.93102227  2.72549327  2.38759697  1.92421198  1.34477147
+  0.66107117 -0.11297073 -0.96159699 -1.86753202 -2.81233359 -3.77676827]</t>
         </is>
       </c>
       <c r="E1036" t="inlineStr"/>
@@ -27777,8 +27774,8 @@
       </c>
       <c r="D1038" t="inlineStr">
         <is>
-          <t>[5.99900001 5.94618741 5.78927315 5.5328837  5.18494689 4.75714325
- 4.26586324 3.73421035 3.19612251 2.70412972 2.3389862  2.2       ]</t>
+          <t>[6.         5.94717584 5.79022711 5.53378083 5.1857657  4.75786351
+ 4.26646632 3.73467992 3.19644643 2.70430582 2.33903815 2.2       ]</t>
         </is>
       </c>
       <c r="E1038" t="inlineStr"/>
@@ -27993,7 +27990,7 @@
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>[136801.54377189]</t>
+          <t>[136822.76423923]</t>
         </is>
       </c>
       <c r="E1047" t="inlineStr"/>
@@ -28131,7 +28128,7 @@
       </c>
       <c r="D1053" t="inlineStr">
         <is>
-          <t>[654746.91954979]</t>
+          <t>[654773.0204572]</t>
         </is>
       </c>
       <c r="E1053" t="inlineStr"/>
@@ -28154,7 +28151,7 @@
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>[-3.85552185 -0.13885522  4.08556732]</t>
+          <t>[-3.85537294 -0.13886393  4.08542019]</t>
         </is>
       </c>
       <c r="E1054" t="inlineStr"/>
@@ -28177,8 +28174,8 @@
       </c>
       <c r="D1055" t="inlineStr">
         <is>
-          <t>[2.01661599e+07 2.92791485e+07 1.79410345e+07 5.41253414e+02
- 1.20568495e+07 1.69892135e+05]</t>
+          <t>[2.01667992e+07 2.92795715e+07 1.79419955e+07 5.41567843e+02
+ 1.20568466e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E1055" t="inlineStr"/>
@@ -30727,7 +30724,7 @@
       </c>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>[0.09231116]</t>
+          <t>[0.08661218]</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
@@ -30804,7 +30801,7 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>[-232.88431799]</t>
+          <t>[-207.51298858]</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
@@ -30831,7 +30828,7 @@
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>[-0.05231116]</t>
+          <t>[-0.04661218]</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr">
@@ -30858,7 +30855,7 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>[0.12331116]</t>
+          <t>[0.11761218]</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr">
@@ -30881,7 +30878,7 @@
       <c r="C1136" t="inlineStr"/>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>[0.43331704]</t>
+          <t>[0.46182881]</t>
         </is>
       </c>
       <c r="E1136" t="inlineStr">
@@ -30904,7 +30901,7 @@
       <c r="C1137" t="inlineStr"/>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>[2.30777908]</t>
+          <t>[2.1653045]</t>
         </is>
       </c>
       <c r="E1137" t="inlineStr">
@@ -30927,7 +30924,7 @@
       <c r="C1138" t="inlineStr"/>
       <c r="D1138" t="inlineStr">
         <is>
-          <t>[-0.56668296]</t>
+          <t>[-0.53817119]</t>
         </is>
       </c>
       <c r="E1138" t="inlineStr">
@@ -30950,7 +30947,7 @@
       <c r="C1139" t="inlineStr"/>
       <c r="D1139" t="inlineStr">
         <is>
-          <t>[-1.30777908]</t>
+          <t>[-1.1653045]</t>
         </is>
       </c>
       <c r="E1139" t="inlineStr">
@@ -30977,7 +30974,7 @@
       </c>
       <c r="D1140" t="inlineStr">
         <is>
-          <t>[0.16385231]</t>
+          <t>[0.15373662]</t>
         </is>
       </c>
       <c r="E1140" t="inlineStr">
@@ -31004,7 +31001,7 @@
       </c>
       <c r="D1141" t="inlineStr">
         <is>
-          <t>[9.06029102e+08]</t>
+          <t>[7.16919458e+08]</t>
         </is>
       </c>
       <c r="E1141" t="inlineStr">
@@ -31031,7 +31028,7 @@
       </c>
       <c r="D1142" t="inlineStr">
         <is>
-          <t>[2.2242791e+09]</t>
+          <t>[2.03516946e+09]</t>
         </is>
       </c>
       <c r="E1142" t="inlineStr">
@@ -31058,7 +31055,7 @@
       </c>
       <c r="D1143" t="inlineStr">
         <is>
-          <t>[3707.13183598]</t>
+          <t>[3391.94909641]</t>
         </is>
       </c>
       <c r="E1143" t="inlineStr">
@@ -31085,7 +31082,7 @@
       </c>
       <c r="D1144" t="inlineStr">
         <is>
-          <t>[11061.33065355]</t>
+          <t>[8805.08932022]</t>
         </is>
       </c>
       <c r="E1144" t="inlineStr">
@@ -31112,7 +31109,7 @@
       </c>
       <c r="D1145" t="inlineStr">
         <is>
-          <t>[2.4808987e+08]</t>
+          <t>[2.21191127e+08]</t>
         </is>
       </c>
       <c r="E1145" t="inlineStr">
@@ -31139,11 +31136,11 @@
       </c>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          12880.31576791
-  13828.8064085   16822.65507325  22342.34178355  31311.24960167
-  45218.65961767  66402.12301299  77726.55417589  91204.25083325
- 107343.10384211    729.03407772    860.22256947    948.63159669
-    984.81958906   1017.40298706   1047.13901823]</t>
+          <t>[    0.             0.             0.         10748.86252523
+ 11540.86315895 14043.88206594 18656.97161044 26162.55366081
+ 37853.78313771 55698.90622113 65244.91194673 76605.11109174
+ 90201.63550759   659.15636871   766.30728106   832.47169648
+   857.79496465   879.54847736   898.45278003]</t>
         </is>
       </c>
       <c r="E1146" t="inlineStr"/>
@@ -31393,11 +31390,11 @@
       </c>
       <c r="D1156" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          12880.31576791
-  13828.8064085   16822.65507325  22342.34178355  31311.24960167
-  45218.65961767  66402.12301299  77726.55417589  91204.25083325
- 107343.10384211      0.              0.              0.
-      0.              0.              0.        ]</t>
+          <t>[    0.             0.             0.         10748.86252523
+ 11540.86315895 14043.88206594 18656.97161044 26162.55366081
+ 37853.78313771 55698.90622113 65244.91194673 76605.11109174
+ 90201.63550759     0.             0.             0.
+     0.             0.             0.        ]</t>
         </is>
       </c>
       <c r="E1156" t="inlineStr"/>
@@ -31519,10 +31516,10 @@
       </c>
       <c r="D1161" t="inlineStr">
         <is>
-          <t>[-90.         -80.         -70.         -60.         -51.66666667
- -43.33333333 -35.         -26.66666667 -18.33333333 -10.
-  -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.        ]</t>
+          <t>[-105.          -90.          -75.          -60.          -51.66666667
+  -43.33333333  -35.          -26.66666667  -18.33333333  -10.
+   -6.66666667   -3.33333333    0.            3.33333333    6.66666667
+   10.           11.66666667   13.33333333   15.        ]</t>
         </is>
       </c>
       <c r="E1161" t="inlineStr"/>
@@ -31594,10 +31591,10 @@
       </c>
       <c r="D1164" t="inlineStr">
         <is>
-          <t>[   0.            0.            0.            0.            0.
-    0.            0.            0.            0.            0.
-    0.            0.            0.          729.03407772  860.22256947
-  948.63159669  984.81958906 1017.40298706 1047.13901823]</t>
+          <t>[  0.           0.           0.           0.           0.
+   0.           0.           0.           0.           0.
+   0.           0.           0.         659.15636871 766.30728106
+ 832.47169648 857.79496465 879.54847736 898.45278003]</t>
         </is>
       </c>
       <c r="E1164" t="inlineStr"/>
@@ -31692,10 +31689,10 @@
       </c>
       <c r="D1168" t="inlineStr">
         <is>
-          <t>[-90.         -80.         -70.         -60.         -51.66666667
- -43.33333333 -35.         -26.66666667 -18.33333333 -10.
-  -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.        ]</t>
+          <t>[-105.          -90.          -75.          -60.          -51.66666667
+  -43.33333333  -35.          -26.66666667  -18.33333333  -10.
+   -6.66666667   -3.33333333    0.            3.33333333    6.66666667
+   10.           11.66666667   13.33333333   15.        ]</t>
         </is>
       </c>
       <c r="E1168" t="inlineStr"/>
@@ -31787,11 +31784,11 @@
       </c>
       <c r="D1172" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -12880.31576791
-  -13828.8064085   -16822.65507325  -22342.34178355  -31311.24960167
-  -45218.65961767  -66402.12301299  -77726.55417589  -91204.25083325
- -107343.10384211    -729.03407772    -860.22256947    -948.63159669
-    -984.81958906   -1017.40298706   -1047.13901823]</t>
+          <t>[     0.              0.              0.         -10748.86252523
+ -11540.86315895 -14043.88206594 -18656.97161044 -26162.55366081
+ -37853.78313771 -55698.90622113 -65244.91194673 -76605.11109174
+ -90201.63550759   -659.15636871   -766.30728106   -832.47169648
+   -857.79496465   -879.54847736   -898.45278003]</t>
         </is>
       </c>
       <c r="E1172" t="inlineStr"/>
@@ -31841,11 +31838,11 @@
       </c>
       <c r="D1174" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          8.33333333  8.33333333  8.33333333
+          <t>[15.         15.         15.          8.33333333  8.33333333  8.33333333
   8.33333333  8.33333333  8.33333333  3.33333333  3.33333333  3.33333333
   3.33333333  3.33333333  3.33333333  1.66666667  1.66666667  1.66666667
- 11.61331002 11.61331002 11.61331002 16.59044289 16.59044289 16.59044289
-  9.95426573  9.95426573  9.95426573  9.29064802  9.29064802  9.29064802]</t>
+ 12.30150617 12.30150617 12.30150617 17.57358025 17.57358025 17.57358025
+ 10.54414815 10.54414815 10.54414815  7.0294321   7.0294321   7.0294321 ]</t>
         </is>
       </c>
       <c r="E1174" t="inlineStr"/>
@@ -31868,7 +31865,7 @@
       </c>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>[0.22010707]</t>
+          <t>[0.13644402]</t>
         </is>
       </c>
       <c r="E1175" t="inlineStr"/>
@@ -31891,7 +31888,7 @@
       </c>
       <c r="D1176" t="inlineStr">
         <is>
-          <t>[0.22083362]</t>
+          <t>[0.13708572]</t>
         </is>
       </c>
       <c r="E1176" t="inlineStr"/>
@@ -31914,7 +31911,7 @@
       </c>
       <c r="D1177" t="inlineStr">
         <is>
-          <t>[0.22010707 0.22083362 0.91530021 0.97523844 1.05353033 1.6281902 ]</t>
+          <t>[0.13644402 0.13708572 0.68587532 0.69952867 0.74905237 1.32308939]</t>
         </is>
       </c>
       <c r="E1177" t="inlineStr"/>
@@ -31937,7 +31934,7 @@
       </c>
       <c r="D1178" t="inlineStr">
         <is>
-          <t>[0.22083362 0.97523844 1.78554331]</t>
+          <t>[0.13708572 0.74905237 1.44967621]</t>
         </is>
       </c>
       <c r="E1178" t="inlineStr"/>
@@ -31960,7 +31957,7 @@
       </c>
       <c r="D1179" t="inlineStr">
         <is>
-          <t>[0.22010707 0.91530021 1.6281902 ]</t>
+          <t>[0.13644402 0.69952867 1.32308939]</t>
         </is>
       </c>
       <c r="E1179" t="inlineStr"/>
@@ -31983,7 +31980,7 @@
       </c>
       <c r="D1180" t="inlineStr">
         <is>
-          <t>[4.57949784 0.         0.        ]</t>
+          <t>[3.91890977 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1180" t="inlineStr"/>
@@ -32002,12 +31999,9 @@
       <c r="C1181" t="inlineStr"/>
       <c r="D1181" t="inlineStr">
         <is>
-          <t>[[ 1.01070224e+00  1.67522088e-02  1.45114569e-01 -2.89326886e-01
-   1.16757867e-01]
- [-2.79509733e+00 -1.91201430e-01  1.50331676e+01 -2.01128440e+01
-   9.06597513e+00]
- [-7.83526317e+00  1.11793002e+01  1.62683688e+01 -6.85614948e+00
-  -1.17562564e+01]]</t>
+          <t>[[  0.66183722   0.61259571  -1.62659557   2.94963104  -1.5974684 ]
+ [ -3.87962615  -2.52981786  16.55323853 -12.48240865   3.33861413]
+ [ -8.11383388  -0.85493357  55.13934603 -52.05696138   6.8863828 ]]</t>
         </is>
       </c>
       <c r="E1181" t="inlineStr"/>
@@ -32026,12 +32020,9 @@
       <c r="C1182" t="inlineStr"/>
       <c r="D1182" t="inlineStr">
         <is>
-          <t>[[ 1.00505695e+00  1.16349880e-02  1.84811888e-01 -3.54974048e-01
-   1.53470226e-01]
- [-2.73677382e+00 -5.57020256e-01  1.60021775e+01 -2.22972648e+01
-   1.05888813e+01]
- [-5.98966620e+00  7.40247699e+00  1.18469844e+01 -3.39928262e+00
-  -8.86051256e+00]]</t>
+          <t>[[  0.6578611    0.60932529  -1.61210078   2.93062196  -1.58570757]
+ [ -3.90718582  -2.64202138  16.32805758 -12.97340277   4.19455239]
+ [ -6.73019159  -1.52862309  41.61372131 -34.61273707   2.25783044]]</t>
         </is>
       </c>
       <c r="E1182" t="inlineStr"/>
@@ -32050,7 +32041,7 @@
       <c r="C1183" t="inlineStr"/>
       <c r="D1183" t="inlineStr">
         <is>
-          <t>[[ -3.9003423    5.38473214  19.01235436 -37.20235963  17.70561542]
+          <t>[[ -0.86050737  -0.66672423  10.63452368 -10.65343065   2.54613857]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -32071,12 +32062,9 @@
       <c r="C1184" t="inlineStr"/>
       <c r="D1184" t="inlineStr">
         <is>
-          <t>[[ 9.92906911e-01  7.93083036e-03  4.83886807e-02 -6.90810564e-02
-   1.98546342e-02]
- [ 1.99566661e+02 -2.62169269e+01 -4.91755601e+02  4.64886313e+02
-  -1.45480446e+02]
- [-9.46783343e-01  6.90743457e-01  3.39681263e+00 -2.46225440e+00
-   3.21481655e-01]]</t>
+          <t>[[ 0.83458724  0.10233413 -0.10938371  0.27979474 -0.1073324 ]
+ [ 3.2198335   0.36519198 -4.65609049  2.67518891 -0.60412389]
+ [-2.02313764  0.05714206  7.31823862 -5.40636974  1.0541267 ]]</t>
         </is>
       </c>
       <c r="E1184" t="inlineStr"/>
@@ -32095,12 +32083,9 @@
       <c r="C1185" t="inlineStr"/>
       <c r="D1185" t="inlineStr">
         <is>
-          <t>[[ 9.90707666e-01  7.71619762e-03  5.83048341e-02 -8.12968894e-02
-   2.45681918e-02]
- [ 1.63465702e+01 -1.70286967e+00 -4.03533271e+01  3.96197881e+01
-  -1.29101616e+01]
- [-1.26153128e+00  7.23659304e-01  3.83221523e+00 -2.61672517e+00
-   3.22381911e-01]]</t>
+          <t>[[ 0.83278649  0.10212919 -0.10621788  0.27777002 -0.10646783]
+ [ 2.79940327  0.32382572 -3.80086968  2.2200333  -0.54239262]
+ [-3.036654   -0.05313157  9.33462643 -6.39079424  1.14595338]]</t>
         </is>
       </c>
       <c r="E1185" t="inlineStr"/>
@@ -32119,7 +32104,7 @@
       <c r="C1186" t="inlineStr"/>
       <c r="D1186" t="inlineStr">
         <is>
-          <t>[[-1.20466423  1.23384536  5.88341501 -7.27743031  2.36483416]
+          <t>[[-0.61117577 -0.06392884  4.01259056 -2.99068105  0.6531951 ]
  [ 0.          0.          0.          0.          0.        ]
  [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
@@ -32144,37 +32129,37 @@
       </c>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>[[3.10211568e-04]
- [4.06273709e-04]
- [2.59127810e-04]
- [3.58694120e-03]
- [9.69519786e-03]
- [1.85050697e-02]
- [2.98973339e-02]
- [4.37522709e-02]
- [5.99497736e-02]
- [7.83694545e-02]
- [8.63324929e-02]
- [9.46240703e-02]
- [1.03236472e-01]
- [1.12161986e-01]
- [1.21392907e-01]
- [1.30921537e-01]
- [1.35795079e-01]
- [1.40740159e-01]
- [1.45755815e-01]
- [1.85104945e-01]
- [2.31790107e-01]
- [2.85025953e-01]
- [3.70944315e-01]
- [4.66481585e-01]
- [5.69385432e-01]
- [6.34261977e-01]
- [7.01870831e-01]
- [7.72472296e-01]
- [8.40276853e-01]
- [9.06600752e-01]
- [9.70014835e-01]]</t>
+          <t>[[4.17679136e-05]
+ [3.10101356e-04]
+ [7.36214185e-04]
+ [5.80830881e-03]
+ [1.94039434e-02]
+ [4.00715231e-02]
+ [6.75117700e-02]
+ [1.01423306e-01]
+ [1.41503023e-01]
+ [1.87446454e-01]
+ [2.07397152e-01]
+ [2.28217599e-01]
+ [2.49888224e-01]
+ [2.72398412e-01]
+ [2.95754247e-01]
+ [3.19969598e-01]
+ [3.32402792e-01]
+ [3.45056056e-01]
+ [3.57931105e-01]
+ [4.68301638e-01]
+ [6.05232530e-01]
+ [7.65827641e-01]
+ [1.04642198e+00]
+ [1.38672067e+00]
+ [1.77147336e+00]
+ [2.01841044e+00]
+ [2.27533762e+00]
+ [2.53938209e+00]
+ [2.71660049e+00]
+ [2.89201805e+00]
+ [3.06473330e+00]]</t>
         </is>
       </c>
       <c r="E1187" t="inlineStr"/>
@@ -32197,7 +32182,7 @@
       </c>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>[0.97001484]</t>
+          <t>[3.0647333]</t>
         </is>
       </c>
       <c r="E1188" t="inlineStr"/>
@@ -32220,24 +32205,24 @@
       </c>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>[[-65861604.15640377]
- [-62090242.20111559]
- [-58255122.68690705]
- [-55002145.93298867]
- [-51732907.02721449]
- [-48428549.7889211 ]
- [-45064427.08529527]
- [-41605939.59260734]
- [-38002702.24054417]
- [-36507769.25784257]
- [-34971912.76948176]
- [-33387189.00526626]
- [-31951749.33694011]
- [-30692006.4118389 ]
- [-29431901.15061102]
- [-28801745.72753619]
- [-28171533.56798735]
- [-27541269.9949876 ]]</t>
+          <t>[[-39696758.56421112]
+ [-37003250.43474583]
+ [-34229932.00061802]
+ [-32641593.47328919]
+ [-31039662.99039391]
+ [-29408378.57244018]
+ [-27727104.63300195]
+ [-25966643.84200126]
+ [-24084345.60080513]
+ [-23286230.95096029]
+ [-22453621.06645763]
+ [-21579832.57083174]
+ [-20835326.28095124]
+ [-20246331.27530593]
+ [-19664993.17111292]
+ [-19377214.83297995]
+ [-19091358.53928717]
+ [-18807429.58586574]]</t>
         </is>
       </c>
       <c r="E1189" t="inlineStr"/>
@@ -32260,24 +32245,24 @@
       </c>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>[[ -6999890.39221226]
- [-13638277.75993636]
- [-11016613.61653056]
- [  2938905.10569965]
- [  2939439.57770182]
- [  2939967.57911326]
- [  2940501.2321228 ]
- [  2941058.75497453]
- [  2941668.39707143]
- [  2939494.04259541]
- [  2939617.47492314]
- [  2939753.05451001]
- [  2939714.84666807]
- [  2939457.16128945]
- [  2939513.97039636]
- [  2938634.27955296]
- [  2938647.89008949]
- [  2938661.31278809]]</t>
+          <t>[[ -1318424.28542046]
+ [ -8211287.58623294]
+ [-17700854.20681718]
+ [  2939008.52494558]
+ [  2939696.54496934]
+ [  2940390.62658899]
+ [  2941116.81571912]
+ [  2941914.56622378]
+ [  2942845.38377281]
+ [  2940091.78816303]
+ [  2940301.21500278]
+ [  2940538.13736553]
+ [  2940396.45983783]
+ [  2939776.28057011]
+ [  2939824.49229043]
+ [  2938786.3697227 ]
+ [  2938798.07842858]
+ [  2938809.65845785]]</t>
         </is>
       </c>
       <c r="E1190" t="inlineStr"/>
@@ -32300,24 +32285,24 @@
       </c>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>[[-30895.27152993]
- [-60765.62252872]
- [-50964.62043567]
- [  8743.3708986 ]
- [  8745.76393704]
- [  8748.16203328]
- [  8750.62100453]
- [  8753.22587423]
- [  8756.10999256]
- [  8746.29314179]
- [  8746.88475993]
- [  8747.5363831 ]
- [  8747.39210955]
- [  8746.23260045]
- [  8746.52426968]
- [  8742.45475849]
- [  8742.52581815]
- [  8742.59630162]]</t>
+          <t>[[ -5845.18307514]
+ [-36556.77989002]
+ [-80351.21676608]
+ [  8743.88478083]
+ [  8746.99014665]
+ [  8750.16538752]
+ [  8753.53146663]
+ [  8757.27404537]
+ [  8761.68581631]
+ [  8749.12841077]
+ [  8750.13139791]
+ [  8751.26873517]
+ [  8750.65306135]
+ [  8747.80112597]
+ [  8748.06196543]
+ [  8743.21259082]
+ [  8743.27755502]
+ [  8743.34238983]]</t>
         </is>
       </c>
       <c r="E1191" t="inlineStr"/>
@@ -32340,24 +32325,24 @@
       </c>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>[[ -420373.39297774]
- [-1424539.5975161 ]
- [-2359112.40197887]
- [-2535062.42168103]
- [-2460113.00322142]
- [-2384682.88009167]
- [-2308868.45659657]
- [-2232765.64487272]
- [-2156471.62768092]
- [-2125962.70207201]
- [-2095450.27514489]
- [-2064940.17436085]
- [-2034440.09410483]
- [-2003949.4002974 ]
- [-1973465.52086375]
- [-1958234.69080332]
- [-1943007.44987215]
- [-1927784.28259792]]</t>
+          <t>[[  -41271.06098287]
+ [ -536761.4923886 ]
+ [-2353164.02959355]
+ [-2685400.20759526]
+ [-2609582.18220358]
+ [-2532948.35071612]
+ [-2455629.46006627]
+ [-2377758.43657379]
+ [-2299474.26601137]
+ [-2268131.46535932]
+ [-2236763.57845282]
+ [-2205380.28620019]
+ [-2173993.30637254]
+ [-2142594.49470486]
+ [-2111170.39170354]
+ [-2095458.00245974]
+ [-2079740.2344092 ]
+ [-2064017.24726693]]</t>
         </is>
       </c>
       <c r="E1192" t="inlineStr"/>
@@ -32380,24 +32365,24 @@
       </c>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>[[9.67833266e+07]
- [3.25598005e+08]
- [5.33663980e+08]
- [5.66056148e+08]
- [5.41090635e+08]
- [5.16020332e+08]
- [4.90868412e+08]
- [4.65657538e+08]
- [4.40410232e+08]
- [4.30314940e+08]
- [4.20219860e+08]
- [4.10126294e+08]
- [4.00035922e+08]
- [3.89948601e+08]
- [3.79863774e+08]
- [3.74824136e+08]
- [3.69785523e+08]
- [3.64748037e+08]]</t>
+          <t>[[9.38598487e+06]
+ [1.21800770e+08]
+ [5.27677367e+08]
+ [5.94789071e+08]
+ [5.69633498e+08]
+ [5.44300816e+08]
+ [5.18822594e+08]
+ [4.93230367e+08]
+ [4.67556446e+08]
+ [4.57283162e+08]
+ [4.47005961e+08]
+ [4.36727007e+08]
+ [4.26448867e+08]
+ [4.16169862e+08]
+ [4.05887219e+08]
+ [4.00746516e+08]
+ [3.95605146e+08]
+ [3.90463158e+08]]</t>
         </is>
       </c>
       <c r="E1193" t="inlineStr"/>
@@ -32420,24 +32405,24 @@
       </c>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>[[1205228.24751727]
- [2540187.13942175]
- [4148592.12945142]
- [6203590.53171469]
- [6203538.91208983]
- [6203487.03527567]
- [6203434.60207979]
- [6203381.22144226]
- [6203326.34441733]
- [6203269.17162874]
- [6203245.45174452]
- [6203221.08272189]
- [6203195.93853601]
- [6203173.16315784]
- [6203153.17560668]
- [6203133.18243549]
- [6203123.18426732]
- [6203113.1852312 ]]</t>
+          <t>[[ 810167.19686342]
+ [1868646.24581778]
+ [3499870.39508661]
+ [6203806.21620331]
+ [6203753.27688833]
+ [6203699.88546866]
+ [6203645.51664367]
+ [6203589.48272288]
+ [6203530.81072766]
+ [6203468.07940603]
+ [6203441.48103566]
+ [6203413.73330277]
+ [6203389.41698383]
+ [6203373.90416275]
+ [6203363.32585259]
+ [6203350.30821586]
+ [6203344.93861994]
+ [6203339.56219329]]</t>
         </is>
       </c>
       <c r="E1194" t="inlineStr"/>
@@ -32460,9 +32445,9 @@
       </c>
       <c r="D1195" t="inlineStr">
         <is>
-          <t>[[ 2.93890511e+06]
- [ 8.74337090e+03]
- [-5.82551227e+07]]</t>
+          <t>[[ 2.93900852e+06]
+ [ 8.74388478e+03]
+ [-3.42299320e+07]]</t>
         </is>
       </c>
       <c r="E1195" t="inlineStr"/>
@@ -32485,9 +32470,9 @@
       </c>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>[[-2.60943302e+06]
- [ 5.90892924e+08]
- [ 6.20359053e+06]]</t>
+          <t>[[-2.76027125e+06]
+ [ 6.19735386e+08]
+ [ 6.20380622e+06]]</t>
         </is>
       </c>
       <c r="E1196" t="inlineStr"/>
@@ -32510,13 +32495,13 @@
       </c>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>[-90.         -80.         -70.         -60.         -51.66666667
- -43.33333333 -35.         -26.66666667 -18.33333333 -10.
-  -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.          26.61331002
-  38.22662005  49.83993007  66.43037296  83.02081585  99.61125874
- 109.56552448 119.51979021 129.47405594 138.76470396 148.05535198
- 157.346     ]</t>
+          <t>[-105.          -90.          -75.          -60.          -51.66666667
+  -43.33333333  -35.          -26.66666667  -18.33333333  -10.
+   -6.66666667   -3.33333333    0.            3.33333333    6.66666667
+   10.           11.66666667   13.33333333   15.           27.30150617
+   39.60301235   51.90451852   69.47809877   87.05167901  104.62525926
+  115.16940741  125.71355556  136.2577037   143.2871358   150.3165679
+  157.346     ]</t>
         </is>
       </c>
       <c r="E1197" t="inlineStr"/>
@@ -32539,12 +32524,12 @@
       </c>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         11.         10.99999999
- 10.99999999 10.99999999 10.99999999 10.99999999 11.         11.
- 11.         11.         11.         11.         11.         11.
- 10.99999999 10.99999997 10.99999996 10.99999994 10.96054521 10.92109048
- 10.88163575  9.2540905   7.62654526  5.99900001  5.99900001  5.99900001
-  5.99900001]</t>
+          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
+ 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
+ 10.04686893  9.914475    9.78208107  9.64968714  9.58431788  9.51894862
+  8.          8.          8.          8.          8.          8.
+  8.          7.33333333  6.66666667  6.          6.          6.
+  6.        ]</t>
         </is>
       </c>
       <c r="E1198" t="inlineStr"/>
@@ -32567,11 +32552,11 @@
       </c>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>[0.135      0.135      0.135      0.135      0.135      0.135
- 0.135      0.135      0.135      0.135      0.135      0.135
- 0.135      0.135      0.135      0.135      0.135      0.135
- 0.055      0.055      0.055      0.05470409 0.05470409 0.05470409
- 0.04470409 0.04470409 0.04470409 0.035      0.035      0.035     ]</t>
+          <t>[0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.04750561 0.04750561 0.04750561 0.02668527 0.02668527 0.02668527
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E1199" t="inlineStr"/>
@@ -32670,11 +32655,11 @@
       </c>
       <c r="D1203" t="inlineStr">
         <is>
-          <t>[4.93057023 4.93057023 4.93057023 4.93057023 4.93057023 4.93057023
- 4.93057023 4.93057023 4.93057023 4.93057023 4.93057023 4.93057023
- 4.93057023 4.93057023 4.93057023 4.93057023 4.93057023 4.93057023
- 2.02354145 2.02354145 2.02354144 2.00908117 2.00182592 1.99457067
- 1.50620998 1.26163391 1.01705783 0.70168038 0.70168038 0.70168038]</t>
+          <t>[2.34761003 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003
+ 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003
+ 2.33203354 2.30088055 2.26972755 2.24646019 2.23107846 2.21569673
+ 1.26993615 1.26993615 1.26993615 0.71522742 0.71522742 0.71522742
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E1203" t="inlineStr"/>
@@ -32697,11 +32682,11 @@
       </c>
       <c r="D1204" t="inlineStr">
         <is>
-          <t>[2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 1.15086843 1.15086842 1.15086842 1.14263491 1.13851794 1.13440097
- 0.85642296 0.71763866 0.5788569  0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
+ 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
+ 1.32755152 1.30987455 1.29219763 1.27899522 1.2702673  1.2615394
+ 0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E1204" t="inlineStr"/>
@@ -32724,11 +32709,11 @@
       </c>
       <c r="D1205" t="inlineStr">
         <is>
-          <t>[2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795 2.81383795
- 1.15086843 1.15086842 1.15086842 1.14263491 1.13851794 1.13440097
- 0.85642296 0.71763866 0.5788569  0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
+ 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
+ 1.32755152 1.30987455 1.29219763 1.27899522 1.2702673  1.2615394
+ 0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E1205" t="inlineStr"/>
@@ -32751,12 +32736,11 @@
       </c>
       <c r="D1206" t="inlineStr">
         <is>
-          <t>[145.53373063 145.53373063 145.53373063 145.53373062 145.53373061
- 145.53373061 145.5337306  145.53373061 145.53373061 145.53373061
- 145.53373063 145.53373064 145.53373065 145.53373065 145.53373065
- 145.53373065 145.53373065 145.53373065  60.60306795  60.60306768
-  60.6030674   59.95652692  59.30933033  58.66680803  37.83061589
-  22.23261659  11.64753705   6.23978416   6.23978416   6.23978416]</t>
+          <t>[58.42192707 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707
+ 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707
+ 57.26676746 55.00233162 52.79839107 51.1912997  50.14698502 49.11697092
+ 20.07909508 20.07909508 20.07909508 11.36754921 11.36754921 11.36754921
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E1206" t="inlineStr"/>
@@ -32779,11 +32763,11 @@
       </c>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>[72.76686532 72.76686531 72.76686531 72.76686531 72.76686531 72.7668653
- 72.7668653  72.7668653  72.7668653  72.76686531 72.76686531 72.76686532
- 72.76686532 72.76686532 72.76686532 72.76686532 72.76686532 72.76686532
- 30.30153398 30.30153384 30.3015337  29.97826346 29.65466516 29.33340401
- 18.91530794 11.11630829  5.82376853  3.11989208  3.11989208  3.11989208]</t>
+          <t>[29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
+ 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
+ 28.63338373 27.50116581 26.39919553 25.59564985 25.07349251 24.55848546
+ 10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E1207" t="inlineStr"/>
@@ -32806,11 +32790,11 @@
       </c>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>[72.76686532 72.76686531 72.76686531 72.76686531 72.76686531 72.7668653
- 72.7668653  72.7668653  72.7668653  72.76686531 72.76686531 72.76686532
- 72.76686532 72.76686532 72.76686532 72.76686532 72.76686532 72.76686532
- 30.30153398 30.30153384 30.3015337  29.97826346 29.65466516 29.33340401
- 18.91530794 11.11630829  5.82376853  3.11989208  3.11989208  3.11989208]</t>
+          <t>[29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
+ 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
+ 28.63338373 27.50116581 26.39919553 25.59564985 25.07349251 24.55848546
+ 10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E1208" t="inlineStr"/>
@@ -32901,17 +32885,17 @@
  [1.27775357e+02]
  [1.31936564e+02]
  [1.35719352e+02]
- [1.55741233e+02]
- [1.69882127e+02]
- [1.81049969e+02]
- [1.93975947e+02]
- [2.04637279e+02]
- [2.13783359e+02]
- [2.18726607e+02]
- [2.23339444e+02]
- [2.27668913e+02]
- [2.31487123e+02]
- [2.35115716e+02]
+ [1.56698435e+02]
+ [1.71330486e+02]
+ [1.82822277e+02]
+ [1.96075520e+02]
+ [2.06979051e+02]
+ [2.16317993e+02]
+ [2.21360836e+02]
+ [2.26064090e+02]
+ [2.30476436e+02]
+ [2.33275754e+02]
+ [2.35972568e+02]
  [2.38575171e+02]]</t>
         </is>
       </c>
@@ -32935,36 +32919,36 @@
       </c>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>[[-6.58616042e+07]
- [-6.20902422e+07]
- [-5.82551227e+07]
- [-5.50021459e+07]
- [-5.17329070e+07]
- [-4.84285498e+07]
- [-4.50644271e+07]
- [-4.16059396e+07]
- [-3.80027022e+07]
- [-3.65077693e+07]
- [-3.49719128e+07]
- [-3.33871890e+07]
- [-3.19517493e+07]
- [-3.06920064e+07]
- [-2.94319012e+07]
- [-2.88017457e+07]
- [-2.81715336e+07]
- [-2.75412700e+07]
- [-2.47510966e+07]
- [-2.29406400e+07]
- [-2.11286078e+07]
- [-1.85566430e+07]
- [-1.59922947e+07]
- [-1.34356348e+07]
- [-1.22727173e+07]
- [-1.12968709e+07]
- [-1.05095901e+07]
- [-1.00010424e+07]
- [-9.49348032e+06]
- [-1.33586582e-08]]</t>
+          <t>[[-3.96967586e+07]
+ [-3.70032504e+07]
+ [-3.42299320e+07]
+ [-3.26415935e+07]
+ [-3.10396630e+07]
+ [-2.94083786e+07]
+ [-2.77271046e+07]
+ [-2.59666438e+07]
+ [-2.40843456e+07]
+ [-2.32862310e+07]
+ [-2.24536211e+07]
+ [-2.15798326e+07]
+ [-2.08353263e+07]
+ [-2.02463313e+07]
+ [-1.96649932e+07]
+ [-1.93772148e+07]
+ [-1.90913585e+07]
+ [-1.88074296e+07]
+ [-1.66217464e+07]
+ [-1.54168092e+07]
+ [-1.42106740e+07]
+ [-1.32320012e+07]
+ [-1.22521330e+07]
+ [-1.12710940e+07]
+ [-1.07407875e+07]
+ [-1.02557818e+07]
+ [-9.81676307e+06]
+ [-9.53971248e+06]
+ [-9.26291313e+06]
+ [-1.08266249e-08]]</t>
         </is>
       </c>
       <c r="E1212" t="inlineStr"/>
@@ -32987,36 +32971,36 @@
       </c>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>[[-6.99989039e+06]
- [-1.36382778e+07]
- [-1.10166136e+07]
- [ 2.93890511e+06]
- [ 2.93943958e+06]
- [ 2.93996758e+06]
- [ 2.94050123e+06]
- [ 2.94105875e+06]
- [ 2.94166840e+06]
- [ 2.93949404e+06]
- [ 2.93961747e+06]
- [ 2.93975305e+06]
- [ 2.93971485e+06]
- [ 2.93945716e+06]
- [ 2.93951397e+06]
- [ 2.93863428e+06]
- [ 2.93864789e+06]
- [ 2.93866131e+06]
- [ 2.94077888e+06]
- [ 2.94135170e+06]
- [ 2.94186610e+06]
- [ 2.94437340e+06]
- [ 2.94509702e+06]
- [ 2.94564269e+06]
- [ 2.94150278e+06]
- [ 2.94102890e+06]
- [ 2.94050704e+06]
- [ 2.93957074e+06]
- [ 2.93952527e+06]
- [ 1.73283786e+03]]</t>
+          <t>[[-1.31842429e+06]
+ [-8.21128759e+06]
+ [-1.77008542e+07]
+ [ 2.93900852e+06]
+ [ 2.93969654e+06]
+ [ 2.94039063e+06]
+ [ 2.94111682e+06]
+ [ 2.94191457e+06]
+ [ 2.94284538e+06]
+ [ 2.94009179e+06]
+ [ 2.94030122e+06]
+ [ 2.94053814e+06]
+ [ 2.94039646e+06]
+ [ 2.93977628e+06]
+ [ 2.93982449e+06]
+ [ 2.93878637e+06]
+ [ 2.93879808e+06]
+ [ 2.93880966e+06]
+ [ 2.94312110e+06]
+ [ 2.94441898e+06]
+ [ 2.94558615e+06]
+ [ 2.94552887e+06]
+ [ 2.94720273e+06]
+ [ 2.94845535e+06]
+ [ 2.94392332e+06]
+ [ 2.94362542e+06]
+ [ 2.94321360e+06]
+ [ 2.94120745e+06]
+ [ 2.94116740e+06]
+ [ 3.40207373e+03]]</t>
         </is>
       </c>
       <c r="E1213" t="inlineStr"/>
@@ -33039,36 +33023,36 @@
       </c>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>[[-3.08952715e+04]
- [-6.07656225e+04]
- [-5.09646204e+04]
- [ 8.74337090e+03]
- [ 8.74576394e+03]
- [ 8.74816203e+03]
- [ 8.75062100e+03]
- [ 8.75322587e+03]
- [ 8.75610999e+03]
- [ 8.74629314e+03]
- [ 8.74688476e+03]
- [ 8.74753638e+03]
- [ 8.74739211e+03]
- [ 8.74623260e+03]
- [ 8.74652427e+03]
- [ 8.74245476e+03]
- [ 8.74252582e+03]
- [ 8.74259630e+03]
- [ 8.75267489e+03]
- [ 8.75583959e+03]
- [ 8.75883252e+03]
- [ 8.77229363e+03]
- [ 8.77737352e+03]
- [ 8.78192384e+03]
- [ 8.75992502e+03]
- [ 8.75825980e+03]
- [ 8.75683325e+03]
- [ 8.75281918e+03]
- [ 8.75573146e+03]
- [ 1.88563369e+01]]</t>
+          <t>[[-5.84518308e+03]
+ [-3.65567799e+04]
+ [-8.03512168e+04]
+ [ 8.74388478e+03]
+ [ 8.74699015e+03]
+ [ 8.75016539e+03]
+ [ 8.75353147e+03]
+ [ 8.75727405e+03]
+ [ 8.76168582e+03]
+ [ 8.74912841e+03]
+ [ 8.75013140e+03]
+ [ 8.75126874e+03]
+ [ 8.75065306e+03]
+ [ 8.74780113e+03]
+ [ 8.74806197e+03]
+ [ 8.74321259e+03]
+ [ 8.74327756e+03]
+ [ 8.74334239e+03]
+ [ 8.76412603e+03]
+ [ 8.77129994e+03]
+ [ 8.77809107e+03]
+ [ 8.77950273e+03]
+ [ 8.79117039e+03]
+ [ 8.80151330e+03]
+ [ 8.77664381e+03]
+ [ 8.77672836e+03]
+ [ 8.77670809e+03]
+ [ 8.76460235e+03]
+ [ 8.76623638e+03]
+ [ 2.87900771e+01]]</t>
         </is>
       </c>
       <c r="E1214" t="inlineStr"/>
@@ -33091,36 +33075,36 @@
       </c>
       <c r="D1215" t="inlineStr">
         <is>
-          <t>[[-4.20373393e+05]
- [-1.42453960e+06]
- [-2.35911240e+06]
- [-2.53506242e+06]
- [-2.46011300e+06]
- [-2.38468288e+06]
- [-2.30886846e+06]
- [-2.23276564e+06]
- [-2.15647163e+06]
- [-2.12596270e+06]
- [-2.09545028e+06]
- [-2.06494017e+06]
- [-2.03444009e+06]
- [-2.00394940e+06]
- [-1.97346552e+06]
- [-1.95823469e+06]
- [-1.94300745e+06]
- [-1.92778428e+06]
- [-1.82136361e+06]
- [-1.71427310e+06]
- [-1.60671772e+06]
- [-1.45245135e+06]
- [-1.29806771e+06]
- [-1.14401623e+06]
- [-1.05202574e+06]
- [-9.60016888e+05]
- [-8.67707646e+05]
- [-7.80904318e+05]
- [-6.93292260e+05]
- [-4.85248871e-04]]</t>
+          <t>[[-4.12710610e+04]
+ [-5.36761492e+05]
+ [-2.35316403e+06]
+ [-2.68540021e+06]
+ [-2.60958218e+06]
+ [-2.53294835e+06]
+ [-2.45562946e+06]
+ [-2.37775844e+06]
+ [-2.29947427e+06]
+ [-2.26813147e+06]
+ [-2.23676358e+06]
+ [-2.20538029e+06]
+ [-2.17399331e+06]
+ [-2.14259449e+06]
+ [-2.11117039e+06]
+ [-2.09545800e+06]
+ [-2.07974023e+06]
+ [-2.06401725e+06]
+ [-1.94708858e+06]
+ [-1.82835073e+06]
+ [-1.70830338e+06]
+ [-1.53366381e+06]
+ [-1.35494938e+06]
+ [-1.17358654e+06]
+ [-1.06419606e+06]
+ [-9.54062300e+05]
+ [-8.42952516e+05]
+ [-7.68366384e+05]
+ [-6.93345610e+05]
+ [-2.48599436e-04]]</t>
         </is>
       </c>
       <c r="E1215" t="inlineStr"/>
@@ -33143,36 +33127,36 @@
       </c>
       <c r="D1216" t="inlineStr">
         <is>
-          <t>[[ 9.67833266e+07]
- [ 3.25598005e+08]
- [ 5.33663980e+08]
- [ 5.66056148e+08]
- [ 5.41090635e+08]
- [ 5.16020332e+08]
- [ 4.90868412e+08]
- [ 4.65657538e+08]
- [ 4.40410232e+08]
- [ 4.30314940e+08]
- [ 4.20219860e+08]
- [ 4.10126294e+08]
- [ 4.00035922e+08]
- [ 3.89948601e+08]
- [ 3.79863774e+08]
- [ 3.74824136e+08]
- [ 3.69785523e+08]
- [ 3.64748037e+08]
- [ 3.29586920e+08]
- [ 2.94314794e+08]
- [ 2.58976914e+08]
- [ 2.08424323e+08]
- [ 1.57913296e+08]
- [ 1.07529449e+08]
- [ 7.74144899e+07]
- [ 4.73419803e+07]
- [ 1.73016223e+07]
- [-1.07042936e+07]
- [-3.86609148e+07]
- [ 4.45923285e-02]]</t>
+          <t>[[ 9.38598487e+06]
+ [ 1.21800770e+08]
+ [ 5.27677367e+08]
+ [ 5.94789071e+08]
+ [ 5.69633498e+08]
+ [ 5.44300816e+08]
+ [ 5.18822594e+08]
+ [ 4.93230367e+08]
+ [ 4.67556446e+08]
+ [ 4.57283162e+08]
+ [ 4.47005961e+08]
+ [ 4.36727007e+08]
+ [ 4.26448867e+08]
+ [ 4.16169862e+08]
+ [ 4.05887219e+08]
+ [ 4.00746516e+08]
+ [ 3.95605146e+08]
+ [ 3.90463158e+08]
+ [ 3.52358733e+08]
+ [ 3.13944291e+08]
+ [ 2.75330020e+08]
+ [ 2.19718111e+08]
+ [ 1.63588597e+08]
+ [ 1.07247880e+08]
+ [ 7.34877573e+07]
+ [ 3.97524745e+07]
+ [ 6.06878390e+06]
+ [-1.63214257e+07]
+ [-3.86452899e+07]
+ [ 2.93737846e-02]]</t>
         </is>
       </c>
       <c r="E1216" t="inlineStr"/>
@@ -33195,35 +33179,35 @@
       </c>
       <c r="D1217" t="inlineStr">
         <is>
-          <t>[[1205228.24751727]
- [2540187.13942175]
- [4148592.12945142]
- [6203590.53171469]
- [6203538.91208983]
- [6203487.03527567]
- [6203434.60207979]
- [6203381.22144226]
- [6203326.34441733]
- [6203269.17162874]
- [6203245.45174452]
- [6203221.08272189]
- [6203195.93853601]
- [6203173.16315784]
- [6203153.17560668]
- [6203133.18243549]
- [6203123.18426732]
- [6203113.1852312 ]
- [6203693.08624718]
- [6203623.11811473]
- [6203553.11613811]
- [6203488.93456034]
- [6203391.39671249]
- [6203293.45101728]
- [6203364.03782066]
- [6203427.21171344]
- [6203535.16219509]
- [6203837.9912268 ]
- [6203781.2814767 ]
+          <t>[[ 810167.19686342]
+ [1868646.24581778]
+ [3499870.39508661]
+ [6203806.21620331]
+ [6203753.27688833]
+ [6203699.88546866]
+ [6203645.51664367]
+ [6203589.48272288]
+ [6203530.81072766]
+ [6203468.07940603]
+ [6203441.48103566]
+ [6203413.73330277]
+ [6203389.41698383]
+ [6203373.90416275]
+ [6203363.32585259]
+ [6203350.30821586]
+ [6203344.93861994]
+ [6203339.56219329]
+ [6203763.71258188]
+ [6203689.46591382]
+ [6203615.22798421]
+ [6204220.01057543]
+ [6204112.93048606]
+ [6204005.72331981]
+ [6204038.64365427]
+ [6204099.11896089]
+ [6204179.06465725]
+ [6204195.10155977]
+ [6204151.9234288 ]
  [      0.        ]]</t>
         </is>
       </c>
@@ -33247,24 +33231,24 @@
       </c>
       <c r="D1218" t="inlineStr">
         <is>
-          <t>[[-6042481.06825785]
- [12017273.98919383]
- [28521685.19542129]
- [31629801.72555831]
- [30405860.65600429]
- [29181121.82901821]
- [27962335.68067776]
- [26758232.54539423]
- [25580733.57651922]
- [25120887.18325162]
- [24669356.80431128]
- [24227852.07769881]
- [23756311.49274218]
- [23249367.49903702]
- [22742685.61324684]
- [22489575.33366396]
- [22236553.99635966]
- [21983628.38653452]]</t>
+          <t>[[-15295303.2155023 ]
+ [  5184292.0858505 ]
+ [ 76165274.76251628]
+ [ 88383249.08271164]
+ [ 84739575.43051353]
+ [ 81077948.33203404]
+ [ 77412586.43350857]
+ [ 73761350.35803898]
+ [ 70147964.42699836]
+ [ 68721222.79244189]
+ [ 67308501.63319752]
+ [ 65913019.62642428]
+ [ 65389708.02389742]
+ [ 65717653.94806531]
+ [ 66027761.05706901]
+ [ 66661208.37218551]
+ [ 66796025.20095773]
+ [ 66925346.3268057 ]]</t>
         </is>
       </c>
       <c r="E1218" t="inlineStr"/>
@@ -33287,24 +33271,24 @@
       </c>
       <c r="D1219" t="inlineStr">
         <is>
-          <t>[[2533238.62697191]
- [4942906.38070206]
- [4071980.86263914]
- [1278897.43679343]
- [1279085.43183416]
- [1279271.11761028]
- [1279458.79089989]
- [1279654.91150309]
- [1279869.49824417]
- [1279094.59438973]
- [1279137.56454   ]
- [1279184.82717426]
- [1279170.29826205]
- [1279077.85881246]
- [1279097.29285236]
- [1278783.90410886]
- [1278788.36331395]
- [1278792.75573086]]</t>
+          <t>[[ 1056228.79523102]
+ [ 6305116.89269457]
+ [13546350.08143673]
+ [ 2732661.34927251]
+ [ 2733171.63665292]
+ [ 2733686.42109328]
+ [ 2734225.14736403]
+ [ 2734817.27933361]
+ [ 2735508.7575309 ]
+ [ 2733442.87165202]
+ [ 2733597.29698597]
+ [ 2733772.1981747 ]
+ [ 2755487.02785385]
+ [ 2799692.16719095]
+ [ 2845835.02705138]
+ [ 2880433.81186785]
+ [ 2904321.56326422]
+ [ 2928597.47021731]]</t>
         </is>
       </c>
       <c r="E1219" t="inlineStr"/>
@@ -33329,22 +33313,22 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.21942628e+07]
- [-2.27075764e+07]
- [-1.93551048e+07]
- [-1.60235923e+07]
- [-1.27190573e+07]
- [-9.45183996e+06]
- [-6.23854654e+06]
- [-4.02397920e+06]
- [-2.78506834e+06]
- [-1.56579784e+06]
- [-4.82649277e+05]
- [-4.15107852e+03]
- [-4.72529317e+03]
- [-5.04839996e+03]
- [-5.22550005e+03]
- [-5.38533617e+03]]</t>
+ [-2.15951296e+07]
+ [-4.02134236e+07]
+ [-3.42764464e+07]
+ [-2.83765864e+07]
+ [-2.25245014e+07]
+ [-1.67385034e+07]
+ [-1.10480005e+07]
+ [-7.12616693e+06]
+ [-4.93214824e+06]
+ [-2.77291114e+06]
+ [-8.49064648e+05]
+ [-7.20492273e+03]
+ [-8.09052671e+03]
+ [-8.55513345e+03]
+ [-8.79461853e+03]
+ [-9.00113844e+03]]</t>
         </is>
       </c>
       <c r="E1220" t="inlineStr"/>
@@ -33403,24 +33387,24 @@
       <c r="C1222" t="inlineStr"/>
       <c r="D1222" t="inlineStr">
         <is>
-          <t>[[0.03798682]
- [0.07505836]
- [0.1875791 ]
- [0.24071687]
- [0.22130034]
- [0.20225303]
- [0.18371114]
- [0.16586656]
- [0.14898741]
- [0.13961315]
- [0.1336184 ]
- [0.12791298]
- [0.12261255]
- [0.11881477]
- [0.11625065]
- [0.11496977]
- [0.11368938]
- [0.11240957]]</t>
+          <t>[[0.07836112]
+ [0.06149547]
+ [0.46796706]
+ [0.5801208 ]
+ [0.54033567]
+ [0.50105873]
+ [0.46249834]
+ [0.42493618]
+ [0.38875263]
+ [0.36982988]
+ [0.3564194 ]
+ [0.34341315]
+ [0.33569416]
+ [0.33522999]
+ [0.3368355 ]
+ [0.34007276]
+ [0.340773  ]
+ [0.34144562]]</t>
         </is>
       </c>
       <c r="E1222" t="inlineStr"/>
@@ -33439,24 +33423,24 @@
       <c r="C1223" t="inlineStr"/>
       <c r="D1223" t="inlineStr">
         <is>
-          <t>[[0.05441296]
- [0.06013579]
- [0.10819362]
- [0.1419402 ]
- [0.12245673]
- [0.10331771]
- [0.08469079]
- [0.06689628]
- [0.05059848]
- [0.02861897]
- [0.02690957]
- [0.02567528]
- [0.02498965]
- [0.02436737]
- [0.02347378]
- [0.02227547]
- [0.02184269]
- [0.02141101]]</t>
+          <t>[[0.07925982]
+ [0.1078752 ]
+ [0.63434445]
+ [0.55635607]
+ [0.47877881]
+ [0.40179152]
+ [0.32559997]
+ [0.25059306]
+ [0.17755687]
+ [0.06902483]
+ [0.06135725]
+ [0.05372741]
+ [0.04795307]
+ [0.04581227]
+ [0.04518429]
+ [0.04116217]
+ [0.04088527]
+ [0.04061179]]</t>
         </is>
       </c>
       <c r="E1223" t="inlineStr"/>
@@ -33475,24 +33459,24 @@
       <c r="C1224" t="inlineStr"/>
       <c r="D1224" t="inlineStr">
         <is>
-          <t>[[0.10230812]
- [0.17496656]
- [0.24041626]
- [0.24760775]
- [0.23559783]
- [0.22353214]
- [0.21139129]
- [0.19914493]
- [0.18674553]
- [0.18173328]
- [0.17667919]
- [0.17157507]
- [0.16664034]
- [0.16190355]
- [0.15717   ]
- [0.15480509]
- [0.15244115]
- [0.15007823]]</t>
+          <t>[[0.133226  ]
+ [0.24323366]
+ [0.66042221]
+ [0.72486912]
+ [0.69247457]
+ [0.6598818 ]
+ [0.62705065]
+ [0.59391186]
+ [0.56035145]
+ [0.5467915 ]
+ [0.53312218]
+ [0.51932296]
+ [0.51387017]
+ [0.5168021 ]
+ [0.51969965]
+ [0.52530954]
+ [0.52667226]
+ [0.52802029]]</t>
         </is>
       </c>
       <c r="E1224" t="inlineStr"/>
@@ -33515,36 +33499,36 @@
       </c>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>[[-6.04248107e+06]
- [ 1.20172740e+07]
- [ 2.85216852e+07]
- [ 3.16298017e+07]
- [ 3.04058607e+07]
- [ 2.91811218e+07]
- [ 2.79623357e+07]
- [ 2.67582325e+07]
- [ 2.55807336e+07]
- [ 2.51208872e+07]
- [ 2.46693568e+07]
- [ 2.42278521e+07]
- [ 2.37563115e+07]
- [ 2.32493675e+07]
- [ 2.27426856e+07]
- [ 2.24895753e+07]
- [ 2.22365540e+07]
- [ 2.19836284e+07]
- [ 4.75923194e+07]
- [ 4.20848024e+07]
- [ 3.65661349e+07]
- [ 2.89347982e+07]
- [ 2.11424645e+07]
- [ 1.32459602e+07]
- [ 1.24561446e+07]
- [ 9.02229030e+06]
- [-2.00697848e+05]
- [-3.93440910e+06]
- [ 2.36453862e+07]
- [ 4.28740950e-02]]</t>
+          <t>[[-1.52953032e+07]
+ [ 5.18429209e+06]
+ [ 7.61652748e+07]
+ [ 8.83832491e+07]
+ [ 8.47395754e+07]
+ [ 8.10779483e+07]
+ [ 7.74125864e+07]
+ [ 7.37613504e+07]
+ [ 7.01479644e+07]
+ [ 6.87212228e+07]
+ [ 6.73085016e+07]
+ [ 6.59130196e+07]
+ [ 6.53897080e+07]
+ [ 6.57176539e+07]
+ [ 6.60277611e+07]
+ [ 6.66612084e+07]
+ [ 6.67960252e+07]
+ [ 6.11475357e+07]
+ [ 1.27301788e+08]
+ [ 1.12945335e+08]
+ [ 9.85102204e+07]
+ [ 1.36131663e+08]
+ [ 9.80002776e+07]
+ [ 5.97222817e+07]
+ [ 4.33760733e+07]
+ [ 2.15458088e+07]
+ [-1.11600883e+07]
+ [ 2.87666007e+06]
+ [ 3.32992692e+07]
+ [ 3.93270592e-02]]</t>
         </is>
       </c>
       <c r="E1225" t="inlineStr"/>
@@ -33567,36 +33551,36 @@
       </c>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>[[2.53323863e+06]
- [4.94290638e+06]
- [4.07198086e+06]
- [1.27889744e+06]
- [1.27908543e+06]
- [1.27927112e+06]
- [1.27945879e+06]
- [1.27965491e+06]
- [1.27986950e+06]
- [1.27909459e+06]
- [1.27913756e+06]
- [1.27918483e+06]
- [1.27917030e+06]
- [1.27907786e+06]
- [1.27909729e+06]
- [1.27878390e+06]
- [1.27878836e+06]
- [1.27879276e+06]
- [3.11829368e+06]
- [3.11878506e+06]
- [3.11922568e+06]
- [3.14488413e+06]
- [3.15896402e+06]
- [3.17300443e+06]
- [4.26010389e+06]
- [5.27574555e+06]
- [6.89413195e+06]
- [1.03454239e+07]
- [1.03452828e+07]
- [4.34074823e+03]]</t>
+          <t>[[1.05622880e+06]
+ [6.30511689e+06]
+ [1.35463501e+07]
+ [2.73266135e+06]
+ [2.73317164e+06]
+ [2.73368642e+06]
+ [2.73422515e+06]
+ [2.73481728e+06]
+ [2.73550876e+06]
+ [2.73344287e+06]
+ [2.73359730e+06]
+ [2.73377220e+06]
+ [2.75548703e+06]
+ [2.79969217e+06]
+ [2.84583503e+06]
+ [2.88043381e+06]
+ [2.90432156e+06]
+ [2.88270169e+06]
+ [5.30898970e+06]
+ [5.31077111e+06]
+ [5.31237164e+06]
+ [9.42975102e+06]
+ [9.43383142e+06]
+ [9.43687547e+06]
+ [1.06033900e+07]
+ [1.18813275e+07]
+ [1.34912588e+07]
+ [1.44561763e+07]
+ [1.44560071e+07]
+ [1.19178765e+04]]</t>
         </is>
       </c>
       <c r="E1226" t="inlineStr"/>
@@ -33621,34 +33605,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.21942628e+07]
- [-2.27075764e+07]
- [-1.93551048e+07]
- [-1.60235923e+07]
- [-1.27190573e+07]
- [-9.45183996e+06]
- [-6.23854654e+06]
- [-4.02397920e+06]
- [-2.78506834e+06]
- [-1.56579784e+06]
- [-4.82649277e+05]
- [-4.15107852e+03]
- [-4.72529317e+03]
- [-5.04839996e+03]
- [-5.22550005e+03]
- [-5.38533616e+03]
- [-1.45001641e+04]
- [-1.61997621e+04]
- [-1.74588717e+04]
- [-1.87251602e+04]
- [-1.98310081e+04]
- [-2.07409815e+04]
- [-2.42433985e+04]
- [-2.07554606e+04]
- [-1.70703371e+04]
- [-1.95600472e+04]
- [-1.98772810e+04]
- [-2.01792318e+04]]</t>
+ [-2.15951296e+07]
+ [-4.02134236e+07]
+ [-3.42764464e+07]
+ [-2.83765864e+07]
+ [-2.25245014e+07]
+ [-1.67385034e+07]
+ [-1.10480005e+07]
+ [-7.12616693e+06]
+ [-4.93214824e+06]
+ [-2.77291114e+06]
+ [-8.49064648e+05]
+ [-7.20492273e+03]
+ [-8.09052671e+03]
+ [-8.55513345e+03]
+ [-8.79461853e+03]
+ [-8.30639002e+03]
+ [-1.22377704e+04]
+ [-1.37281069e+04]
+ [-1.48213973e+04]
+ [-2.83027998e+04]
+ [-3.01072556e+04]
+ [-3.16193221e+04]
+ [-3.34459572e+04]
+ [-3.12078886e+04]
+ [-2.88000982e+04]
+ [-2.77091934e+04]
+ [-2.80375872e+04]
+ [-2.83542274e+04]]</t>
         </is>
       </c>
       <c r="E1227" t="inlineStr"/>
@@ -33719,36 +33703,36 @@
       <c r="C1229" t="inlineStr"/>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>[[3.79868189e-02]
- [7.50583571e-02]
- [1.87579105e-01]
- [2.40716871e-01]
- [2.21300339e-01]
- [2.02253027e-01]
- [1.83711139e-01]
- [1.65866563e-01]
- [1.48987412e-01]
- [1.39613147e-01]
- [1.33618400e-01]
- [1.27912976e-01]
- [1.22612546e-01]
- [1.18814768e-01]
- [1.16250648e-01]
- [1.14969767e-01]
- [1.13689376e-01]
- [1.12409570e-01]
- [2.43690727e-01]
- [2.15880815e-01]
- [1.88073639e-01]
- [1.49822364e-01]
- [1.11142798e-01]
- [7.29999526e-02]
- [7.37000747e-02]
- [6.53609359e-02]
- [6.07511923e-02]
- [9.33129188e-02]
- [1.50959180e-01]
- [1.09544340e-04]]</t>
+          <t>[[7.83611199e-02]
+ [6.14954727e-02]
+ [4.67967058e-01]
+ [5.80120802e-01]
+ [5.40335665e-01]
+ [5.01058733e-01]
+ [4.62498343e-01]
+ [4.24936184e-01]
+ [3.88752626e-01]
+ [3.69829882e-01]
+ [3.56419403e-01]
+ [3.43413147e-01]
+ [3.35694156e-01]
+ [3.35229988e-01]
+ [3.36835500e-01]
+ [3.40072756e-01]
+ [3.40773002e-01]
+ [3.12111170e-01]
+ [6.49296935e-01]
+ [5.76485107e-01]
+ [5.03335973e-01]
+ [6.97533672e-01]
+ [5.05480643e-01]
+ [3.15054900e-01]
+ [2.39693982e-01]
+ [1.51621437e-01]
+ [1.31699053e-01]
+ [1.28217418e-01]
+ [2.11992721e-01]
+ [1.78411587e-04]]</t>
         </is>
       </c>
       <c r="E1229" t="inlineStr"/>
@@ -33767,36 +33751,36 @@
       <c r="C1230" t="inlineStr"/>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>[[0.05441296]
- [0.06013579]
- [0.10819362]
- [0.1419402 ]
- [0.12245673]
- [0.10331771]
- [0.08469079]
- [0.06689628]
- [0.05059848]
- [0.02861897]
- [0.02690957]
- [0.02567528]
- [0.02498965]
- [0.02436737]
- [0.02347378]
- [0.02227547]
- [0.02184269]
- [0.02141101]
- [0.08759364]
- [0.08294998]
- [0.07833295]
- [0.07643934]
- [0.07021817]
- [0.06415215]
- [0.08310302]
- [0.08727674]
- [0.09683   ]
- [0.15370774]
- [0.15085761]
- [0.00068646]]</t>
+          <t>[[0.07925982]
+ [0.1078752 ]
+ [0.63434445]
+ [0.55635607]
+ [0.47877881]
+ [0.40179152]
+ [0.32559997]
+ [0.25059306]
+ [0.17755687]
+ [0.06902483]
+ [0.06135725]
+ [0.05372741]
+ [0.04795307]
+ [0.04581227]
+ [0.04518429]
+ [0.04116217]
+ [0.04088527]
+ [0.04225956]
+ [0.10250606]
+ [0.09828615]
+ [0.09412134]
+ [0.29492257]
+ [0.28649477]
+ [0.27807703]
+ [0.27417232]
+ [0.27859207]
+ [0.28619997]
+ [0.26166078]
+ [0.25891249]
+ [0.00126131]]</t>
         </is>
       </c>
       <c r="E1230" t="inlineStr"/>
@@ -33815,36 +33799,36 @@
       <c r="C1231" t="inlineStr"/>
       <c r="D1231" t="inlineStr">
         <is>
-          <t>[[1.95747380e-01]
- [1.95752199e-01]
- [1.94414463e-01]
- [1.86344817e-01]
- [1.75513279e-01]
- [1.64590678e-01]
- [1.53505553e-01]
- [1.42157379e-01]
- [1.30399559e-01]
- [1.25544036e-01]
- [1.20571279e-01]
- [1.15458127e-01]
- [1.10786479e-01]
- [1.06633337e-01]
- [1.02481632e-01]
- [1.00406494e-01]
- [9.83318254e-02]
- [9.62576453e-02]
- [2.11516628e-01]
- [1.94468188e-01]
- [1.77476501e-01]
- [1.55078135e-01]
- [1.32368759e-01]
- [1.09394591e-01]
- [1.50761470e-01]
- [2.27751267e-01]
- [3.90650144e-01]
- [6.91185724e-01]
- [6.81556060e-01]
- [2.41804199e-11]]</t>
+          <t>[[3.39947306e-01]
+ [5.00041105e-01]
+ [1.12124885e+00]
+ [1.20612824e+00]
+ [1.14463028e+00]
+ [1.08339534e+00]
+ [1.02221662e+00]
+ [9.60803488e-01]
+ [8.98734781e-01]
+ [8.73637798e-01]
+ [8.48291508e-01]
+ [8.22630344e-01]
+ [8.12067964e-01]
+ [8.16648947e-01]
+ [8.21137964e-01]
+ [8.30456122e-01]
+ [8.32529663e-01]
+ [8.06255709e-01]
+ [1.82167604e+00]
+ [1.60823811e+00]
+ [1.40230330e+00]
+ [2.37031520e+00]
+ [1.81507364e+00]
+ [1.29551872e+00]
+ [1.24774579e+00]
+ [1.21210171e+00]
+ [1.01767734e+00]
+ [1.47563532e+00]
+ [2.01780782e+00]
+ [3.01346981e-10]]</t>
         </is>
       </c>
       <c r="E1231" t="inlineStr"/>
@@ -33863,7 +33847,7 @@
       <c r="C1232" t="inlineStr"/>
       <c r="D1232" t="inlineStr">
         <is>
-          <t>[-0.00465551]</t>
+          <t>[-0.16727084]</t>
         </is>
       </c>
       <c r="E1232" t="inlineStr">
@@ -33886,7 +33870,7 @@
       <c r="C1233" t="inlineStr"/>
       <c r="D1233" t="inlineStr">
         <is>
-          <t>[-0.1721295]</t>
+          <t>[-0.0390806]</t>
         </is>
       </c>
       <c r="E1233" t="inlineStr">
@@ -33909,7 +33893,7 @@
       <c r="C1234" t="inlineStr"/>
       <c r="D1234" t="inlineStr">
         <is>
-          <t>[1.05395188]</t>
+          <t>[1.0007888]</t>
         </is>
       </c>
       <c r="E1234" t="inlineStr"/>
@@ -33932,7 +33916,7 @@
       </c>
       <c r="D1235" t="inlineStr">
         <is>
-          <t>[28.23732223]</t>
+          <t>[29.73732221]</t>
         </is>
       </c>
       <c r="E1235" t="inlineStr"/>
@@ -33955,9 +33939,9 @@
       </c>
       <c r="D1236" t="inlineStr">
         <is>
-          <t>[1047.13901761 1206.50663837 1321.22750498 1413.1826086  1514.91534826
- 1598.07503083 1668.57106298 1425.17547244 1192.35640543  962.19898998
-  978.02680829  993.06340606 1007.39507451]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E1236" t="inlineStr"/>
@@ -34026,9 +34010,9 @@
       </c>
       <c r="D1239" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E1239" t="inlineStr"/>
@@ -34051,8 +34035,8 @@
       </c>
       <c r="D1240" t="inlineStr">
         <is>
-          <t>[14.88565131 15.94588977 16.65408583 17.19278299 17.79593838 18.27844853
- 18.68245315 18.89721312 19.09543997 19.27963559 19.44063167 19.59240654
+          <t>[14.88565131 15.99481728 16.72492878 17.27672858 17.89198978 18.38273594
+ 18.79287721 19.01066664 19.21156496 19.39814576 19.51559311 19.62807517
  19.73601994]</t>
         </is>
       </c>
@@ -34076,9 +34060,9 @@
       </c>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>[1047.13901761 1206.50663837 1321.22750498 1413.1826086  1514.91534826
- 1598.07503083 1668.57106298 1425.17547244 1192.35640543  962.19898998
-  978.02680829  993.06340606 1007.39507451]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E1241" t="inlineStr"/>
@@ -34147,9 +34131,9 @@
       </c>
       <c r="D1244" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E1244" t="inlineStr"/>
@@ -34172,9 +34156,9 @@
       </c>
       <c r="D1245" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E1245" t="inlineStr"/>
@@ -34266,10 +34250,10 @@
       </c>
       <c r="D1249" t="inlineStr">
         <is>
-          <t>[-1047.13901761 -1206.50663837 -1321.22750498 -1413.1826086
- -1514.91534826 -1598.07503083 -1668.57106298 -1425.17547244
- -1192.35640543  -962.19898998  -978.02680829  -993.06340606
- -1007.39507451]</t>
+          <t>[ -764.0675664   -879.89721404  -960.79254611 -1024.48836201
+ -1098.19816289 -1159.08690457 -1211.44283474 -1136.90215108
+ -1057.80219044  -973.99389388  -985.59734665  -996.77327326
+ -1007.55661265]</t>
         </is>
       </c>
       <c r="E1249" t="inlineStr"/>
@@ -34292,9 +34276,9 @@
       </c>
       <c r="D1250" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E1250" t="inlineStr"/>
@@ -34317,18 +34301,18 @@
       </c>
       <c r="D1251" t="inlineStr">
         <is>
-          <t>[[51629881.34938543]
- [46277273.37341413]
- [40899909.18044493]
- [33491458.32193962]
- [25891198.02383126]
- [18163722.5188169 ]
- [19592372.56804726]
- [19317066.03822563]
- [15808135.07834216]
- [ 1992537.9873565 ]
- [-2995959.99873271]
- [24399881.86455572]]</t>
+          <t>[[ 1.31644918e+08]
+ [ 1.17913894e+08]
+ [ 1.04052899e+08]
+ [ 1.47230690e+08]
+ [ 1.10278084e+08]
+ [ 7.30506548e+07]
+ [ 5.95114568e+07]
+ [ 4.16292984e+07]
+ [ 1.41389130e+07]
+ [-1.19706147e+07]
+ [ 4.04508298e+06]
+ [ 3.39146847e+07]]</t>
         </is>
       </c>
       <c r="E1251" t="inlineStr"/>
@@ -34351,18 +34335,18 @@
       </c>
       <c r="D1252" t="inlineStr">
         <is>
-          <t>[[ 3115937.51918602]
- [ 3116462.33144386]
- [ 3116935.80241564]
- [ 3141673.93324081]
- [ 3155830.19514893]
- [ 3169950.10821719]
- [ 4258310.45145179]
- [ 5274007.18719056]
- [ 6892510.97641443]
- [10344109.71520625]
- [10344243.29321101]
- [10344113.50081223]]</t>
+          <t>[[ 5302538.8122504 ]
+ [ 5304382.88979084]
+ [ 5306040.87652994]
+ [ 9420809.56330272]
+ [ 9425178.83947589]
+ [ 9428537.95438605]
+ [10598543.27327656]
+ [11876632.9113687 ]
+ [13486815.25367167]
+ [14453403.77612171]
+ [14453417.04371123]
+ [14453263.00963351]]</t>
         </is>
       </c>
       <c r="E1252" t="inlineStr"/>
@@ -34385,18 +34369,18 @@
       </c>
       <c r="D1253" t="inlineStr">
         <is>
-          <t>[[-14500.16406388]
- [-16199.76211445]
- [-17458.87172805]
- [-18725.16024241]
- [-19831.0080753 ]
- [-20740.98152136]
- [-24243.39845949]
- [-20755.46060182]
- [-17070.33710728]
- [-19560.04715456]
- [-19877.280963  ]
- [-20179.23180822]]</t>
+          <t>[[-12237.77040617]
+ [-13728.10686116]
+ [-14821.39733148]
+ [-28302.79980792]
+ [-30107.25559178]
+ [-31619.32206905]
+ [-33445.9571736 ]
+ [-31207.8885523 ]
+ [-28800.09817433]
+ [-27709.19337349]
+ [-28037.58723658]
+ [-28354.227381  ]]</t>
         </is>
       </c>
       <c r="E1253" t="inlineStr"/>
@@ -34449,18 +34433,18 @@
       <c r="C1255" t="inlineStr"/>
       <c r="D1255" t="inlineStr">
         <is>
-          <t>[[0.26410667]
- [0.23704742]
- [0.20990479]
- [0.17265071]
- [0.13465989]
- [0.09657768]
- [0.10655155]
- [0.10874622]
- [0.10080487]
- [0.09170802]
- [0.09239889]
- [0.15403058]]</t>
+          <t>[[0.59673846]
+ [0.53482282]
+ [0.47236508]
+ [0.66987851]
+ [0.50415016]
+ [0.33853911]
+ [0.28167903]
+ [0.21002794]
+ [0.12350222]
+ [0.12544606]
+ [0.11467586]
+ [0.1906576 ]]</t>
         </is>
       </c>
       <c r="E1255" t="inlineStr"/>
@@ -34479,18 +34463,18 @@
       <c r="C1256" t="inlineStr"/>
       <c r="D1256" t="inlineStr">
         <is>
-          <t>[[0.08757863]
- [0.0829308 ]
- [0.07831062]
- [0.07640093]
- [0.07017604]
- [0.06410716]
- [0.0830677 ]
- [0.08725071]
- [0.09681395]
- [0.15369705]
- [0.15084858]
- [0.14803926]]</t>
+          <t>[[0.10246661]
+ [0.09824177]
+ [0.09407318]
+ [0.29475978]
+ [0.2863262 ]
+ [0.277905  ]
+ [0.27407952]
+ [0.27851361]
+ [0.28613742]
+ [0.2616306 ]
+ [0.25888352]
+ [0.25614802]]</t>
         </is>
       </c>
       <c r="E1256" t="inlineStr"/>
@@ -34509,18 +34493,18 @@
       <c r="C1257" t="inlineStr"/>
       <c r="D1257" t="inlineStr">
         <is>
-          <t>[[0.52525562]
- [0.47526797]
- [0.42533719]
- [0.35766629]
- [0.2886276 ]
- [0.21889118]
- [0.26010597]
- [0.30208011]
- [0.33705879]
- [0.36159375]
- [0.30159817]
- [0.5090992 ]]</t>
+          <t>[[1.52342588]
+ [1.36658752]
+ [1.21014362]
+ [1.83685312]
+ [1.43696713]
+ [1.04075851]
+ [0.96474789]
+ [0.85712785]
+ [0.63844151]
+ [0.3907971 ]
+ [0.55270529]
+ [0.86499187]]</t>
         </is>
       </c>
       <c r="E1257" t="inlineStr"/>
@@ -34543,7 +34527,7 @@
       </c>
       <c r="D1258" t="inlineStr">
         <is>
-          <t>[0.32565251]</t>
+          <t>[0.17782039]</t>
         </is>
       </c>
       <c r="E1258" t="inlineStr"/>
@@ -34566,7 +34550,7 @@
       </c>
       <c r="D1259" t="inlineStr">
         <is>
-          <t>[0.3291908]</t>
+          <t>[0.17942132]</t>
         </is>
       </c>
       <c r="E1259" t="inlineStr"/>
@@ -34589,7 +34573,7 @@
       </c>
       <c r="D1260" t="inlineStr">
         <is>
-          <t>[0.32565251 0.3291908  1.00349603 1.13582835 1.29602532 2.92664069]</t>
+          <t>[0.17782039 0.17942132 0.68936552 0.93375374 1.07811827 2.59421792]</t>
         </is>
       </c>
       <c r="E1260" t="inlineStr"/>
@@ -34608,9 +34592,12 @@
       <c r="C1261" t="inlineStr"/>
       <c r="D1261" t="inlineStr">
         <is>
-          <t>[[   1.14438376    1.32502137   -5.21498599    5.75279964   -2.00721878]
- [-116.11785164  270.17533576 -401.04016343  285.8134984   -37.83081909]
- [ -54.25590464  192.17027286 -364.97383162  388.44694541 -160.38748201]]</t>
+          <t>[[ 1.00188650e+00 -5.20326399e-02  7.86623936e-01 -1.25013347e+00
+   5.13655666e-01]
+ [ 2.07436024e+02 -2.62878671e+02  2.54574869e+02 -2.57369133e+02
+   5.92369102e+01]
+ [-8.71560797e+01  1.38403893e+02 -3.24488252e+01  1.93404796e+01
+  -3.71394682e+01]]</t>
         </is>
       </c>
       <c r="E1261" t="inlineStr"/>
@@ -34629,9 +34616,12 @@
       <c r="C1262" t="inlineStr"/>
       <c r="D1262" t="inlineStr">
         <is>
-          <t>[[   1.12418564    1.35518373   -5.23284001    5.7299226    -1.97645197]
- [ 100.07600712 -209.59081199  279.72497045 -161.09030336   -8.11986222]
- [ -50.02839474  176.30466804 -336.60767444  357.34820554 -146.0168044 ]]</t>
+          <t>[[ 9.92929626e-01 -4.24583440e-02  7.77773508e-01 -1.24353243e+00
+   5.15287644e-01]
+ [ 4.68930188e+01 -5.64436726e+01  5.53802391e+01 -5.39459917e+01
+   9.11640646e+00]
+ [-8.15447701e+01  1.29532132e+02 -3.93610732e+01  3.17073035e+01
+  -3.93335920e+01]]</t>
         </is>
       </c>
       <c r="E1262" t="inlineStr"/>
@@ -34650,7 +34640,7 @@
       <c r="C1263" t="inlineStr"/>
       <c r="D1263" t="inlineStr">
         <is>
-          <t>[[  8.87020959 -32.03892569  50.72316734 -36.57615796  10.02170672]
+          <t>[[  5.38481514 -15.57718063  23.84180874 -17.85421482   5.20477158]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -34675,7 +34665,7 @@
       </c>
       <c r="D1264" t="inlineStr">
         <is>
-          <t>[0.3291908  1.29602532 3.04316386]</t>
+          <t>[0.17942132 1.07811827 2.67178103]</t>
         </is>
       </c>
       <c r="E1264" t="inlineStr"/>
@@ -34698,7 +34688,7 @@
       </c>
       <c r="D1265" t="inlineStr">
         <is>
-          <t>[0.32565251 1.13582835 2.92664069]</t>
+          <t>[0.17782039 0.93375374 2.59421792]</t>
         </is>
       </c>
       <c r="E1265" t="inlineStr"/>
@@ -34721,7 +34711,7 @@
       </c>
       <c r="D1266" t="inlineStr">
         <is>
-          <t>[6.2511876 0.        0.       ]</t>
+          <t>[4.76524541 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1266" t="inlineStr"/>
@@ -34745,18 +34735,18 @@
       <c r="D1267" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00454432]
- [0.01692033]
- [0.03636158]
- [0.07493406]
- [0.12427408]
- [0.18218185]
- [0.2207772 ]
- [0.2630537 ]
- [0.3100816 ]
- [0.3588655 ]
- [0.40998492]
- [0.45959297]]</t>
+ [0.01524076]
+ [0.05786467]
+ [0.12509373]
+ [0.27498443]
+ [0.48886302]
+ [0.75193367]
+ [0.92850366]
+ [1.11777537]
+ [1.31792026]
+ [1.45517942]
+ [1.59300981]
+ [1.72898884]]</t>
         </is>
       </c>
       <c r="E1267" t="inlineStr"/>
@@ -34779,7 +34769,7 @@
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>[0.45959297]</t>
+          <t>[1.72898884]</t>
         </is>
       </c>
       <c r="E1268" t="inlineStr"/>
@@ -34802,18 +34792,18 @@
       </c>
       <c r="D1269" t="inlineStr">
         <is>
-          <t>[[-24752042.79436587]
- [-22940010.59538337]
- [-21126790.30096526]
- [-18553234.94240928]
- [-15987368.19432161]
- [-13429446.42295768]
- [-12267380.89754865]
- [-11293880.98341578]
- [-10508881.44955891]
- [-10001319.38440369]
- [ -9493615.37795444]
- [ -8985776.31055301]]</t>
+          <t>[[-16625312.44847957]
+ [-15419177.3281543 ]
+ [-14212161.75587995]
+ [-13232293.60433982]
+ [-12251254.58977036]
+ [-11269230.46898932]
+ [-10739039.70396258]
+ [-10254835.92416175]
+ [ -9816667.50035037]
+ [ -9539868.15269822]
+ [ -9262989.54291178]
+ [ -8986034.52447547]]</t>
         </is>
       </c>
       <c r="E1269" t="inlineStr"/>
@@ -34836,18 +34826,18 @@
       </c>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>[[2938067.27710159]
- [2938678.56518166]
- [2939230.77265199]
- [2940705.35866811]
- [2941529.15204987]
- [2942177.9098115 ]
- [2939966.89008094]
- [2939781.43796143]
- [2939568.77270911]
- [2939046.11441231]
- [2939110.29474313]
- [2939069.33404808]]</t>
+          <t>[[2938459.87356706]
+ [2939803.02697745]
+ [2941011.72696409]
+ [2941894.43968498]
+ [2943685.731534  ]
+ [2945066.44157265]
+ [2942154.55180007]
+ [2942061.42979912]
+ [2941874.49860629]
+ [2940415.98028637]
+ [2940428.00597652]
+ [2940392.27457241]]</t>
         </is>
       </c>
       <c r="E1270" t="inlineStr"/>
@@ -34870,18 +34860,18 @@
       </c>
       <c r="D1271" t="inlineStr">
         <is>
-          <t>[[8739.94807956]
- [8743.21715414]
- [8746.31106847]
- [8754.72887701]
- [8760.12394199]
- [8765.00238618]
- [8752.34441743]
- [8752.00762922]
- [8751.99043547]
- [8749.93844265]
- [8753.22011713]
- [8756.17548938]]</t>
+          <t>[[8742.02628345]
+ [8749.29455974]
+ [8756.16121334]
+ [8761.90477965]
+ [8773.88571117]
+ [8784.59227698]
+ [8767.67793947]
+ [8768.66453374]
+ [8769.64387421]
+ [8760.32353247]
+ [8762.15363861]
+ [8763.82577335]]</t>
         </is>
       </c>
       <c r="E1271" t="inlineStr"/>
@@ -34904,18 +34894,18 @@
       </c>
       <c r="D1272" t="inlineStr">
         <is>
-          <t>[[-1881614.77558092]
- [-1778534.13793609]
- [-1674662.58804012]
- [-1525187.4334852 ]
- [-1374949.87975225]
- [-1224415.00123378]
- [-1134168.29257993]
- [-1043717.03902728]
- [ -952779.88886581]
- [ -867069.92727919]
- [ -780378.64347999]
- [ -692941.93152325]]</t>
+          <t>[[-1965816.47883407]
+ [-1854551.08228554]
+ [-1741403.87563288]
+ [-1575758.88033283]
+ [-1405268.95065116]
+ [-1231355.96103513]
+ [-1125988.05326912]
+ [-1019597.03668918]
+ [ -911936.74668032]
+ [ -839466.28437838]
+ [ -766426.51830283]
+ [ -692940.93564226]]</t>
         </is>
       </c>
       <c r="E1272" t="inlineStr"/>
@@ -34938,18 +34928,18 @@
       </c>
       <c r="D1273" t="inlineStr">
         <is>
-          <t>[[ 3.51833919e+08]
- [ 3.17410963e+08]
- [ 2.82848358e+08]
- [ 2.33296259e+08]
- [ 1.83642662e+08]
- [ 1.33978687e+08]
- [ 1.04216970e+08]
- [ 7.44555941e+07]
- [ 4.46817086e+07]
- [ 1.68757299e+07]
- [-1.09288445e+07]
- [-3.86931093e+07]]</t>
+          <t>[[ 3.63266605e+08]
+ [ 3.26419548e+08]
+ [ 2.89244513e+08]
+ [ 2.35489865e+08]
+ [ 1.81033079e+08]
+ [ 1.26183457e+08]
+ [ 9.32166157e+07]
+ [ 6.02083411e+07]
+ [ 2.71801903e+07]
+ [ 5.18220804e+06]
+ [-1.67831091e+07]
+ [-3.86931099e+07]]</t>
         </is>
       </c>
       <c r="E1273" t="inlineStr"/>
@@ -34972,18 +34962,18 @@
       </c>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>[[6203693.1582591 ]
- [6203623.15470181]
- [6203553.09180302]
- [6203488.86378329]
- [6203391.26351609]
- [6203293.25778457]
- [6203363.71638663]
- [6203426.88079017]
- [6203534.93218794]
- [6203837.91219985]
- [6203781.3123658 ]
- [6203724.69773661]]</t>
+          <t>[[6203763.92533861]
+ [6203689.68562692]
+ [6203615.37388822]
+ [6204220.17335364]
+ [6204112.96248107]
+ [6204005.62721206]
+ [6204038.41657645]
+ [6204098.8856325 ]
+ [6204178.92503671]
+ [6204195.08666501]
+ [6204151.94768982]
+ [6204108.79696184]]</t>
         </is>
       </c>
       <c r="E1274" t="inlineStr"/>
@@ -35008,7 +34998,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-2.65624994e+07]]</t>
+ [-1.78302497e+07]]</t>
         </is>
       </c>
       <c r="E1275" t="inlineStr"/>
@@ -35031,9 +35021,9 @@
       </c>
       <c r="D1276" t="inlineStr">
         <is>
-          <t>[[-1.98369660e+06]
- [ 3.86070578e+08]
- [ 6.20266624e+06]]</t>
+          <t>[[-2.07470512e+06]
+ [ 3.99675202e+08]
+ [ 6.20266553e+06]]</t>
         </is>
       </c>
       <c r="E1276" t="inlineStr"/>
@@ -35056,7 +35046,7 @@
       </c>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>[2721855.4229424]</t>
+          <t>[1835315.65781568]</t>
         </is>
       </c>
       <c r="E1277" t="inlineStr"/>
@@ -35079,7 +35069,7 @@
       </c>
       <c r="D1278" t="inlineStr">
         <is>
-          <t>[-2.35484590e+00 -3.34018589e-02  9.47743803e+01]</t>
+          <t>[-3.49234377e+00 -4.95415357e-02  1.11680941e+02]</t>
         </is>
       </c>
       <c r="E1278" t="inlineStr"/>
@@ -35102,8 +35092,8 @@
       </c>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>[3.24447335e+10 3.23138006e+10 3.12773659e+08 5.41253414e+02
- 1.42357775e+07 1.69892135e+05]</t>
+          <t>[2.83494914e+10 2.82185583e+10 2.79293911e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E1279" t="inlineStr"/>
@@ -35122,7 +35112,8 @@
       <c r="C1280" t="inlineStr"/>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>[81.48148156 81.48148155 81.48148155 81.48148155 81.48148156 81.48148156]</t>
+          <t>[143.52669902 143.52669902 143.52669902 143.52669902 140.6896862
+ 136.45190352]</t>
         </is>
       </c>
       <c r="E1280" t="inlineStr"/>
@@ -35141,7 +35132,7 @@
       <c r="C1281" t="inlineStr"/>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1.]</t>
+          <t>[1.         1.         1.         1.         0.96046711 0.97967729]</t>
         </is>
       </c>
       <c r="E1281" t="inlineStr"/>
@@ -35160,7 +35151,7 @@
       <c r="C1282" t="inlineStr"/>
       <c r="D1282" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1.]</t>
+          <t>[1.         1.         1.         1.         0.96046711 0.97967729]</t>
         </is>
       </c>
       <c r="E1282" t="inlineStr"/>
@@ -35261,8 +35252,10 @@
       </c>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>[5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5
- 5.5]</t>
+          <t>[5.02343447 5.02343447 5.02343447 5.02343447 5.02343447 5.02343447
+ 5.02343447 5.02343447 5.02343447 5.02343447 5.02343447 5.02343447
+ 5.02343447 4.9572375  4.89104053 4.82484357 4.79215894 4.75947431
+ 4.72678968]</t>
         </is>
       </c>
       <c r="E1287" t="inlineStr"/>
@@ -35285,7 +35278,7 @@
       </c>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>[  0.   0. -45.]</t>
+          <t>[  0.    0.  -52.5]</t>
         </is>
       </c>
       <c r="E1288" t="inlineStr"/>
@@ -35308,7 +35301,7 @@
       </c>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>[8552.98599175]</t>
+          <t>[8324.16449261]</t>
         </is>
       </c>
       <c r="E1289" t="inlineStr"/>
@@ -35331,7 +35324,7 @@
       </c>
       <c r="D1290" t="inlineStr">
         <is>
-          <t>[85970238.19851828]</t>
+          <t>[83670241.58858526]</t>
         </is>
       </c>
       <c r="E1290" t="inlineStr"/>
@@ -35350,7 +35343,7 @@
       <c r="C1291" t="inlineStr"/>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>[5.]</t>
+          <t>[4.]</t>
         </is>
       </c>
       <c r="E1291" t="inlineStr"/>
@@ -35373,7 +35366,7 @@
       </c>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>[95.0331777]</t>
+          <t>[79.27775707]</t>
         </is>
       </c>
       <c r="E1292" t="inlineStr"/>
@@ -35396,7 +35389,7 @@
       </c>
       <c r="D1293" t="inlineStr">
         <is>
-          <t>[718.68840579]</t>
+          <t>[500.14144572]</t>
         </is>
       </c>
       <c r="E1293" t="inlineStr"/>
@@ -35419,7 +35412,7 @@
       </c>
       <c r="D1294" t="inlineStr">
         <is>
-          <t>[718.68840579]</t>
+          <t>[500.14144572]</t>
         </is>
       </c>
       <c r="E1294" t="inlineStr"/>
@@ -35442,8 +35435,8 @@
       </c>
       <c r="D1295" t="inlineStr">
         <is>
-          <t>[8.76681064e+06 8.76681064e+06 2.27379166e+05 5.91789604e+09
- 5.91789604e+09 0.00000000e+00]</t>
+          <t>[8.53226860e+06 8.53226860e+06 1.73246642e+05 7.83941768e+09
+ 7.83941768e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E1295" t="inlineStr"/>
@@ -35489,10 +35482,10 @@
       </c>
       <c r="D1297" t="inlineStr">
         <is>
-          <t>[-90.         -80.         -70.         -60.         -51.66666667
- -43.33333333 -35.         -26.66666667 -18.33333333 -10.
-  -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.        ]</t>
+          <t>[-105.          -90.          -75.          -60.          -51.66666667
+  -43.33333333  -35.          -26.66666667  -18.33333333  -10.
+   -6.66666667   -3.33333333    0.            3.33333333    6.66666667
+   10.           11.66666667   13.33333333   15.        ]</t>
         </is>
       </c>
       <c r="E1297" t="inlineStr"/>
@@ -35515,10 +35508,10 @@
       </c>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         11.         10.99999999
- 10.99999999 10.99999999 10.99999999 10.99999999 11.         11.
- 11.         11.         11.         11.         11.         11.
- 11.        ]</t>
+          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
+ 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
+ 10.04686893  9.914475    9.78208107  9.64968714  9.58431788  9.51894862
+  9.45357936]</t>
         </is>
       </c>
       <c r="E1298" t="inlineStr"/>
@@ -35541,7 +35534,7 @@
       </c>
       <c r="D1299" t="inlineStr">
         <is>
-          <t>[30. 25. 25. 10. 10.  5.]</t>
+          <t>[45. 25. 25. 10. 10.  5.]</t>
         </is>
       </c>
       <c r="E1299" t="inlineStr"/>
@@ -35672,7 +35665,7 @@
       </c>
       <c r="D1305" t="inlineStr">
         <is>
-          <t>[-90. -60. -35. -10.   0.  10.  15.]</t>
+          <t>[-105.  -60.  -35.  -10.    0.   10.   15.]</t>
         </is>
       </c>
       <c r="E1305" t="inlineStr"/>
@@ -35691,7 +35684,7 @@
       <c r="C1306" t="inlineStr"/>
       <c r="D1306" t="inlineStr">
         <is>
-          <t>[0.         0.31428571 0.6        0.8        0.91428571 1.        ]</t>
+          <t>[0.         0.36842105 0.63157895 0.81578947 0.92105263 1.        ]</t>
         </is>
       </c>
       <c r="E1306" t="inlineStr">
@@ -35772,8 +35765,8 @@
       </c>
       <c r="D1309" t="inlineStr">
         <is>
-          <t>[38458.44775836 38458.4477573  38458.44775664 38458.44775819
- 38458.44775984 38458.44775983]</t>
+          <t>[18311.35827078 18311.35827078 18311.35827077 18311.35827079
+ 17946.86825908 17402.41197563]</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr">
@@ -35800,8 +35793,8 @@
       </c>
       <c r="D1310" t="inlineStr">
         <is>
-          <t>[567581.54945299 567581.54939281 567581.5493638  567581.54944492
- 567581.54951845 567581.54951814]</t>
+          <t>[227845.51555423 227845.51555418 227845.51555414 227845.51555482
+ 214509.09332067 195573.24158835]</t>
         </is>
       </c>
       <c r="E1310" t="inlineStr">
@@ -35828,8 +35821,8 @@
       </c>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>[567581.54945299 567581.54939281 567581.5493638  567581.54944492
- 567581.54951845 567581.54951814]</t>
+          <t>[227845.51555423 227845.51555418 227845.51555414 227845.51555482
+ 214509.09332067 195573.24158835]</t>
         </is>
       </c>
       <c r="E1311" t="inlineStr">
@@ -35856,8 +35849,8 @@
       </c>
       <c r="D1312" t="inlineStr">
         <is>
-          <t>[1.36012832e+13 1.36012832e+13 1.36012832e+13 1.36012832e+13
- 1.36012832e+13 1.36012832e+13]</t>
+          <t>[5.45999318e+12 5.45999318e+12 5.45999318e+12 5.45999318e+12
+ 5.14040482e+12 4.68663411e+12]</t>
         </is>
       </c>
       <c r="E1312" t="inlineStr">
@@ -35884,8 +35877,8 @@
       </c>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>[1.36012832e+13 1.36012832e+13 1.36012832e+13 1.36012832e+13
- 1.36012832e+13 1.36012832e+13]</t>
+          <t>[5.45999318e+12 5.45999318e+12 5.45999318e+12 5.45999318e+12
+ 5.14040482e+12 4.68663411e+12]</t>
         </is>
       </c>
       <c r="E1313" t="inlineStr">
@@ -35912,8 +35905,8 @@
       </c>
       <c r="D1314" t="inlineStr">
         <is>
-          <t>[1.07858176e+13 1.07858176e+13 1.07858176e+13 1.07858176e+13
- 1.07858176e+13 1.07858176e+13]</t>
+          <t>[4.32977459e+12 4.32977459e+12 4.32977459e+12 4.32977459e+12
+ 4.07634103e+12 3.71650085e+12]</t>
         </is>
       </c>
       <c r="E1314" t="inlineStr">
@@ -35940,8 +35933,8 @@
       </c>
       <c r="D1315" t="inlineStr">
         <is>
-          <t>[9.21601911e+11 9.21601911e+11 9.21601911e+11 9.21601911e+11
- 9.21601911e+11 9.21601911e+11]</t>
+          <t>[4.38805614e+11 4.38805614e+11 4.38805614e+11 4.38805614e+11
+ 4.30071130e+11 4.17024011e+11]</t>
         </is>
       </c>
       <c r="E1315" t="inlineStr">
@@ -36049,12 +36042,12 @@
       </c>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.21701344 0.08087472 0.08087472 0.        ]
- [0.         0.         0.21701344 0.08087472 0.08087472 0.        ]
- [0.         0.         0.21701344 0.08087472 0.08087472 0.        ]
- [0.         0.         0.21701344 0.08087472 0.08087472 0.        ]
- [0.         0.         0.21701344 0.08087472 0.08087472 0.        ]
- [0.         0.         0.21701344 0.08087472 0.08087472 0.        ]]</t>
+          <t>[[0.         0.         0.45578268 0.18400882 0.18400882 0.        ]
+ [0.         0.         0.45578268 0.18400882 0.18400882 0.        ]
+ [0.         0.         0.45578268 0.18400882 0.18400882 0.        ]
+ [0.         0.         0.45578268 0.18400882 0.18400882 0.        ]
+ [0.         0.         0.46503935 0.19158565 0.19158565 0.        ]
+ [0.         0.         0.47958869 0.20380582 0.20380582 0.        ]]</t>
         </is>
       </c>
       <c r="E1319" t="inlineStr"/>
@@ -36077,12 +36070,12 @@
       </c>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>[[0.35538649 0.35538649 0.         0.         0.         0.04043736]
- [0.35538649 0.35538649 0.         0.         0.         0.04043736]
- [0.35538649 0.35538649 0.         0.         0.         0.04043736]
- [0.35538649 0.35538649 0.         0.         0.         0.04043736]
- [0.35538649 0.35538649 0.         0.         0.         0.04043736]
- [0.35538649 0.35538649 0.         0.         0.         0.04043736]]</t>
+          <t>[[0.74828455 0.74828455 0.         0.         0.         0.09200441]
+ [0.74828455 0.74828455 0.         0.         0.         0.09200441]
+ [0.74828455 0.74828455 0.         0.         0.         0.09200441]
+ [0.74828455 0.74828455 0.         0.         0.         0.09200441]
+ [0.76343189 0.76343189 0.         0.         0.         0.09579283]
+ [0.78723588 0.78723588 0.         0.         0.         0.10190291]]</t>
         </is>
       </c>
       <c r="E1320" t="inlineStr"/>
@@ -36105,7 +36098,7 @@
       </c>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>[1486.033134]</t>
+          <t>[1145.28539245]</t>
         </is>
       </c>
       <c r="E1321" t="inlineStr"/>
@@ -36128,7 +36121,7 @@
       </c>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>[9401272.64927105]</t>
+          <t>[5365080.13345841]</t>
         </is>
       </c>
       <c r="E1322" t="inlineStr"/>
@@ -36151,7 +36144,7 @@
       </c>
       <c r="D1323" t="inlineStr">
         <is>
-          <t>[4038137.01457869]</t>
+          <t>[2189173.36090061]</t>
         </is>
       </c>
       <c r="E1323" t="inlineStr"/>
@@ -36174,7 +36167,7 @@
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>[52.5]</t>
+          <t>[59.79426401]</t>
         </is>
       </c>
       <c r="E1324" t="inlineStr"/>
@@ -36197,7 +36190,7 @@
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>[1.48997496e+10 1.48997496e+10 1.19192125e+08 0.00000000e+00
+          <t>[1.04659886e+10 1.04659886e+10 5.40954512e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36221,9 +36214,9 @@
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         10.99999999 10.99999999
- 10.99999999 10.99999999 10.99999999 11.         11.         11.
- 11.         11.         11.         11.         11.         11.        ]</t>
+          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
+ 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
+  9.98067197  9.84827803  9.7158841   9.61700251  9.55163325  9.48626399]</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr"/>
@@ -36246,8 +36239,8 @@
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>[0.14445 0.14445 0.14445 0.14445 0.14445 0.14445 0.14445 0.14445 0.14445
- 0.14445 0.14445 0.14445 0.14445 0.14445 0.14445 0.14445 0.14445 0.14445]</t>
+          <t>[0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749
+ 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749]</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr"/>
@@ -36295,7 +36288,7 @@
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>[4138137.01457869]</t>
+          <t>[2289173.36090061]</t>
         </is>
       </c>
       <c r="E1329" t="inlineStr"/>
@@ -36318,7 +36311,7 @@
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>[9901272.64927105]</t>
+          <t>[5865080.13345841]</t>
         </is>
       </c>
       <c r="E1330" t="inlineStr"/>
@@ -36341,7 +36334,7 @@
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>[53.76868685]</t>
+          <t>[62.42428483]</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr"/>
@@ -36364,7 +36357,7 @@
       </c>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>[1.60037621e+10 1.60037621e+10 1.22217125e+08 0.00000000e+00
+          <t>[1.19071057e+10 1.19071057e+10 5.63297052e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36388,7 +36381,7 @@
       </c>
       <c r="D1333" t="inlineStr">
         <is>
-          <t>[5911597.21234915]</t>
+          <t>[3176067.69263693]</t>
         </is>
       </c>
       <c r="E1333" t="inlineStr"/>
@@ -36411,7 +36404,7 @@
       </c>
       <c r="D1334" t="inlineStr">
         <is>
-          <t>[14395540.04197729]</t>
+          <t>[8290884.88991867]</t>
         </is>
       </c>
       <c r="E1334" t="inlineStr"/>
@@ -36434,7 +36427,7 @@
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>[-90.]</t>
+          <t>[-105.]</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr"/>
@@ -36453,7 +36446,7 @@
       <c r="C1336" t="inlineStr"/>
       <c r="D1336" t="inlineStr">
         <is>
-          <t>[1.]</t>
+          <t>[0.84624032]</t>
         </is>
       </c>
       <c r="E1336" t="inlineStr"/>
@@ -36476,8 +36469,7 @@
       </c>
       <c r="D1337" t="inlineStr">
         <is>
-          <t>[-30.         -26.66666667 -23.33333333 -20.         -16.66666667
- -13.33333333 -10.          -6.66666667  -3.33333333  -0.        ]</t>
+          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
         </is>
       </c>
       <c r="E1337" t="inlineStr"/>
@@ -36500,26 +36492,26 @@
       </c>
       <c r="D1338" t="inlineStr">
         <is>
-          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
-  1.52133333e+10 1.24226667e+11]
- [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
-  1.40933333e+10 1.24226667e+11]
- [1.84151579e+10 2.94918411e+12 1.84151579e+10 2.94918411e+12
-  1.29733333e+10 1.24226667e+11]
- [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
-  1.18533333e+10 1.24226667e+11]
- [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
-  1.07333333e+10 1.24226667e+11]
- [1.21903158e+10 7.56182633e+11 1.21903158e+10 7.56182633e+11
-  9.61333333e+09 1.24226667e+11]
- [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
-  8.49333333e+09 1.24226667e+11]
- [8.04042105e+09 2.52864773e+11 8.04042105e+09 2.52864773e+11
-  7.37333333e+09 1.24226667e+11]
- [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
-  6.25333333e+09 1.24226667e+11]
- [3.89052631e+09 1.03522222e+11 3.89052631e+09 1.03522222e+11
-  5.13333333e+09 1.24226667e+11]]</t>
+          <t>[[3.15652084e+10 1.87316120e+13 3.15652084e+10 1.87316120e+13
+  1.98085388e+10 9.46518238e+10]
+ [2.84527873e+10 1.32741969e+13 2.84527873e+10 1.32741969e+13
+  1.81285388e+10 9.46518238e+10]
+ [2.53403663e+10 9.01144854e+12 2.53403663e+10 9.01144854e+12
+  1.64485388e+10 9.46518238e+10]
+ [2.22279452e+10 5.79403349e+12 2.22279452e+10 5.79403349e+12
+  1.47685388e+10 9.46518238e+10]
+ [1.91155242e+10 3.47261844e+12 1.91155242e+10 3.47261844e+12
+  1.30885388e+10 9.46518238e+10]
+ [1.60031031e+10 1.89787006e+12 1.60031031e+10 1.89787006e+12
+  1.14085388e+10 9.46518238e+10]
+ [1.28906821e+10 9.20455006e+11 1.28906821e+10 9.20455006e+11
+  9.72853883e+09 9.46518238e+10]
+ [9.77826101e+09 3.91039955e+11 9.77826101e+09 3.91039955e+11
+  8.04853883e+09 9.46518238e+10]
+ [6.66583996e+09 1.60291571e+11 6.66583996e+09 1.60291571e+11
+  6.36853883e+09 9.46518238e+10]
+ [3.55341891e+09 7.88765198e+10 3.55341891e+09 7.88765198e+10
+  4.68853883e+09 9.46518238e+10]]</t>
         </is>
       </c>
       <c r="E1338" t="inlineStr"/>
@@ -38625,7 +38617,7 @@
       <c r="C1408" t="inlineStr"/>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>[199.99999951 200.00000089 188.80415784 171.40000009]</t>
+          <t>[168.40117679 299.79086127 280.         240.        ]</t>
         </is>
       </c>
       <c r="E1408" t="inlineStr"/>
@@ -38644,7 +38636,7 @@
       <c r="C1409" t="inlineStr"/>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>[1.         0.98923962 0.55129579 1.        ]</t>
+          <t>[1.   1.   0.75 1.  ]</t>
         </is>
       </c>
       <c r="E1409" t="inlineStr"/>
@@ -38663,7 +38655,7 @@
       <c r="C1410" t="inlineStr"/>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>[1.         0.98923962 0.55129579 1.        ]</t>
+          <t>[1.   1.   0.75 1.  ]</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr"/>
@@ -38682,7 +38674,7 @@
       <c r="C1411" t="inlineStr"/>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>[0.9946198  0.81719831 0.78292614]</t>
+          <t>[0.56172885 0.93684644 1.        ]</t>
         </is>
       </c>
       <c r="E1411" t="inlineStr"/>
@@ -38763,9 +38755,9 @@
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>[5.49999999 5.49999999 5.49999998 5.49999997 5.48027261 5.46054524
- 5.44081788 4.62704525 3.81327263 2.99950001 2.99950001 2.99950001
- 2.99950001]</t>
+          <t>[4.         4.         4.         4.         4.         4.
+ 4.         3.66666667 3.33333333 3.         3.         3.
+ 3.        ]</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr"/>
@@ -38991,9 +38983,9 @@
       </c>
       <c r="D1425" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr"/>
@@ -39016,9 +39008,9 @@
       </c>
       <c r="D1426" t="inlineStr">
         <is>
-          <t>[10.99999999 10.99999997 10.99999996 10.99999994 10.96054521 10.92109048
- 10.88163575  9.2540905   7.62654526  5.99900001  5.99900001  5.99900001
-  5.99900001]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E1426" t="inlineStr"/>
@@ -39041,7 +39033,7 @@
       </c>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>[34.83993007 49.77132867 29.8627972  27.87194406]</t>
+          <t>[36.90451852 52.72074074 31.63244444 21.0882963 ]</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr"/>
@@ -39171,7 +39163,7 @@
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t>[ 15.          49.83993007  99.61125874 129.47405594 157.346     ]</t>
+          <t>[ 15.          51.90451852 104.62525926 136.2577037  157.346     ]</t>
         </is>
       </c>
       <c r="E1433" t="inlineStr"/>
@@ -39190,7 +39182,7 @@
       <c r="C1434" t="inlineStr"/>
       <c r="D1434" t="inlineStr">
         <is>
-          <t>[0.         0.38116592 0.73991031 1.        ]</t>
+          <t>[0.         0.39534884 0.76744186 1.        ]</t>
         </is>
       </c>
       <c r="E1434" t="inlineStr">
@@ -39271,7 +39263,7 @@
       </c>
       <c r="D1437" t="inlineStr">
         <is>
-          <t>[15783.62328047 15614.24218615  9840.74446768  5473.10693358]</t>
+          <t>[9905.50199213 5578.77386332 4572.06581752 3916.57251035]</t>
         </is>
       </c>
       <c r="E1437" t="inlineStr">
@@ -39298,7 +39290,7 @@
       </c>
       <c r="D1438" t="inlineStr">
         <is>
-          <t>[236351.96393973 231306.38827866  86707.20469881  24335.15822336]</t>
+          <t>[78308.4708231  44333.44190207 27804.58963809 17478.31679189]</t>
         </is>
       </c>
       <c r="E1438" t="inlineStr">
@@ -39325,7 +39317,7 @@
       </c>
       <c r="D1439" t="inlineStr">
         <is>
-          <t>[236351.96393973 231306.38827866  86707.20469881  24335.15822336]</t>
+          <t>[78308.4708231  44333.44190207 27804.58963809 17478.31679189]</t>
         </is>
       </c>
       <c r="E1439" t="inlineStr">
@@ -39352,7 +39344,7 @@
       </c>
       <c r="D1440" t="inlineStr">
         <is>
-          <t>[5.66383810e+12 5.54292807e+12 2.07781463e+12 5.83157398e+11]</t>
+          <t>[1.87655094e+12 1.06238778e+12 6.66297379e+11 4.18842962e+11]</t>
         </is>
       </c>
       <c r="E1440" t="inlineStr">
@@ -39379,7 +39371,7 @@
       </c>
       <c r="D1441" t="inlineStr">
         <is>
-          <t>[5.66383810e+12 5.54292807e+12 2.07781463e+12 5.83157398e+11]</t>
+          <t>[1.87655094e+12 1.06238778e+12 6.66297379e+11 4.18842962e+11]</t>
         </is>
       </c>
       <c r="E1441" t="inlineStr">
@@ -39406,7 +39398,7 @@
       </c>
       <c r="D1442" t="inlineStr">
         <is>
-          <t>[4.49142361e+12 4.39554196e+12 1.64770701e+12 4.62443817e+11]</t>
+          <t>[1.48810490e+12 8.42473507e+11 5.28373822e+11 3.32142469e+11]</t>
         </is>
       </c>
       <c r="E1442" t="inlineStr">
@@ -39433,7 +39425,7 @@
       </c>
       <c r="D1443" t="inlineStr">
         <is>
-          <t>[3.78232046e+11 3.74173069e+11 2.35819422e+11 1.31155210e+11]</t>
+          <t>[2.37371244e+11 1.33687368e+11 1.09563044e+11 9.38550805e+10]</t>
         </is>
       </c>
       <c r="E1443" t="inlineStr">
@@ -39541,10 +39533,10 @@
       </c>
       <c r="D1447" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.52877593 0.19421459 0.19421459 0.        ]
- [0.         0.         0.53451201 0.19738336 0.19738336 0.        ]
- [0.         0.         0.84810657 0.4062113  0.4062113  0.        ]
- [0.         0.         1.52491082 1.02871026 1.02871026 0.        ]]</t>
+          <t>[[0.         0.         0.84256204 0.42631403 0.42631403 0.        ]
+ [0.         0.         1.49602766 0.75302071 0.75302071 0.        ]
+ [0.         0.         1.82543304 1.05058195 1.05058195 0.        ]
+ [0.         0.         2.13094484 1.4325178  1.4325178  0.        ]]</t>
         </is>
       </c>
       <c r="E1447" t="inlineStr"/>
@@ -39567,10 +39559,10 @@
       </c>
       <c r="D1448" t="inlineStr">
         <is>
-          <t>[[0.86890906 0.86890906 0.         0.         0.         0.0971073 ]
- [0.87833486 0.87833486 0.         0.         0.         0.09869168]
- [1.39345893 1.39345893 0.         0.         0.         0.20310565]
- [2.50484557 2.50484557 0.         0.         0.         0.51435513]]</t>
+          <t>[[1.38394116 1.38394116 0.         0.         0.         0.21315702]
+ [2.46019829 2.46019829 0.         0.         0.         0.37651036]
+ [3.00158224 3.00158224 0.         0.         0.         0.52529097]
+ [3.50299574 3.50299574 0.         0.         0.         0.7162589 ]]</t>
         </is>
       </c>
       <c r="E1448" t="inlineStr"/>
@@ -39593,7 +39585,7 @@
       </c>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>[749.9904038]</t>
+          <t>[539.98969022]</t>
         </is>
       </c>
       <c r="E1449" t="inlineStr"/>
@@ -39616,7 +39608,7 @@
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t>[4494267.39270624]</t>
+          <t>[2425804.75646027]</t>
         </is>
       </c>
       <c r="E1450" t="inlineStr"/>
@@ -39639,8 +39631,8 @@
       </c>
       <c r="D1451" t="inlineStr">
         <is>
-          <t>[10.99999998 10.99999996 10.99999995 10.98027258 10.94081785 10.90136312
- 10.06786313  8.44031788  6.81277263  5.99900001  5.99900001  5.99900001]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 7.66666667 7.         6.33333333 6.         6.         6.        ]</t>
         </is>
       </c>
       <c r="E1451" t="inlineStr"/>
@@ -39663,8 +39655,8 @@
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>[0.05885    0.05885    0.05885    0.05853338 0.05853338 0.05853338
- 0.04783338 0.04783338 0.04783338 0.03745    0.03745    0.03745   ]</t>
+          <t>[0.050831   0.050831   0.050831   0.02855324 0.02855324 0.02855324
+ 0.02675    0.02675    0.02675    0.02675    0.02675    0.02675   ]</t>
         </is>
       </c>
       <c r="E1452" t="inlineStr"/>
@@ -45183,7 +45175,7 @@
       </c>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>[2.53333311]</t>
+          <t>[2.73393881]</t>
         </is>
       </c>
       <c r="E1628" t="inlineStr"/>
@@ -47087,9 +47079,9 @@
       <c r="D1713" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          49.83993007]
- [  0.           0.          99.61125874]
- [  0.           0.         129.47405594]
+ [  0.           0.          51.90451852]
+ [  0.           0.         104.62525926]
+ [  0.           0.         136.2577037 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -47913,7 +47905,7 @@
       <c r="C1745" t="inlineStr"/>
       <c r="D1745" t="inlineStr">
         <is>
-          <t>[0.         0.28571429 0.52380952 0.76190476 0.85714286 0.95238095
+          <t>[0.         0.375      0.58333333 0.79166667 0.875      0.95833333
  1.        ]</t>
         </is>
       </c>
@@ -47941,7 +47933,7 @@
       </c>
       <c r="D1746" t="inlineStr">
         <is>
-          <t>[105.]</t>
+          <t>[120.]</t>
         </is>
       </c>
       <c r="E1746" t="inlineStr">
@@ -47968,7 +47960,7 @@
       </c>
       <c r="D1747" t="inlineStr">
         <is>
-          <t>[105.]</t>
+          <t>[120.]</t>
         </is>
       </c>
       <c r="E1747" t="inlineStr">
@@ -47995,7 +47987,7 @@
       </c>
       <c r="D1748" t="inlineStr">
         <is>
-          <t>[-90.]</t>
+          <t>[-105.]</t>
         </is>
       </c>
       <c r="E1748" t="inlineStr">
@@ -48022,8 +48014,8 @@
       </c>
       <c r="D1749" t="inlineStr">
         <is>
-          <t>[11.         11.         10.99999999 10.99999999 11.         11.
- 11.        ]</t>
+          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893  9.64968714
+  9.45357936]</t>
         </is>
       </c>
       <c r="E1749" t="inlineStr">
@@ -48050,7 +48042,7 @@
       </c>
       <c r="D1750" t="inlineStr">
         <is>
-          <t>[[0.135 0.135 0.135 0.135 0.135 0.135 0.135]]</t>
+          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
         </is>
       </c>
       <c r="E1750" t="inlineStr">
@@ -48981,7 +48973,7 @@
  [  0.   0.  50.]
  [  0.   0. 100.]
  [  0.   0. 130.]
- [  0.   0. 158.]]</t>
+ [  0.   0. 150.]]</t>
         </is>
       </c>
       <c r="E1785" t="inlineStr">
@@ -49008,7 +49000,7 @@
       </c>
       <c r="D1786" t="inlineStr">
         <is>
-          <t>[10.99999999 10.99999994 10.88163575  5.99900001  5.99900001]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E1786" t="inlineStr">
@@ -49058,7 +49050,7 @@
       </c>
       <c r="D1788" t="inlineStr">
         <is>
-          <t>[[0.055      0.055      0.05440818 0.035      0.035     ]]</t>
+          <t>[[0.06664067 0.02837054 0.025      0.025      0.025     ]]</t>
         </is>
       </c>
       <c r="E1788" t="inlineStr">
@@ -49158,7 +49150,7 @@
       <c r="C1792" t="inlineStr"/>
       <c r="D1792" t="inlineStr">
         <is>
-          <t>[0.         0.24475524 0.59440559 0.8041958  1.        ]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E1792" t="inlineStr">
@@ -49515,7 +49507,7 @@
       </c>
       <c r="D1807" t="inlineStr">
         <is>
-          <t>[-0.006317]</t>
+          <t>[-0.00631526]</t>
         </is>
       </c>
       <c r="E1807" t="inlineStr"/>
@@ -49561,7 +49553,7 @@
       </c>
       <c r="D1809" t="inlineStr">
         <is>
-          <t>[-0.00544265]</t>
+          <t>[-0.00544382]</t>
         </is>
       </c>
       <c r="E1809" t="inlineStr"/>
@@ -51058,7 +51050,7 @@
       </c>
       <c r="D1877" t="inlineStr">
         <is>
-          <t>[0.77726826]</t>
+          <t>[0.77676827]</t>
         </is>
       </c>
       <c r="E1877" t="inlineStr"/>
@@ -52048,7 +52040,7 @@
       </c>
       <c r="D1921" t="inlineStr">
         <is>
-          <t>[40682.04567273]</t>
+          <t>[40686.9261128]</t>
         </is>
       </c>
       <c r="E1921" t="inlineStr"/>
@@ -52071,7 +52063,7 @@
       </c>
       <c r="D1922" t="inlineStr">
         <is>
-          <t>[629518.96521145]</t>
+          <t>[629537.66835959]</t>
         </is>
       </c>
       <c r="E1922" t="inlineStr"/>
@@ -52094,7 +52086,7 @@
       </c>
       <c r="D1923" t="inlineStr">
         <is>
-          <t>[-4.01003177 -0.14441984  4.24929631]</t>
+          <t>[-4.00991761 -0.14443037  4.24918643]</t>
         </is>
       </c>
       <c r="E1923" t="inlineStr"/>
@@ -52117,8 +52109,8 @@
       </c>
       <c r="D1924" t="inlineStr">
         <is>
-          <t>[9224591.75166626 8617359.58151441 8195565.63709773  351066.14079636
- 1743279.93831689 -201547.34367686]</t>
+          <t>[9225580.40494873 8618497.83646925 8196888.37923555  351088.87030514
+ 1743635.62842814 -201554.91603401]</t>
         </is>
       </c>
       <c r="E1924" t="inlineStr"/>
@@ -52141,8 +52133,8 @@
       </c>
       <c r="D1925" t="inlineStr">
         <is>
-          <t>[8803003.84784524 7821243.32194075 7820064.452399    364572.16211436
- 1345889.35177825 -215859.2219267 ]</t>
+          <t>[8803899.15124393 7822207.43852207 7821305.99873213  364599.1774316
+ 1346158.17883116 -215871.37321263]</t>
         </is>
       </c>
       <c r="E1925" t="inlineStr"/>
@@ -52165,8 +52157,8 @@
       </c>
       <c r="D1926" t="inlineStr">
         <is>
-          <t>[2.01830550e+07 2.93110529e+07 1.79560827e+07 1.16415322e-10
- 1.20727749e+07 1.70465683e+05]</t>
+          <t>[2.01837025e+07 2.93114912e+07 1.79570509e+07 1.16415322e-10
+ 1.20727797e+07 1.70483168e+05]</t>
         </is>
       </c>
       <c r="E1926" t="inlineStr"/>
@@ -52189,7 +52181,7 @@
       </c>
       <c r="D1927" t="inlineStr">
         <is>
-          <t>[0.00466215]</t>
+          <t>[0.00466098]</t>
         </is>
       </c>
       <c r="E1927" t="inlineStr"/>
@@ -52212,7 +52204,7 @@
       </c>
       <c r="D1928" t="inlineStr">
         <is>
-          <t>[0.00330808]</t>
+          <t>[0.00330717]</t>
         </is>
       </c>
       <c r="E1928" t="inlineStr"/>
@@ -52235,7 +52227,7 @@
       </c>
       <c r="D1929" t="inlineStr">
         <is>
-          <t>[0.00311439]</t>
+          <t>[0.00311352]</t>
         </is>
       </c>
       <c r="E1929" t="inlineStr"/>
@@ -52258,7 +52250,7 @@
       </c>
       <c r="D1930" t="inlineStr">
         <is>
-          <t>[-0.0009661]</t>
+          <t>[-0.00096587]</t>
         </is>
       </c>
       <c r="E1930" t="inlineStr"/>
@@ -52281,7 +52273,7 @@
       </c>
       <c r="D1931" t="inlineStr">
         <is>
-          <t>[-0.00093224]</t>
+          <t>[-0.00093202]</t>
         </is>
       </c>
       <c r="E1931" t="inlineStr"/>
@@ -52304,7 +52296,7 @@
       </c>
       <c r="D1932" t="inlineStr">
         <is>
-          <t>[0.00090783]</t>
+          <t>[0.0009076]</t>
         </is>
       </c>
       <c r="E1932" t="inlineStr"/>
@@ -52329,7 +52321,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-8.98577631e+06]]</t>
+ [-8.98603452e+06]]</t>
         </is>
       </c>
       <c r="E1933" t="inlineStr"/>
@@ -52352,9 +52344,9 @@
       </c>
       <c r="D1934" t="inlineStr">
         <is>
-          <t>[[  -692939.78156247]
- [-38693034.479803  ]
- [  6202666.24458035]]</t>
+          <t>[[  -692940.008576  ]
+ [-38693074.08051626]
+ [  6202665.53278366]]</t>
         </is>
       </c>
       <c r="E1934" t="inlineStr"/>
@@ -52377,20 +52369,20 @@
       </c>
       <c r="D1935" t="inlineStr">
         <is>
-          <t>[[3.77212691e+07]
- [3.94409119e+07]
- [4.19929288e+07]
- [4.56090197e+07]
- [5.06449417e+07]
- [5.76402721e+07]
- [6.73768707e+07]
- [8.07951235e+07]
- [9.81304393e+07]
- [1.15412630e+08]
- [1.18612497e+08]
- [6.31659015e+07]
- [6.13025412e+07]
- [1.12867568e+07]
+          <t>[[3.77100750e+07]
+ [3.94292335e+07]
+ [4.19805835e+07]
+ [4.55957996e+07]
+ [5.06306239e+07]
+ [5.76246670e+07]
+ [6.73599764e+07]
+ [8.07775573e+07]
+ [9.81143750e+07]
+ [1.15402369e+08]
+ [1.18609783e+08]
+ [6.31658991e+07]
+ [6.13025391e+07]
+ [1.12867557e+07]
  [3.67595980e+06]]</t>
         </is>
       </c>
@@ -52414,21 +52406,21 @@
       </c>
       <c r="D1936" t="inlineStr">
         <is>
-          <t>[[ 8198781.6881253 ]
- [ 5095327.1455254 ]
- [ 3047782.36680507]
- [ 7003274.17005326]
- [11730989.00359447]
- [17602448.11965018]
- [25094691.18326254]
- [34742153.51987067]
- [46807042.31956472]
- [60107631.65287516]
- [70031275.84486613]
- [36800928.55476928]
- [25411892.47588475]
- [24647897.46562179]
- [24524781.53624133]]</t>
+          <t>[[ 8196999.31830916]
+ [ 5094051.80087558]
+ [ 3046911.15812881]
+ [ 7001757.54569469]
+ [11728746.17396683]
+ [17599404.23607993]
+ [25090836.93232333]
+ [34737694.3872863 ]
+ [46802685.79137163]
+ [60104720.92907161]
+ [70030447.54624267]
+ [36800928.55531872]
+ [25411892.47643425]
+ [24647897.46745445]
+ [24524781.53807375]]</t>
         </is>
       </c>
       <c r="E1936" t="inlineStr"/>
@@ -52451,17 +52443,17 @@
       </c>
       <c r="D1937" t="inlineStr">
         <is>
-          <t>[[19541742.92351245]
- [20787724.029806  ]
- [22799392.69616954]
- [25699411.34767877]
- [29729541.92751456]
- [35347827.50189019]
- [43372175.3850489 ]
- [55104178.08915409]
- [71764285.81273267]
- [90596108.87165816]
- [97575448.38125241]
+          <t>[[19533470.81272292]
+ [20779111.50768383]
+ [22790297.47511837]
+ [25689644.04409209]
+ [29718870.44041621]
+ [35335991.44334316]
+ [43358968.86778108]
+ [55089814.72863077]
+ [71750489.6970504 ]
+ [90587113.57082447]
+ [97572896.30561961]
  [       0.        ]
  [       0.        ]
  [       0.        ]
@@ -52484,19 +52476,19 @@
       <c r="C1938" t="inlineStr"/>
       <c r="D1938" t="inlineStr">
         <is>
-          <t>[[0.1289189 ]
- [0.12771584]
- [0.13313496]
- [0.14988231]
- [0.17563809]
- [0.21297135]
- [0.26560644]
- [0.33816037]
- [0.43286972]
- [0.53562679]
- [0.59160208]
+          <t>[[0.1288821 ]
+ [0.12767813]
+ [0.13309542]
+ [0.14983922]
+ [0.17559051]
+ [0.21291838]
+ [0.26554777]
+ [0.33809798]
+ [0.4328115 ]
+ [0.53558914]
+ [0.59159187]
  [0.32472098]
- [0.27308225]
+ [0.27308224]
  [0.15978898]
  [0.15428413]]</t>
         </is>
@@ -52517,7 +52509,7 @@
       <c r="C1939" t="inlineStr"/>
       <c r="D1939" t="inlineStr">
         <is>
-          <t>[0.11070637]</t>
+          <t>[0.11068017]</t>
         </is>
       </c>
       <c r="E1939" t="inlineStr"/>
@@ -52536,7 +52528,7 @@
       <c r="C1940" t="inlineStr"/>
       <c r="D1940" t="inlineStr">
         <is>
-          <t>[0.01195186]</t>
+          <t>[0.01194893]</t>
         </is>
       </c>
       <c r="E1940" t="inlineStr"/>
@@ -52555,7 +52547,7 @@
       <c r="C1941" t="inlineStr"/>
       <c r="D1941" t="inlineStr">
         <is>
-          <t>[54.65752416]</t>
+          <t>[54.64230165]</t>
         </is>
       </c>
       <c r="E1941" t="inlineStr"/>
@@ -52574,7 +52566,7 @@
       <c r="C1942" t="inlineStr"/>
       <c r="D1942" t="inlineStr">
         <is>
-          <t>[1.5932432]</t>
+          <t>[1.59284205]</t>
         </is>
       </c>
       <c r="E1942" t="inlineStr"/>
@@ -52620,7 +52612,7 @@
       </c>
       <c r="D1944" t="inlineStr">
         <is>
-          <t>[948395.22517194]</t>
+          <t>[948421.32607936]</t>
         </is>
       </c>
       <c r="E1944" t="inlineStr"/>
@@ -52643,7 +52635,7 @@
       </c>
       <c r="D1945" t="inlineStr">
         <is>
-          <t>[-6.7583112  -0.09586197  4.59784123]</t>
+          <t>[-6.75812851 -0.09586916  4.59772556]</t>
         </is>
       </c>
       <c r="E1945" t="inlineStr"/>
@@ -52666,8 +52658,8 @@
       </c>
       <c r="D1946" t="inlineStr">
         <is>
-          <t>[4.16137377e+08 2.85204501e+08 2.66306106e+08 5.41253414e+02
- 1.42357775e+07 1.69892135e+05]</t>
+          <t>[4.16138017e+08 2.85204924e+08 2.66307067e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E1946" t="inlineStr"/>
